--- a/data/nzd0077/nzd0077.xlsx
+++ b/data/nzd0077/nzd0077.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K321"/>
+  <dimension ref="A1:K326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12556,6 +12556,201 @@
       <c r="K321" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>331.79</v>
+      </c>
+      <c r="C322" t="n">
+        <v>327.1761538461539</v>
+      </c>
+      <c r="D322" t="n">
+        <v>330.9261538461539</v>
+      </c>
+      <c r="E322" t="n">
+        <v>336.6561538461539</v>
+      </c>
+      <c r="F322" t="n">
+        <v>334.1782352941176</v>
+      </c>
+      <c r="G322" t="n">
+        <v>349.3571428571428</v>
+      </c>
+      <c r="H322" t="n">
+        <v>351.8361538461539</v>
+      </c>
+      <c r="I322" t="n">
+        <v>365.28</v>
+      </c>
+      <c r="J322" t="n">
+        <v>359.7361538461539</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>318.18</v>
+      </c>
+      <c r="C323" t="n">
+        <v>331.3153846153846</v>
+      </c>
+      <c r="D323" t="n">
+        <v>321.6953846153846</v>
+      </c>
+      <c r="E323" t="n">
+        <v>329.2753846153847</v>
+      </c>
+      <c r="F323" t="n">
+        <v>336.7017647058824</v>
+      </c>
+      <c r="G323" t="n">
+        <v>344.3171428571428</v>
+      </c>
+      <c r="H323" t="n">
+        <v>344.7353846153846</v>
+      </c>
+      <c r="I323" t="n">
+        <v>361.3655555555556</v>
+      </c>
+      <c r="J323" t="n">
+        <v>353.4753846153847</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>329.57</v>
+      </c>
+      <c r="C324" t="n">
+        <v>346.5784615384616</v>
+      </c>
+      <c r="D324" t="n">
+        <v>334.1784615384615</v>
+      </c>
+      <c r="E324" t="n">
+        <v>335.8484615384615</v>
+      </c>
+      <c r="F324" t="n">
+        <v>343.1741176470588</v>
+      </c>
+      <c r="G324" t="n">
+        <v>354.1371428571428</v>
+      </c>
+      <c r="H324" t="n">
+        <v>353.4884615384615</v>
+      </c>
+      <c r="I324" t="n">
+        <v>366.3188888888889</v>
+      </c>
+      <c r="J324" t="n">
+        <v>368.5784615384616</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>328.19</v>
+      </c>
+      <c r="C325" t="n">
+        <v>330.6715384615384</v>
+      </c>
+      <c r="D325" t="n">
+        <v>326.8215384615385</v>
+      </c>
+      <c r="E325" t="n">
+        <v>331.1415384615385</v>
+      </c>
+      <c r="F325" t="n">
+        <v>331.8411764705882</v>
+      </c>
+      <c r="G325" t="n">
+        <v>345.96</v>
+      </c>
+      <c r="H325" t="n">
+        <v>346.1315384615385</v>
+      </c>
+      <c r="I325" t="n">
+        <v>364.4066666666667</v>
+      </c>
+      <c r="J325" t="n">
+        <v>361.9515384615385</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>328.15</v>
+      </c>
+      <c r="C326" t="n">
+        <v>335.6869230769231</v>
+      </c>
+      <c r="D326" t="n">
+        <v>333.5569230769231</v>
+      </c>
+      <c r="E326" t="n">
+        <v>340.2769230769231</v>
+      </c>
+      <c r="F326" t="n">
+        <v>342.1752941176471</v>
+      </c>
+      <c r="G326" t="n">
+        <v>344.5785714285714</v>
+      </c>
+      <c r="H326" t="n">
+        <v>346.0769230769231</v>
+      </c>
+      <c r="I326" t="n">
+        <v>363.0844444444445</v>
+      </c>
+      <c r="J326" t="n">
+        <v>355.3669230769231</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -12570,7 +12765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B331"/>
+  <dimension ref="A1:B336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15888,6 +16083,56 @@
       </c>
       <c r="B331" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>-0.32</v>
       </c>
     </row>
   </sheetData>
@@ -16056,28 +16301,28 @@
         <v>0.0412</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1326363240217285</v>
+        <v>0.151307581977698</v>
       </c>
       <c r="J2" t="n">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K2" t="n">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008639212354957237</v>
+        <v>0.01157689191491662</v>
       </c>
       <c r="M2" t="n">
-        <v>7.840116015630905</v>
+        <v>7.811609247256972</v>
       </c>
       <c r="N2" t="n">
-        <v>99.92007689484426</v>
+        <v>99.04168201804447</v>
       </c>
       <c r="O2" t="n">
-        <v>9.996003045960133</v>
+        <v>9.951968750857514</v>
       </c>
       <c r="P2" t="n">
-        <v>318.6062077604498</v>
+        <v>318.4221250077604</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -16133,28 +16378,28 @@
         <v>0.0687</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1498617410343764</v>
+        <v>0.1628057677116883</v>
       </c>
       <c r="J3" t="n">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K3" t="n">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01460644331337524</v>
+        <v>0.01768341504626558</v>
       </c>
       <c r="M3" t="n">
-        <v>6.756454563228694</v>
+        <v>6.727046610272958</v>
       </c>
       <c r="N3" t="n">
-        <v>73.70314097365679</v>
+        <v>73.40702849418275</v>
       </c>
       <c r="O3" t="n">
-        <v>8.58505334716429</v>
+        <v>8.567790175662727</v>
       </c>
       <c r="P3" t="n">
-        <v>327.0139036649588</v>
+        <v>326.8850735914272</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -16210,28 +16455,28 @@
         <v>0.0688</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1227250488328176</v>
+        <v>0.1140888287612792</v>
       </c>
       <c r="J4" t="n">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K4" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008759077235422019</v>
+        <v>0.007827137723371513</v>
       </c>
       <c r="M4" t="n">
-        <v>7.246290199193933</v>
+        <v>7.195931346966469</v>
       </c>
       <c r="N4" t="n">
-        <v>84.40226089401445</v>
+        <v>83.48867268786216</v>
       </c>
       <c r="O4" t="n">
-        <v>9.187070310714644</v>
+        <v>9.137213617283015</v>
       </c>
       <c r="P4" t="n">
-        <v>328.855511272185</v>
+        <v>328.9412588229237</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -16287,28 +16532,28 @@
         <v>0.0674</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1967222338777422</v>
+        <v>0.1898045968441553</v>
       </c>
       <c r="J5" t="n">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K5" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0265856568572479</v>
+        <v>0.02562538004491333</v>
       </c>
       <c r="M5" t="n">
-        <v>6.498379453486973</v>
+        <v>6.448131445401319</v>
       </c>
       <c r="N5" t="n">
-        <v>70.0062218951724</v>
+        <v>69.16810102613842</v>
       </c>
       <c r="O5" t="n">
-        <v>8.3669720864344</v>
+        <v>8.316736200345566</v>
       </c>
       <c r="P5" t="n">
-        <v>331.6351926291234</v>
+        <v>331.7042166246116</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -16364,28 +16609,28 @@
         <v>0.09320000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2218106459636918</v>
+        <v>0.2171464759911827</v>
       </c>
       <c r="J6" t="n">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K6" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0353968361530892</v>
+        <v>0.0350640008634473</v>
       </c>
       <c r="M6" t="n">
-        <v>6.488329360750638</v>
+        <v>6.455406900795854</v>
       </c>
       <c r="N6" t="n">
-        <v>65.65789756928551</v>
+        <v>64.92461396604935</v>
       </c>
       <c r="O6" t="n">
-        <v>8.10295610066385</v>
+        <v>8.057581148586054</v>
       </c>
       <c r="P6" t="n">
-        <v>333.3317801059004</v>
+        <v>333.3786601318141</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -16441,28 +16686,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2461444748772526</v>
+        <v>0.2600724718768151</v>
       </c>
       <c r="J7" t="n">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K7" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04255890742014956</v>
+        <v>0.04871421266321807</v>
       </c>
       <c r="M7" t="n">
-        <v>6.375983769686591</v>
+        <v>6.334779780852404</v>
       </c>
       <c r="N7" t="n">
-        <v>66.19389955522519</v>
+        <v>65.57051192795694</v>
       </c>
       <c r="O7" t="n">
-        <v>8.135963345248378</v>
+        <v>8.09756209781419</v>
       </c>
       <c r="P7" t="n">
-        <v>337.4677138580932</v>
+        <v>337.3271658344253</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -16518,28 +16763,28 @@
         <v>0.0674</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2821426470046872</v>
+        <v>0.2897285800995295</v>
       </c>
       <c r="J8" t="n">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K8" t="n">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06048638452874566</v>
+        <v>0.06557155898695655</v>
       </c>
       <c r="M8" t="n">
-        <v>6.05001408612045</v>
+        <v>5.999386968396443</v>
       </c>
       <c r="N8" t="n">
-        <v>60.98617065112659</v>
+        <v>60.26315526465852</v>
       </c>
       <c r="O8" t="n">
-        <v>7.809364292381717</v>
+        <v>7.762934706968656</v>
       </c>
       <c r="P8" t="n">
-        <v>339.0845111338832</v>
+        <v>339.0085319775465</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -16595,28 +16840,28 @@
         <v>0.1038</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3214251199628951</v>
+        <v>0.3360537356500596</v>
       </c>
       <c r="J9" t="n">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K9" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06312083775796218</v>
+        <v>0.07081195432271969</v>
       </c>
       <c r="M9" t="n">
-        <v>6.608319650394753</v>
+        <v>6.554657440690062</v>
       </c>
       <c r="N9" t="n">
-        <v>75.69379041609383</v>
+        <v>74.7611570238103</v>
       </c>
       <c r="O9" t="n">
-        <v>8.700217837278204</v>
+        <v>8.646453436167358</v>
       </c>
       <c r="P9" t="n">
-        <v>351.7535813490271</v>
+        <v>351.6073773183489</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -16672,28 +16917,28 @@
         <v>0.0718</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2478116852239826</v>
+        <v>0.2605097606484357</v>
       </c>
       <c r="J10" t="n">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K10" t="n">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04575791478771807</v>
+        <v>0.05164633462287305</v>
       </c>
       <c r="M10" t="n">
-        <v>6.20077805792779</v>
+        <v>6.184207039044616</v>
       </c>
       <c r="N10" t="n">
-        <v>63.39321625175798</v>
+        <v>63.03009511313844</v>
       </c>
       <c r="O10" t="n">
-        <v>7.961985697786575</v>
+        <v>7.939149520769743</v>
       </c>
       <c r="P10" t="n">
-        <v>349.8446951256203</v>
+        <v>349.7181568741387</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -16730,7 +16975,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K321"/>
+  <dimension ref="A1:K326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34207,6 +34452,291 @@
         </is>
       </c>
     </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>-35.4471796789118,174.42733922030416</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>-35.447862982782475,174.42685824394562</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>-35.44865639977592,174.42676493086077</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>-35.449404738268555,174.42677913710747</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>-35.45014456286985,174.42674387483888</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>-35.450881801917056,174.42692306394807</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>-35.45161230451294,174.42706033274894</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>-35.452318797901654,174.42732445410755</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>-35.45301977509055,174.42758085119587</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>-35.44712489011586,174.4272050627123</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>-35.44787373841553,174.42690190964282</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>-35.44864953521249,174.4266635828937</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>-35.449403319154804,174.42669784156334</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>-35.450144298033436,174.42677167496936</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>-35.450885296415855,174.4268677016573</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>-35.451621002359865,174.42698282687445</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>-35.45232766078708,174.42728270943587</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>-35.45304000302576,174.4275164553634</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>-35.44717074202833,174.42731733712858</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>-35.44791339879891,174.4270629234471</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>-35.44865881837006,174.42680063913122</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>-35.44940458297478,174.42677024077378</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>-35.45014361875123,174.42684297679392</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>-35.45087848766666,174.4269755702424</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>-35.45161028056747,174.4270783679124</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>-35.452316445700035,174.42733553309202</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>-35.45299120639881,174.42767179967024</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>-35.44716518666627,174.4273037340759</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>-35.44787206540696,174.42689511756097</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>-35.448653347343935,174.42671986479633</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>-35.449403677968725,174.4267183963303</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>-35.450144808131085,174.4267181289368</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>-35.4508841573388,174.4268857477561</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>-35.451619292192376,174.4269980660875</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>-35.45232077525967,174.42731514065053</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>-35.453012617390705,174.42760363777072</t>
+        </is>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>-35.447165025641254,174.42730333978454</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>-35.4478850976738,174.42694802601935</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>-35.44865835616083,174.426793815034</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>-35.44940543442032,174.42681901810067</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>-35.45014372358187,174.42683197338613</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>-35.4508851151542,174.4268705733409</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>-35.45161935909153,174.426997469953</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>-35.452323768968284,174.42730104012313</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>-35.45303389165288,174.42753591099438</t>
+        </is>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0077/nzd0077.xlsx
+++ b/data/nzd0077/nzd0077.xlsx
@@ -16146,7 +16146,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16237,35 +16237,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -16324,27 +16329,28 @@
       <c r="P2" t="n">
         <v>318.4221250077604</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.42406872382725 -35.44584397197653, 174.4331951755921 -35.44957097942514)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.4240687238272</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.44584397197653</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.4331951755921</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.44957097942514</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.4286319497097</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.44770747570084</v>
       </c>
     </row>
@@ -16401,27 +16407,28 @@
       <c r="P3" t="n">
         <v>326.8850735914272</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.42340682264933 -35.447012777144266, 174.43317564569125 -35.44941887479724)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.4234068226493</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.44701277714427</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.4331756456913</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.44941887479724</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.4282912341703</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.44821582597075</v>
       </c>
     </row>
@@ -16478,27 +16485,28 @@
       <c r="P4" t="n">
         <v>328.9412588229237</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.42313158137304 -35.448410249462704, 174.4332998704561 -35.449098845773236)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.423131581373</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.4484102494627</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.4332998704561</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.44909884577324</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.4282157259146</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.44875454761797</v>
       </c>
     </row>
@@ -16555,27 +16563,28 @@
       <c r="P5" t="n">
         <v>331.7042166246116</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.42307103605896 -35.449339952996134, 174.43327193338172 -35.449517900895046)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.423071036059</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.44933995299613</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.4332719333817</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.44951790089505</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.4281714847203</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.44942892694559</v>
       </c>
     </row>
@@ -16632,27 +16641,28 @@
       <c r="P6" t="n">
         <v>333.3786601318141</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.42306244059844 -35.45017957727727, 174.43326502878182 -35.45008226401976)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.4230624405984</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.45017957727727</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.4332650287818</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.45008226401976</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.4281637346901</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.45013092064852</v>
       </c>
     </row>
@@ -16709,27 +16719,28 @@
       <c r="P7" t="n">
         <v>337.3271658344253</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.42308550851448 -35.45112396984045, 174.43325852601907 -35.45048173460725)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.4230855085145</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.45112396984045</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.4332585260191</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-35.45048173460725</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.4281720172668</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.45080285222385</v>
       </c>
     </row>
@@ -16786,27 +16797,28 @@
       <c r="P8" t="n">
         <v>339.0085319775465</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.4232199705329 -35.452043214881314, 174.43332843743917 -35.450908716284694)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.4232199705329</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-35.45204321488131</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.4333284374392</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-35.45090871628469</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.428274203986</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-35.451475965583</v>
       </c>
     </row>
@@ -16863,27 +16875,28 @@
       <c r="P9" t="n">
         <v>351.6073773183489</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.4234289700269 -35.45314578491018, 174.4333043764715 -35.45104902171967)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.4234289700269</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-35.45314578491018</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.4333043764715</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-35.45104902171967</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.4283666732492</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-35.45209740331492</v>
       </c>
     </row>
@@ -16940,27 +16953,28 @@
       <c r="P10" t="n">
         <v>349.7181568741387</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.42388069134321 -35.45418199291956, 174.43340443212605 -35.45119029698278)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.4238806913432</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-35.45418199291956</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.4334044321261</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-35.45119029698278</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.4286425617346</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-35.45268614495117</v>
       </c>
     </row>

--- a/data/nzd0077/nzd0077.xlsx
+++ b/data/nzd0077/nzd0077.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K326"/>
+  <dimension ref="A1:K329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12749,6 +12749,111 @@
         <v>355.3669230769231</v>
       </c>
       <c r="K326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr"/>
+      <c r="C327" t="inlineStr"/>
+      <c r="D327" t="inlineStr"/>
+      <c r="E327" t="inlineStr"/>
+      <c r="F327" t="inlineStr"/>
+      <c r="G327" t="inlineStr"/>
+      <c r="H327" t="n">
+        <v>352.0230769230769</v>
+      </c>
+      <c r="I327" t="n">
+        <v>369.9388888888889</v>
+      </c>
+      <c r="J327" t="n">
+        <v>356.0230769230769</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>325.27</v>
+      </c>
+      <c r="C328" t="n">
+        <v>336.0669230769231</v>
+      </c>
+      <c r="D328" t="n">
+        <v>338.1669230769231</v>
+      </c>
+      <c r="E328" t="n">
+        <v>341.7169230769231</v>
+      </c>
+      <c r="F328" t="n">
+        <v>342.9564705882353</v>
+      </c>
+      <c r="G328" t="n">
+        <v>346.3542857142857</v>
+      </c>
+      <c r="H328" t="n">
+        <v>351.1769230769231</v>
+      </c>
+      <c r="I328" t="n">
+        <v>367.2855555555556</v>
+      </c>
+      <c r="J328" t="n">
+        <v>358.6569230769231</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:08+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>311.16</v>
+      </c>
+      <c r="C329" t="n">
+        <v>320.6415384615385</v>
+      </c>
+      <c r="D329" t="n">
+        <v>325.7715384615385</v>
+      </c>
+      <c r="E329" t="n">
+        <v>324.7815384615384</v>
+      </c>
+      <c r="F329" t="n">
+        <v>331.3929411764706</v>
+      </c>
+      <c r="G329" t="n">
+        <v>336.9985714285714</v>
+      </c>
+      <c r="H329" t="n">
+        <v>339.4415384615385</v>
+      </c>
+      <c r="I329" t="n">
+        <v>356.8433333333333</v>
+      </c>
+      <c r="J329" t="n">
+        <v>360.2815384615384</v>
+      </c>
+      <c r="K329" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12765,7 +12870,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B336"/>
+  <dimension ref="A1:B339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16133,6 +16238,36 @@
       </c>
       <c r="B336" t="n">
         <v>-0.32</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -16306,28 +16441,28 @@
         <v>0.0412</v>
       </c>
       <c r="I2" t="n">
-        <v>0.151307581977698</v>
+        <v>0.1454021278401101</v>
       </c>
       <c r="J2" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K2" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01157689191491662</v>
+        <v>0.01082359950951284</v>
       </c>
       <c r="M2" t="n">
-        <v>7.811609247256972</v>
+        <v>7.809595949270051</v>
       </c>
       <c r="N2" t="n">
-        <v>99.04168201804447</v>
+        <v>98.82254796629721</v>
       </c>
       <c r="O2" t="n">
-        <v>9.951968750857514</v>
+        <v>9.940953071325566</v>
       </c>
       <c r="P2" t="n">
-        <v>318.4221250077604</v>
+        <v>318.4811732535505</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16384,28 +16519,28 @@
         <v>0.0687</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1628057677116883</v>
+        <v>0.1587396164973319</v>
       </c>
       <c r="J3" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K3" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01768341504626558</v>
+        <v>0.01699901578206953</v>
       </c>
       <c r="M3" t="n">
-        <v>6.727046610272958</v>
+        <v>6.733492957107125</v>
       </c>
       <c r="N3" t="n">
-        <v>73.40702849418275</v>
+        <v>73.36160351660746</v>
       </c>
       <c r="O3" t="n">
-        <v>8.567790175662727</v>
+        <v>8.565138849814838</v>
       </c>
       <c r="P3" t="n">
-        <v>326.8850735914272</v>
+        <v>326.9261248370047</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16462,28 +16597,28 @@
         <v>0.0688</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1140888287612792</v>
+        <v>0.1141974196851688</v>
       </c>
       <c r="J4" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K4" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007827137723371513</v>
+        <v>0.007937019580140703</v>
       </c>
       <c r="M4" t="n">
-        <v>7.195931346966469</v>
+        <v>7.189551187655786</v>
       </c>
       <c r="N4" t="n">
-        <v>83.48867268786216</v>
+        <v>83.20018169903567</v>
       </c>
       <c r="O4" t="n">
-        <v>9.137213617283015</v>
+        <v>9.121413360824937</v>
       </c>
       <c r="P4" t="n">
-        <v>328.9412588229237</v>
+        <v>328.9403277631322</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16540,28 +16675,28 @@
         <v>0.0674</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1898045968441553</v>
+        <v>0.1851177087402576</v>
       </c>
       <c r="J5" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K5" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02562538004491333</v>
+        <v>0.02458431513202974</v>
       </c>
       <c r="M5" t="n">
-        <v>6.448131445401319</v>
+        <v>6.461522440983369</v>
       </c>
       <c r="N5" t="n">
-        <v>69.16810102613842</v>
+        <v>69.25657220424382</v>
       </c>
       <c r="O5" t="n">
-        <v>8.316736200345566</v>
+        <v>8.3220533646597</v>
       </c>
       <c r="P5" t="n">
-        <v>331.7042166246116</v>
+        <v>331.7517691827908</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16618,28 +16753,28 @@
         <v>0.09320000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2171464759911827</v>
+        <v>0.2146445683861096</v>
       </c>
       <c r="J6" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K6" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0350640008634473</v>
+        <v>0.0346710051497372</v>
       </c>
       <c r="M6" t="n">
-        <v>6.455406900795854</v>
+        <v>6.452783279268676</v>
       </c>
       <c r="N6" t="n">
-        <v>64.92461396604935</v>
+        <v>64.73886690812427</v>
       </c>
       <c r="O6" t="n">
-        <v>8.057581148586054</v>
+        <v>8.046046663307656</v>
       </c>
       <c r="P6" t="n">
-        <v>333.3786601318141</v>
+        <v>333.4042968237006</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16696,28 +16831,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2600724718768151</v>
+        <v>0.2567727606223532</v>
       </c>
       <c r="J7" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K7" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04871421266321807</v>
+        <v>0.04812189699983571</v>
       </c>
       <c r="M7" t="n">
-        <v>6.334779780852404</v>
+        <v>6.324201431551177</v>
       </c>
       <c r="N7" t="n">
-        <v>65.57051192795694</v>
+        <v>65.31828560846482</v>
       </c>
       <c r="O7" t="n">
-        <v>8.09756209781419</v>
+        <v>8.081972878478672</v>
       </c>
       <c r="P7" t="n">
-        <v>337.3271658344253</v>
+        <v>337.3609865244019</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16774,28 +16909,28 @@
         <v>0.0674</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2897285800995295</v>
+        <v>0.2919675904313896</v>
       </c>
       <c r="J8" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K8" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06557155898695655</v>
+        <v>0.06756669788503245</v>
       </c>
       <c r="M8" t="n">
-        <v>5.999386968396443</v>
+        <v>5.997485109734582</v>
       </c>
       <c r="N8" t="n">
-        <v>60.26315526465852</v>
+        <v>60.01009564103686</v>
       </c>
       <c r="O8" t="n">
-        <v>7.762934706968656</v>
+        <v>7.746618335831245</v>
       </c>
       <c r="P8" t="n">
-        <v>339.0085319775465</v>
+        <v>338.9861076245921</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -16852,28 +16987,28 @@
         <v>0.1038</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3360537356500596</v>
+        <v>0.3452912748802525</v>
       </c>
       <c r="J9" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K9" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07081195432271969</v>
+        <v>0.07556979391189977</v>
       </c>
       <c r="M9" t="n">
-        <v>6.554657440690062</v>
+        <v>6.550182571612482</v>
       </c>
       <c r="N9" t="n">
-        <v>74.7611570238103</v>
+        <v>74.53247404633164</v>
       </c>
       <c r="O9" t="n">
-        <v>8.646453436167358</v>
+        <v>8.633219216858311</v>
       </c>
       <c r="P9" t="n">
-        <v>351.6073773183489</v>
+        <v>351.5144037548927</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -16930,28 +17065,28 @@
         <v>0.0718</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2605097606484357</v>
+        <v>0.2644777705173367</v>
       </c>
       <c r="J10" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K10" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05164633462287305</v>
+        <v>0.05423730928206638</v>
       </c>
       <c r="M10" t="n">
-        <v>6.184207039044616</v>
+        <v>6.146072215711965</v>
       </c>
       <c r="N10" t="n">
-        <v>63.03009511313844</v>
+        <v>62.48274572704284</v>
       </c>
       <c r="O10" t="n">
-        <v>7.939149520769743</v>
+        <v>7.904602819056935</v>
       </c>
       <c r="P10" t="n">
-        <v>349.7181568741387</v>
+        <v>349.6781345581599</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -16989,7 +17124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K326"/>
+  <dimension ref="A1:K329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34751,6 +34886,153 @@
         </is>
       </c>
     </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr"/>
+      <c r="C327" t="inlineStr"/>
+      <c r="D327" t="inlineStr"/>
+      <c r="E327" t="inlineStr"/>
+      <c r="F327" t="inlineStr"/>
+      <c r="G327" t="inlineStr"/>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>-35.45161207554718,174.42706237303983</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>-35.452308249464544,174.42737413771928</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>-35.45303177168427,174.42754265993767</t>
+        </is>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>-35.44715343183699,174.427274950811</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>-35.447886085086914,174.42695203472837</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>-35.44866178439402,174.42684442990523</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>-35.449405711280065,174.42683487899288</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>-35.450143641594266,174.4268405791138</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>-35.450883883959925,174.42689007881972</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>-35.45161311201744,174.42705313715504</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>-35.45231425701955,174.42734584187912</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>-35.45302326198239,174.42756975065112</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:08+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>-35.44709663014772,174.4271358646705</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>-35.447846002801235,174.42678930880794</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>-35.44865256649984,174.42670833646505</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>-35.449402455088084,174.4266483440579</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>-35.45014485517022,174.42671319101143</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>-35.45089037072382,174.42678731020288</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>-35.45162748684539,174.42692504380236</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>-35.45233789975419,174.42723448324912</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>-35.45301801300442,174.4275864608079</t>
+        </is>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0077/nzd0077.xlsx
+++ b/data/nzd0077/nzd0077.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K329"/>
+  <dimension ref="A1:K333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12854,6 +12854,162 @@
         <v>360.2815384615384</v>
       </c>
       <c r="K329" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:48+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>316.78</v>
+      </c>
+      <c r="C330" t="n">
+        <v>335.1323076923077</v>
+      </c>
+      <c r="D330" t="n">
+        <v>330.7823076923077</v>
+      </c>
+      <c r="E330" t="n">
+        <v>336.7423076923077</v>
+      </c>
+      <c r="F330" t="n">
+        <v>343.4464705882353</v>
+      </c>
+      <c r="G330" t="n">
+        <v>344.4928571428572</v>
+      </c>
+      <c r="H330" t="n">
+        <v>350.9623076923077</v>
+      </c>
+      <c r="I330" t="n">
+        <v>358.4844444444445</v>
+      </c>
+      <c r="J330" t="n">
+        <v>356.6923076923077</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>319.24</v>
+      </c>
+      <c r="C331" t="n">
+        <v>333.3530769230769</v>
+      </c>
+      <c r="D331" t="n">
+        <v>324.2230769230769</v>
+      </c>
+      <c r="E331" t="n">
+        <v>332.2730769230769</v>
+      </c>
+      <c r="F331" t="n">
+        <v>332.1647058823529</v>
+      </c>
+      <c r="G331" t="n">
+        <v>335.2614285714285</v>
+      </c>
+      <c r="H331" t="n">
+        <v>341.6130769230769</v>
+      </c>
+      <c r="I331" t="n">
+        <v>357.0355555555556</v>
+      </c>
+      <c r="J331" t="n">
+        <v>354.1230769230769</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>327.19</v>
+      </c>
+      <c r="C332" t="n">
+        <v>339.3092307692308</v>
+      </c>
+      <c r="D332" t="n">
+        <v>336.3792307692308</v>
+      </c>
+      <c r="E332" t="n">
+        <v>345.4392307692308</v>
+      </c>
+      <c r="F332" t="n">
+        <v>348.9505882352942</v>
+      </c>
+      <c r="G332" t="n">
+        <v>344.4057142857143</v>
+      </c>
+      <c r="H332" t="n">
+        <v>354.4992307692308</v>
+      </c>
+      <c r="I332" t="n">
+        <v>368.0777777777778</v>
+      </c>
+      <c r="J332" t="n">
+        <v>361.0392307692308</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>329.53</v>
+      </c>
+      <c r="C333" t="n">
+        <v>332.8838461538461</v>
+      </c>
+      <c r="D333" t="n">
+        <v>328.8138461538462</v>
+      </c>
+      <c r="E333" t="n">
+        <v>336.2738461538461</v>
+      </c>
+      <c r="F333" t="n">
+        <v>331.7241176470588</v>
+      </c>
+      <c r="G333" t="n">
+        <v>337.5857142857143</v>
+      </c>
+      <c r="H333" t="n">
+        <v>343.2538461538461</v>
+      </c>
+      <c r="I333" t="n">
+        <v>355.5077777777778</v>
+      </c>
+      <c r="J333" t="n">
+        <v>355.1438461538461</v>
+      </c>
+      <c r="K333" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12870,7 +13026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B339"/>
+  <dimension ref="A1:B343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16268,6 +16424,46 @@
       </c>
       <c r="B339" t="n">
         <v>0.03</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
@@ -16441,28 +16637,28 @@
         <v>0.0412</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1454021278401101</v>
+        <v>0.1481039111440116</v>
       </c>
       <c r="J2" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K2" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01082359950951284</v>
+        <v>0.01153292655838634</v>
       </c>
       <c r="M2" t="n">
-        <v>7.809595949270051</v>
+        <v>7.773551956067132</v>
       </c>
       <c r="N2" t="n">
-        <v>98.82254796629721</v>
+        <v>97.90477432516765</v>
       </c>
       <c r="O2" t="n">
-        <v>9.940953071325566</v>
+        <v>9.894684144790457</v>
       </c>
       <c r="P2" t="n">
-        <v>318.4811732535505</v>
+        <v>318.4539810834721</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16519,28 +16715,28 @@
         <v>0.0687</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1587396164973319</v>
+        <v>0.1706652382900528</v>
       </c>
       <c r="J3" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K3" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01699901578206953</v>
+        <v>0.02014471881745394</v>
       </c>
       <c r="M3" t="n">
-        <v>6.733492957107125</v>
+        <v>6.697334911386421</v>
       </c>
       <c r="N3" t="n">
-        <v>73.36160351660746</v>
+        <v>72.68487736508706</v>
       </c>
       <c r="O3" t="n">
-        <v>8.565138849814838</v>
+        <v>8.525542643438426</v>
       </c>
       <c r="P3" t="n">
-        <v>326.9261248370047</v>
+        <v>326.8058572493621</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16597,28 +16793,28 @@
         <v>0.0688</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1141974196851688</v>
+        <v>0.1093615705793834</v>
       </c>
       <c r="J4" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K4" t="n">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007937019580140703</v>
+        <v>0.007475125021622286</v>
       </c>
       <c r="M4" t="n">
-        <v>7.189551187655786</v>
+        <v>7.150365124474651</v>
       </c>
       <c r="N4" t="n">
-        <v>83.20018169903567</v>
+        <v>82.42828261852328</v>
       </c>
       <c r="O4" t="n">
-        <v>9.121413360824937</v>
+        <v>9.079002292021039</v>
       </c>
       <c r="P4" t="n">
-        <v>328.9403277631322</v>
+        <v>328.9890926778444</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16675,28 +16871,28 @@
         <v>0.0674</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1851177087402576</v>
+        <v>0.1882823740355848</v>
       </c>
       <c r="J5" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K5" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02458431513202974</v>
+        <v>0.02604546194584334</v>
       </c>
       <c r="M5" t="n">
-        <v>6.461522440983369</v>
+        <v>6.421868043139558</v>
       </c>
       <c r="N5" t="n">
-        <v>69.25657220424382</v>
+        <v>68.6736221364678</v>
       </c>
       <c r="O5" t="n">
-        <v>8.3220533646597</v>
+        <v>8.286954937518836</v>
       </c>
       <c r="P5" t="n">
-        <v>331.7517691827908</v>
+        <v>331.7196402061549</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16753,28 +16949,28 @@
         <v>0.09320000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2146445683861096</v>
+        <v>0.2150245795078366</v>
       </c>
       <c r="J6" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K6" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0346710051497372</v>
+        <v>0.03542299041011232</v>
       </c>
       <c r="M6" t="n">
-        <v>6.452783279268676</v>
+        <v>6.461270730732203</v>
       </c>
       <c r="N6" t="n">
-        <v>64.73886690812427</v>
+        <v>64.60824202019106</v>
       </c>
       <c r="O6" t="n">
-        <v>8.046046663307656</v>
+        <v>8.037925231064984</v>
       </c>
       <c r="P6" t="n">
-        <v>333.4042968237006</v>
+        <v>333.400471221916</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16831,28 +17027,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2567727606223532</v>
+        <v>0.2471199999882756</v>
       </c>
       <c r="J7" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K7" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04812189699983571</v>
+        <v>0.04578258678309644</v>
       </c>
       <c r="M7" t="n">
-        <v>6.324201431551177</v>
+        <v>6.295068448066911</v>
       </c>
       <c r="N7" t="n">
-        <v>65.31828560846482</v>
+        <v>64.84310169836621</v>
       </c>
       <c r="O7" t="n">
-        <v>8.081972878478672</v>
+        <v>8.052521449730278</v>
       </c>
       <c r="P7" t="n">
-        <v>337.3609865244019</v>
+        <v>337.4600023661311</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16909,28 +17105,28 @@
         <v>0.0674</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2919675904313896</v>
+        <v>0.2948338637766599</v>
       </c>
       <c r="J8" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K8" t="n">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06756669788503245</v>
+        <v>0.07027330331526205</v>
       </c>
       <c r="M8" t="n">
-        <v>5.997485109734582</v>
+        <v>5.986774440906718</v>
       </c>
       <c r="N8" t="n">
-        <v>60.01009564103686</v>
+        <v>59.61838600349461</v>
       </c>
       <c r="O8" t="n">
-        <v>7.746618335831245</v>
+        <v>7.72129432177628</v>
       </c>
       <c r="P8" t="n">
-        <v>338.9861076245921</v>
+        <v>338.9569185566597</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -16987,28 +17183,28 @@
         <v>0.1038</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3452912748802525</v>
+        <v>0.3436277276302704</v>
       </c>
       <c r="J9" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K9" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07556979391189977</v>
+        <v>0.07666991900513664</v>
       </c>
       <c r="M9" t="n">
-        <v>6.550182571612482</v>
+        <v>6.523803377737682</v>
       </c>
       <c r="N9" t="n">
-        <v>74.53247404633164</v>
+        <v>73.88197400640017</v>
       </c>
       <c r="O9" t="n">
-        <v>8.633219216858311</v>
+        <v>8.595462407945263</v>
       </c>
       <c r="P9" t="n">
-        <v>351.5144037548927</v>
+        <v>351.5312838820686</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -17065,28 +17261,28 @@
         <v>0.0718</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2644777705173367</v>
+        <v>0.2651869763162676</v>
       </c>
       <c r="J10" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K10" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05423730928206638</v>
+        <v>0.05596268547416317</v>
       </c>
       <c r="M10" t="n">
-        <v>6.146072215711965</v>
+        <v>6.094793215670366</v>
       </c>
       <c r="N10" t="n">
-        <v>62.48274572704284</v>
+        <v>61.77415909132941</v>
       </c>
       <c r="O10" t="n">
-        <v>7.904602819056935</v>
+        <v>7.859653878596017</v>
       </c>
       <c r="P10" t="n">
-        <v>349.6781345581599</v>
+        <v>349.6709491546134</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -17124,7 +17320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K329"/>
+  <dimension ref="A1:K333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35033,6 +35229,234 @@
         </is>
       </c>
     </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:48+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>-35.44711925422804,174.42719126252922</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>-35.44788365653012,174.4269421752519</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>-35.44865629280378,174.4267633515215</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>-35.44940475483319,174.42678008604975</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>-35.450143590166505,174.4268459771342</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>-35.450885174584265,174.42686963180532</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>-35.45161337490388,174.42705079459876</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>-35.45233418404277,174.4272519844982</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>-35.45302960946502,174.42754954338469</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>-35.44712915728697,174.42721551142355</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>-35.447879033275264,174.42692340573163</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>-35.44865141496728,174.42669133534392</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>-35.4494038955331,174.4267308596701</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>-35.450144774178796,174.42672169305618</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>-35.4508915751584,174.42676822841145</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>-35.45162482690936,174.42694874645</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>-35.452337464535574,174.42723653315855</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>-35.45303791039659,174.42752311727563</t>
+        </is>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>-35.4471611610406,174.42729387679248</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>-35.447894510073915,174.42698623859556</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>-35.448660454976576,174.426824802179</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>-35.4494064269351,174.42687587838262</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>-35.45014301246726,174.4269066125199</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>-35.450885235004804,174.42686867457743</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>-35.451609042454265,174.42708940059572</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>-35.4523124633072,174.42735429034443</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>-35.45301556497177,174.4275942541331</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>-35.44717058100336,174.42731694283717</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>-35.447877813998744,174.42691845570715</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>-35.44865482894252,174.42674173906636</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>-35.44940466476292,174.4267749261762</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>-35.45014482041559,174.42671683937363</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>-35.450889963632164,174.42679375972273</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>-35.451622817114036,174.42696665567573</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>-35.45234092364207,174.42722024052517</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>-35.45303461239242,174.42753361651182</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0077/nzd0077.xlsx
+++ b/data/nzd0077/nzd0077.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28847,7 +28847,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>-35.45160929591892,174.4270871420023</t>
+          <t>-35.45160929591893,174.4270871420023</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -32320,7 +32320,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>-35.45305861547994,174.42745720230667</t>
+          <t>-35.45305861547995,174.42745720230667</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">

--- a/data/nzd0077/nzd0077.xlsx
+++ b/data/nzd0077/nzd0077.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K333"/>
+  <dimension ref="A1:K336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13010,6 +13010,123 @@
         <v>355.1438461538461</v>
       </c>
       <c r="K333" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>316.19</v>
+      </c>
+      <c r="C334" t="n">
+        <v>325.8946153846153</v>
+      </c>
+      <c r="D334" t="n">
+        <v>328.2846153846153</v>
+      </c>
+      <c r="E334" t="n">
+        <v>331.1846153846154</v>
+      </c>
+      <c r="F334" t="n">
+        <v>338.1435294117647</v>
+      </c>
+      <c r="G334" t="n">
+        <v>342.1985714285714</v>
+      </c>
+      <c r="H334" t="n">
+        <v>348.4546153846153</v>
+      </c>
+      <c r="I334" t="n">
+        <v>363.3044444444445</v>
+      </c>
+      <c r="J334" t="n">
+        <v>351.6046153846154</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>321.95</v>
+      </c>
+      <c r="C335" t="n">
+        <v>338.3007692307692</v>
+      </c>
+      <c r="D335" t="n">
+        <v>327.3707692307692</v>
+      </c>
+      <c r="E335" t="n">
+        <v>334.3007692307692</v>
+      </c>
+      <c r="F335" t="n">
+        <v>336.8294117647059</v>
+      </c>
+      <c r="G335" t="n">
+        <v>351.6242857142857</v>
+      </c>
+      <c r="H335" t="n">
+        <v>349.3407692307692</v>
+      </c>
+      <c r="I335" t="n">
+        <v>359.5322222222222</v>
+      </c>
+      <c r="J335" t="n">
+        <v>364.2807692307693</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>321.14</v>
+      </c>
+      <c r="C336" t="n">
+        <v>340.9730769230769</v>
+      </c>
+      <c r="D336" t="n">
+        <v>328.5630769230769</v>
+      </c>
+      <c r="E336" t="n">
+        <v>334.5030769230769</v>
+      </c>
+      <c r="F336" t="n">
+        <v>343.2441176470588</v>
+      </c>
+      <c r="G336" t="n">
+        <v>351.6785714285714</v>
+      </c>
+      <c r="H336" t="n">
+        <v>348.7330769230769</v>
+      </c>
+      <c r="I336" t="n">
+        <v>359.85</v>
+      </c>
+      <c r="J336" t="n">
+        <v>365.2130769230769</v>
+      </c>
+      <c r="K336" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13026,7 +13143,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B343"/>
+  <dimension ref="A1:B346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16464,6 +16581,36 @@
       </c>
       <c r="B343" t="n">
         <v>0.79</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>-0.95</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -16637,28 +16784,28 @@
         <v>0.0412</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1481039111440116</v>
+        <v>0.1429780809164677</v>
       </c>
       <c r="J2" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K2" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01153292655838634</v>
+        <v>0.01098884199175598</v>
       </c>
       <c r="M2" t="n">
-        <v>7.773551956067132</v>
+        <v>7.723964943003025</v>
       </c>
       <c r="N2" t="n">
-        <v>97.90477432516765</v>
+        <v>97.07145926820159</v>
       </c>
       <c r="O2" t="n">
-        <v>9.894684144790457</v>
+        <v>9.852484928595507</v>
       </c>
       <c r="P2" t="n">
-        <v>318.4539810834721</v>
+        <v>318.5055216770995</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16715,28 +16862,28 @@
         <v>0.0687</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1706652382900528</v>
+        <v>0.1787676312196564</v>
       </c>
       <c r="J3" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K3" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02014471881745394</v>
+        <v>0.02240053880470039</v>
       </c>
       <c r="M3" t="n">
-        <v>6.697334911386421</v>
+        <v>6.70314600924583</v>
       </c>
       <c r="N3" t="n">
-        <v>72.68487736508706</v>
+        <v>72.53200670870291</v>
       </c>
       <c r="O3" t="n">
-        <v>8.525542643438426</v>
+        <v>8.516572474223588</v>
       </c>
       <c r="P3" t="n">
-        <v>326.8058572493621</v>
+        <v>326.7235680073987</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16793,28 +16940,28 @@
         <v>0.0688</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1093615705793834</v>
+        <v>0.1020729473541152</v>
       </c>
       <c r="J4" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K4" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007475125021622286</v>
+        <v>0.006649180400241317</v>
       </c>
       <c r="M4" t="n">
-        <v>7.150365124474651</v>
+        <v>7.117549590348838</v>
       </c>
       <c r="N4" t="n">
-        <v>82.42828261852328</v>
+        <v>81.7832869598669</v>
       </c>
       <c r="O4" t="n">
-        <v>9.079002292021039</v>
+        <v>9.043411245756046</v>
       </c>
       <c r="P4" t="n">
-        <v>328.9890926778444</v>
+        <v>329.0630221225409</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16871,28 +17018,28 @@
         <v>0.0674</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1882823740355848</v>
+        <v>0.1818159156983205</v>
       </c>
       <c r="J5" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K5" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02604546194584334</v>
+        <v>0.02481223510352615</v>
       </c>
       <c r="M5" t="n">
-        <v>6.421868043139558</v>
+        <v>6.390440963133553</v>
       </c>
       <c r="N5" t="n">
-        <v>68.6736221364678</v>
+        <v>68.13250619799676</v>
       </c>
       <c r="O5" t="n">
-        <v>8.286954937518836</v>
+        <v>8.254241709448346</v>
       </c>
       <c r="P5" t="n">
-        <v>331.7196402061549</v>
+        <v>331.7855462685432</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16949,28 +17096,28 @@
         <v>0.09320000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2150245795078366</v>
+        <v>0.2159227422082034</v>
       </c>
       <c r="J6" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K6" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03542299041011232</v>
+        <v>0.03642385446371499</v>
       </c>
       <c r="M6" t="n">
-        <v>6.461270730732203</v>
+        <v>6.421688957199461</v>
       </c>
       <c r="N6" t="n">
-        <v>64.60824202019106</v>
+        <v>64.06219590336519</v>
       </c>
       <c r="O6" t="n">
-        <v>8.037925231064984</v>
+        <v>8.003886300002343</v>
       </c>
       <c r="P6" t="n">
-        <v>333.400471221916</v>
+        <v>333.3911759392468</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17027,28 +17174,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2471199999882756</v>
+        <v>0.2564818803849352</v>
       </c>
       <c r="J7" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K7" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04578258678309644</v>
+        <v>0.04989280400910512</v>
       </c>
       <c r="M7" t="n">
-        <v>6.295068448066911</v>
+        <v>6.288476004351478</v>
       </c>
       <c r="N7" t="n">
-        <v>64.84310169836621</v>
+        <v>64.61091929767655</v>
       </c>
       <c r="O7" t="n">
-        <v>8.052521449730278</v>
+        <v>8.038091769672485</v>
       </c>
       <c r="P7" t="n">
-        <v>337.4600023661311</v>
+        <v>337.3634006768357</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17105,28 +17252,28 @@
         <v>0.0674</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2948338637766599</v>
+        <v>0.2992447851056753</v>
       </c>
       <c r="J8" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K8" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07027330331526205</v>
+        <v>0.07362071885766086</v>
       </c>
       <c r="M8" t="n">
-        <v>5.986774440906718</v>
+        <v>5.951023002038685</v>
       </c>
       <c r="N8" t="n">
-        <v>59.61838600349461</v>
+        <v>59.09755466377135</v>
       </c>
       <c r="O8" t="n">
-        <v>7.72129432177628</v>
+        <v>7.687493392762777</v>
       </c>
       <c r="P8" t="n">
-        <v>338.9569185566597</v>
+        <v>338.9116926490821</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17183,28 +17330,28 @@
         <v>0.1038</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3436277276302704</v>
+        <v>0.3445699948612319</v>
       </c>
       <c r="J9" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K9" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07666991900513664</v>
+        <v>0.07858327476712335</v>
       </c>
       <c r="M9" t="n">
-        <v>6.523803377737682</v>
+        <v>6.474497110317832</v>
       </c>
       <c r="N9" t="n">
-        <v>73.88197400640017</v>
+        <v>73.19981454612903</v>
       </c>
       <c r="O9" t="n">
-        <v>8.595462407945263</v>
+        <v>8.555689016445667</v>
       </c>
       <c r="P9" t="n">
-        <v>351.5312838820686</v>
+        <v>351.5216948476226</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -17261,28 +17408,28 @@
         <v>0.0718</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2651869763162676</v>
+        <v>0.2726758825546818</v>
       </c>
       <c r="J10" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K10" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05596268547416317</v>
+        <v>0.05971924476222057</v>
       </c>
       <c r="M10" t="n">
-        <v>6.094793215670366</v>
+        <v>6.106044261502205</v>
       </c>
       <c r="N10" t="n">
-        <v>61.77415909132941</v>
+        <v>61.68844590844297</v>
       </c>
       <c r="O10" t="n">
-        <v>7.859653878596017</v>
+        <v>7.854199253166612</v>
       </c>
       <c r="P10" t="n">
-        <v>349.6709491546134</v>
+        <v>349.5946072286688</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -17320,7 +17467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K333"/>
+  <dimension ref="A1:K336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35457,6 +35604,177 @@
         </is>
       </c>
     </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>-35.4471168791034,174.42718544673835</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>-35.44785965275047,174.42684472470395</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>-35.448654435375424,174.42673592844938</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>-35.4494036862513,174.42671887080144</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>-35.45014414672193,174.42678755798076</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>-35.450886765326025,174.4268444300351</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>-35.451616446620186,174.427023422793</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>-35.45232327085553,174.4273033862614</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>-35.453046047292275,174.4274972133537</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>-35.447140066748496,174.42724222464312</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>-35.44789188963418,174.42697560009663</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>-35.448653755785024,174.42672589500043</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>-35.44940428540048,174.42675319370392</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>-35.45014428463712,174.42677308117638</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>-35.45088022997865,174.42694796756172</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>-35.4516153611555,174.42703309528414</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>-35.45233181172197,174.42726315828065</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>-35.45300509186007,174.42762759531783</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>-35.447136805987576,174.42723424024834</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>-35.44789883349756,174.42700379090297</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>-35.44865464245582,174.42673898577985</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>-35.44940432429826,174.4267554220237</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>-35.45014361140441,174.4268437479397</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>-35.45088019233924,174.42694856386748</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>-35.45161610552805,174.42702646223907</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>-35.45233109222681,174.4272665471477</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>-35.45300207965826,174.42763718466497</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0077/nzd0077.xlsx
+++ b/data/nzd0077/nzd0077.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K336"/>
+  <dimension ref="A1:K339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13127,6 +13127,123 @@
         <v>365.2130769230769</v>
       </c>
       <c r="K336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>314.07</v>
+      </c>
+      <c r="C337" t="n">
+        <v>331.7261538461539</v>
+      </c>
+      <c r="D337" t="n">
+        <v>323.0261538461539</v>
+      </c>
+      <c r="E337" t="n">
+        <v>325.2661538461539</v>
+      </c>
+      <c r="F337" t="n">
+        <v>329.9029411764706</v>
+      </c>
+      <c r="G337" t="n">
+        <v>342.04</v>
+      </c>
+      <c r="H337" t="n">
+        <v>342.9461538461539</v>
+      </c>
+      <c r="I337" t="n">
+        <v>364.1444444444445</v>
+      </c>
+      <c r="J337" t="n">
+        <v>360.1961538461539</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>313.23</v>
+      </c>
+      <c r="C338" t="n">
+        <v>321.8423076923077</v>
+      </c>
+      <c r="D338" t="n">
+        <v>324.3523076923077</v>
+      </c>
+      <c r="E338" t="n">
+        <v>328.8223076923077</v>
+      </c>
+      <c r="F338" t="n">
+        <v>330.5941176470589</v>
+      </c>
+      <c r="G338" t="n">
+        <v>340.2314285714286</v>
+      </c>
+      <c r="H338" t="n">
+        <v>341.3623076923077</v>
+      </c>
+      <c r="I338" t="n">
+        <v>357.9022222222222</v>
+      </c>
+      <c r="J338" t="n">
+        <v>359.1623076923077</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>315.21</v>
+      </c>
+      <c r="C339" t="n">
+        <v>331.12</v>
+      </c>
+      <c r="D339" t="n">
+        <v>321.73</v>
+      </c>
+      <c r="E339" t="n">
+        <v>327.21</v>
+      </c>
+      <c r="F339" t="n">
+        <v>333.8223529411765</v>
+      </c>
+      <c r="G339" t="n">
+        <v>341.9714285714285</v>
+      </c>
+      <c r="H339" t="n">
+        <v>338.82</v>
+      </c>
+      <c r="I339" t="n">
+        <v>360.0722222222223</v>
+      </c>
+      <c r="J339" t="n">
+        <v>356.11</v>
+      </c>
+      <c r="K339" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13143,7 +13260,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B346"/>
+  <dimension ref="A1:B349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16611,6 +16728,36 @@
       </c>
       <c r="B346" t="n">
         <v>0.45</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>-0.52</v>
       </c>
     </row>
   </sheetData>
@@ -16784,28 +16931,28 @@
         <v>0.0412</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1429780809164677</v>
+        <v>0.1269725431741654</v>
       </c>
       <c r="J2" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K2" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01098884199175598</v>
+        <v>0.008824886518140729</v>
       </c>
       <c r="M2" t="n">
-        <v>7.723964943003025</v>
+        <v>7.729914765204518</v>
       </c>
       <c r="N2" t="n">
-        <v>97.07145926820159</v>
+        <v>96.74523068214147</v>
       </c>
       <c r="O2" t="n">
-        <v>9.852484928595507</v>
+        <v>9.835915345413536</v>
       </c>
       <c r="P2" t="n">
-        <v>318.5055216770995</v>
+        <v>318.6672875672364</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16862,28 +17009,28 @@
         <v>0.0687</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1787676312196564</v>
+        <v>0.1723290876898383</v>
       </c>
       <c r="J3" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K3" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02240053880470039</v>
+        <v>0.02123859099192071</v>
       </c>
       <c r="M3" t="n">
-        <v>6.70314600924583</v>
+        <v>6.67071610917592</v>
       </c>
       <c r="N3" t="n">
-        <v>72.53200670870291</v>
+        <v>72.11193084710989</v>
       </c>
       <c r="O3" t="n">
-        <v>8.516572474223588</v>
+        <v>8.491874401279725</v>
       </c>
       <c r="P3" t="n">
-        <v>326.7235680073987</v>
+        <v>326.7891339393965</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16940,28 +17087,28 @@
         <v>0.0688</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1020729473541152</v>
+        <v>0.08553054735905126</v>
       </c>
       <c r="J4" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K4" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006649180400241317</v>
+        <v>0.004737239166836327</v>
       </c>
       <c r="M4" t="n">
-        <v>7.117549590348838</v>
+        <v>7.127993393649238</v>
       </c>
       <c r="N4" t="n">
-        <v>81.7832869598669</v>
+        <v>81.71227007597841</v>
       </c>
       <c r="O4" t="n">
-        <v>9.043411245756046</v>
+        <v>9.039483949649915</v>
       </c>
       <c r="P4" t="n">
-        <v>329.0630221225409</v>
+        <v>329.231576423868</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17018,28 +17165,28 @@
         <v>0.0674</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1818159156983205</v>
+        <v>0.1635319896822054</v>
       </c>
       <c r="J5" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K5" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02481223510352615</v>
+        <v>0.02034827337039491</v>
       </c>
       <c r="M5" t="n">
-        <v>6.390440963133553</v>
+        <v>6.414935260622891</v>
       </c>
       <c r="N5" t="n">
-        <v>68.13250619799676</v>
+        <v>68.32100405148736</v>
       </c>
       <c r="O5" t="n">
-        <v>8.254241709448346</v>
+        <v>8.265652064506911</v>
       </c>
       <c r="P5" t="n">
-        <v>331.7855462685432</v>
+        <v>331.9727979784492</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17096,28 +17243,28 @@
         <v>0.09320000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2159227422082034</v>
+        <v>0.2012424689808654</v>
       </c>
       <c r="J6" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K6" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03642385446371499</v>
+        <v>0.03218053266536702</v>
       </c>
       <c r="M6" t="n">
-        <v>6.421688957199461</v>
+        <v>6.439687966449682</v>
       </c>
       <c r="N6" t="n">
-        <v>64.06219590336519</v>
+        <v>64.00693611889099</v>
       </c>
       <c r="O6" t="n">
-        <v>8.003886300002343</v>
+        <v>8.00043349568578</v>
       </c>
       <c r="P6" t="n">
-        <v>333.3911759392468</v>
+        <v>333.5427970920409</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17174,28 +17321,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2564818803849352</v>
+        <v>0.2513588923999503</v>
       </c>
       <c r="J7" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K7" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04989280400910512</v>
+        <v>0.0489581607736771</v>
       </c>
       <c r="M7" t="n">
-        <v>6.288476004351478</v>
+        <v>6.253206314779571</v>
       </c>
       <c r="N7" t="n">
-        <v>64.61091929767655</v>
+        <v>64.06320893106349</v>
       </c>
       <c r="O7" t="n">
-        <v>8.038091769672485</v>
+        <v>8.003949583240981</v>
       </c>
       <c r="P7" t="n">
-        <v>337.3634006768357</v>
+        <v>337.4164499306073</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17252,28 +17399,28 @@
         <v>0.0674</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2992447851056753</v>
+        <v>0.2884845574395747</v>
       </c>
       <c r="J8" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K8" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07362071885766086</v>
+        <v>0.06977103253902794</v>
       </c>
       <c r="M8" t="n">
-        <v>5.951023002038685</v>
+        <v>5.947180961350031</v>
       </c>
       <c r="N8" t="n">
-        <v>59.09755466377135</v>
+        <v>58.85737332084648</v>
       </c>
       <c r="O8" t="n">
-        <v>7.687493392762777</v>
+        <v>7.671855924145505</v>
       </c>
       <c r="P8" t="n">
-        <v>338.9116926490821</v>
+        <v>339.0225429901718</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17330,28 +17477,28 @@
         <v>0.1038</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3445699948612319</v>
+        <v>0.345030820590622</v>
       </c>
       <c r="J9" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K9" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07858327476712335</v>
+        <v>0.08026324329050705</v>
       </c>
       <c r="M9" t="n">
-        <v>6.474497110317832</v>
+        <v>6.43365428003522</v>
       </c>
       <c r="N9" t="n">
-        <v>73.19981454612903</v>
+        <v>72.56515661586278</v>
       </c>
       <c r="O9" t="n">
-        <v>8.555689016445667</v>
+        <v>8.518518451929465</v>
       </c>
       <c r="P9" t="n">
-        <v>351.5216948476226</v>
+        <v>351.5169960112703</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -17408,28 +17555,28 @@
         <v>0.0718</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2726758825546818</v>
+        <v>0.2761310872310452</v>
       </c>
       <c r="J10" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K10" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05971924476222057</v>
+        <v>0.06230745980296326</v>
       </c>
       <c r="M10" t="n">
-        <v>6.106044261502205</v>
+        <v>6.069817477291183</v>
       </c>
       <c r="N10" t="n">
-        <v>61.68844590844297</v>
+        <v>61.16689721989911</v>
       </c>
       <c r="O10" t="n">
-        <v>7.854199253166612</v>
+        <v>7.820926877288849</v>
       </c>
       <c r="P10" t="n">
-        <v>349.5946072286688</v>
+        <v>349.5593072445079</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -17467,7 +17614,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K336"/>
+  <dimension ref="A1:K339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35775,6 +35922,177 @@
         </is>
       </c>
     </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>-35.44710834475486,174.42716454932312</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>-35.447874805782824,174.4269062429425</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>-35.448650524859,174.4266781938914</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>-35.449402548269816,174.426653681858</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>-35.450145011533834,174.42669677662158</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>-35.450886875271244,174.42684268819414</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>-35.45162319400975,174.4269632971712</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>-35.452321368970075,174.42731234424352</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>-35.45301828887406,174.4275855825753</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>-35.44710496321951,174.42715626921637</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>-35.447849122963234,174.42680197599242</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>-35.44865151107143,174.42669275421542</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>-35.4494032320391,174.42669285114383</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>-35.45014493900065,174.42670439087667</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>-35.45088812923928,174.42682282179157</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>-35.45162513407898,174.42694600926868</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>-35.452335502277855,174.42724577552445</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>-35.45302162913294,174.42757494883935</t>
+        </is>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>-35.44711293398048,174.4271757866119</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>-35.44787323071644,174.4268998484853</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>-35.448649560954756,174.42666396294857</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>-35.449402922029776,174.42667509236745</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>-35.45014460021807,174.4267399543076</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>-35.450886922815116,174.42684193496564</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>-35.45162824817232,174.42691825962234</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>-35.452330589083296,174.42726891698476</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>-35.453031490844324,174.42754355399458</t>
+        </is>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0077/nzd0077.xlsx
+++ b/data/nzd0077/nzd0077.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K339"/>
+  <dimension ref="A1:K340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13244,6 +13244,45 @@
         <v>356.11</v>
       </c>
       <c r="K339" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>325.27</v>
+      </c>
+      <c r="C340" t="n">
+        <v>329.6230769230769</v>
+      </c>
+      <c r="D340" t="n">
+        <v>340.5530769230769</v>
+      </c>
+      <c r="E340" t="n">
+        <v>340.4130769230769</v>
+      </c>
+      <c r="F340" t="n">
+        <v>345.8494117647059</v>
+      </c>
+      <c r="G340" t="n">
+        <v>346.7542857142857</v>
+      </c>
+      <c r="H340" t="n">
+        <v>354.8730769230769</v>
+      </c>
+      <c r="I340" t="n">
+        <v>372.92</v>
+      </c>
+      <c r="J340" t="n">
+        <v>354.4230769230769</v>
+      </c>
+      <c r="K340" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13260,7 +13299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B349"/>
+  <dimension ref="A1:B350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16758,6 +16797,16 @@
       </c>
       <c r="B349" t="n">
         <v>-0.52</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>-0.72</v>
       </c>
     </row>
   </sheetData>
@@ -16931,28 +16980,28 @@
         <v>0.0412</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1269725431741654</v>
+        <v>0.1291548460895582</v>
       </c>
       <c r="J2" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K2" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008824886518140729</v>
+        <v>0.009191762427157135</v>
       </c>
       <c r="M2" t="n">
-        <v>7.729914765204518</v>
+        <v>7.715152436598367</v>
       </c>
       <c r="N2" t="n">
-        <v>96.74523068214147</v>
+        <v>96.46865825351378</v>
       </c>
       <c r="O2" t="n">
-        <v>9.835915345413536</v>
+        <v>9.82184596975099</v>
       </c>
       <c r="P2" t="n">
-        <v>318.6672875672364</v>
+        <v>318.6451255072263</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17009,28 +17058,28 @@
         <v>0.0687</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1723290876898383</v>
+        <v>0.1711951033770646</v>
       </c>
       <c r="J3" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K3" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02123859099192071</v>
+        <v>0.02111998065673615</v>
       </c>
       <c r="M3" t="n">
-        <v>6.67071610917592</v>
+        <v>6.654366610246942</v>
       </c>
       <c r="N3" t="n">
-        <v>72.11193084710989</v>
+        <v>71.88441044123915</v>
       </c>
       <c r="O3" t="n">
-        <v>8.491874401279725</v>
+        <v>8.478467458287444</v>
       </c>
       <c r="P3" t="n">
-        <v>326.7891339393965</v>
+        <v>326.8007348436586</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17087,28 +17136,28 @@
         <v>0.0688</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08553054735905126</v>
+        <v>0.09130799016188176</v>
       </c>
       <c r="J4" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K4" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004737239166836327</v>
+        <v>0.005416245989149804</v>
       </c>
       <c r="M4" t="n">
-        <v>7.127993393649238</v>
+        <v>7.135150603948919</v>
       </c>
       <c r="N4" t="n">
-        <v>81.71227007597841</v>
+        <v>81.71265555077923</v>
       </c>
       <c r="O4" t="n">
-        <v>9.039483949649915</v>
+        <v>9.039505271350817</v>
       </c>
       <c r="P4" t="n">
-        <v>329.231576423868</v>
+        <v>329.1724301928202</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17165,28 +17214,28 @@
         <v>0.0674</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1635319896822054</v>
+        <v>0.1662392388831179</v>
       </c>
       <c r="J5" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K5" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02034827337039491</v>
+        <v>0.02114306029408464</v>
       </c>
       <c r="M5" t="n">
-        <v>6.414935260622891</v>
+        <v>6.40805710070547</v>
       </c>
       <c r="N5" t="n">
-        <v>68.32100405148736</v>
+        <v>68.15895851270548</v>
       </c>
       <c r="O5" t="n">
-        <v>8.265652064506911</v>
+        <v>8.255843900698794</v>
       </c>
       <c r="P5" t="n">
-        <v>331.9727979784492</v>
+        <v>331.9449367417062</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17243,28 +17292,28 @@
         <v>0.09320000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2012424689808654</v>
+        <v>0.2058171571470022</v>
       </c>
       <c r="J6" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K6" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03218053266536702</v>
+        <v>0.03376019355481186</v>
       </c>
       <c r="M6" t="n">
-        <v>6.439687966449682</v>
+        <v>6.439199883282955</v>
       </c>
       <c r="N6" t="n">
-        <v>64.00693611889099</v>
+        <v>63.96057292221354</v>
       </c>
       <c r="O6" t="n">
-        <v>8.00043349568578</v>
+        <v>7.997535428006151</v>
       </c>
       <c r="P6" t="n">
-        <v>333.5427970920409</v>
+        <v>333.4953142093427</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17321,28 +17370,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2513588923999503</v>
+        <v>0.253184340234142</v>
       </c>
       <c r="J7" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K7" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0489581607736771</v>
+        <v>0.04995585643212253</v>
       </c>
       <c r="M7" t="n">
-        <v>6.253206314779571</v>
+        <v>6.242115508330646</v>
       </c>
       <c r="N7" t="n">
-        <v>64.06320893106349</v>
+        <v>63.88422729895083</v>
       </c>
       <c r="O7" t="n">
-        <v>8.003949583240981</v>
+        <v>7.992760930926861</v>
       </c>
       <c r="P7" t="n">
-        <v>337.4164499306073</v>
+        <v>337.3974577897204</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17399,28 +17448,28 @@
         <v>0.0674</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2884845574395747</v>
+        <v>0.2937849744490437</v>
       </c>
       <c r="J8" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K8" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06977103253902794</v>
+        <v>0.07238775703850697</v>
       </c>
       <c r="M8" t="n">
-        <v>5.947180961350031</v>
+        <v>5.954735022060619</v>
       </c>
       <c r="N8" t="n">
-        <v>58.85737332084648</v>
+        <v>58.88838108786268</v>
       </c>
       <c r="O8" t="n">
-        <v>7.671855924145505</v>
+        <v>7.673876535875638</v>
       </c>
       <c r="P8" t="n">
-        <v>339.0225429901718</v>
+        <v>338.9676856187053</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17477,28 +17526,28 @@
         <v>0.1038</v>
       </c>
       <c r="I9" t="n">
-        <v>0.345030820590622</v>
+        <v>0.3530206525910244</v>
       </c>
       <c r="J9" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K9" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08026324329050705</v>
+        <v>0.0837357175116662</v>
       </c>
       <c r="M9" t="n">
-        <v>6.43365428003522</v>
+        <v>6.44964243771549</v>
       </c>
       <c r="N9" t="n">
-        <v>72.56515661586278</v>
+        <v>72.81874495828674</v>
       </c>
       <c r="O9" t="n">
-        <v>8.518518451929465</v>
+        <v>8.533390003878104</v>
       </c>
       <c r="P9" t="n">
-        <v>351.5169960112703</v>
+        <v>351.4346692074801</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -17555,28 +17604,28 @@
         <v>0.0718</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2761310872310452</v>
+        <v>0.2746502327721904</v>
       </c>
       <c r="J10" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K10" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06230745980296326</v>
+        <v>0.06206899431443358</v>
       </c>
       <c r="M10" t="n">
-        <v>6.069817477291183</v>
+        <v>6.057835287425308</v>
       </c>
       <c r="N10" t="n">
-        <v>61.16689721989911</v>
+        <v>60.99259508453839</v>
       </c>
       <c r="O10" t="n">
-        <v>7.820926877288849</v>
+        <v>7.809775610383335</v>
       </c>
       <c r="P10" t="n">
-        <v>349.5593072445079</v>
+        <v>349.5745210103449</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -17614,7 +17663,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K339"/>
+  <dimension ref="A1:K340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36093,6 +36142,63 @@
         </is>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>-35.44715343183699,174.427274950811</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>-35.447869341020585,174.42688405709848</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>-35.4486635588524,174.42687062835992</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>-35.44940546059785,174.42682051776836</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>-35.45014333796319,174.42687244881878</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>-35.45088360661886,174.42689447265235</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>-35.45160858452173,174.42709348117714</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>-35.45230149976238,174.42740592906205</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>-35.45303694112644,174.42752620295929</t>
+        </is>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0077/nzd0077.xlsx
+++ b/data/nzd0077/nzd0077.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K340"/>
+  <dimension ref="A1:K341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13283,6 +13283,45 @@
         <v>354.4230769230769</v>
       </c>
       <c r="K340" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>310.81</v>
+      </c>
+      <c r="C341" t="n">
+        <v>327.9507692307693</v>
+      </c>
+      <c r="D341" t="n">
+        <v>320.8907692307693</v>
+      </c>
+      <c r="E341" t="n">
+        <v>333.6107692307692</v>
+      </c>
+      <c r="F341" t="n">
+        <v>334.0847058823529</v>
+      </c>
+      <c r="G341" t="n">
+        <v>338</v>
+      </c>
+      <c r="H341" t="n">
+        <v>346.3707692307692</v>
+      </c>
+      <c r="I341" t="n">
+        <v>364.6022222222222</v>
+      </c>
+      <c r="J341" t="n">
+        <v>354.9107692307692</v>
+      </c>
+      <c r="K341" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13299,7 +13338,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B350"/>
+  <dimension ref="A1:B351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16807,6 +16846,16 @@
       </c>
       <c r="B350" t="n">
         <v>-0.72</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
@@ -17663,7 +17712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K340"/>
+  <dimension ref="A1:K341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36199,6 +36248,63 @@
         </is>
       </c>
     </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>-35.44709522117388,174.42713241462695</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>-35.4478649955922,174.4268664155406</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>-35.44864893684733,174.4266547487299</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>-35.449404152733635,174.42674559369317</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>-35.45014457268535,174.42674284448438</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>-35.450889676389686,174.42679831047874</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>-35.45161899915522,174.4270006773245</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>-35.45232033249253,174.42731722610662</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>-35.453035365440925,174.42753121917312</t>
+        </is>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0077/nzd0077.xlsx
+++ b/data/nzd0077/nzd0077.xlsx
@@ -17029,28 +17029,28 @@
         <v>0.0412</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1291548460895582</v>
+        <v>0.12177714292172</v>
       </c>
       <c r="J2" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K2" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009191762427157135</v>
+        <v>0.008205985082292755</v>
       </c>
       <c r="M2" t="n">
-        <v>7.715152436598367</v>
+        <v>7.728415438849134</v>
       </c>
       <c r="N2" t="n">
-        <v>96.46865825351378</v>
+        <v>96.5578038281421</v>
       </c>
       <c r="O2" t="n">
-        <v>9.82184596975099</v>
+        <v>9.826383049125559</v>
       </c>
       <c r="P2" t="n">
-        <v>318.6451255072263</v>
+        <v>318.7201899725276</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17107,28 +17107,28 @@
         <v>0.0687</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1711951033770646</v>
+        <v>0.1689398497426817</v>
       </c>
       <c r="J3" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K3" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02111998065673615</v>
+        <v>0.02072139660485262</v>
       </c>
       <c r="M3" t="n">
-        <v>6.654366610246942</v>
+        <v>6.64352920001398</v>
       </c>
       <c r="N3" t="n">
-        <v>71.88441044123915</v>
+        <v>71.68511726872889</v>
       </c>
       <c r="O3" t="n">
-        <v>8.478467458287444</v>
+        <v>8.466706400291018</v>
       </c>
       <c r="P3" t="n">
-        <v>326.8007348436586</v>
+        <v>326.8238492908229</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17185,28 +17185,28 @@
         <v>0.0688</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09130799016188176</v>
+        <v>0.08457182239786933</v>
       </c>
       <c r="J4" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K4" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005416245989149804</v>
+        <v>0.004662719666843174</v>
       </c>
       <c r="M4" t="n">
-        <v>7.135150603948919</v>
+        <v>7.144484413413847</v>
       </c>
       <c r="N4" t="n">
-        <v>81.71265555077923</v>
+        <v>81.80803308734427</v>
       </c>
       <c r="O4" t="n">
-        <v>9.039505271350817</v>
+        <v>9.044779327730682</v>
       </c>
       <c r="P4" t="n">
-        <v>329.1724301928202</v>
+        <v>329.2415220344628</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17263,28 +17263,28 @@
         <v>0.0674</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1662392388831179</v>
+        <v>0.1645169989846478</v>
       </c>
       <c r="J5" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K5" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02114306029408464</v>
+        <v>0.02085316325177744</v>
       </c>
       <c r="M5" t="n">
-        <v>6.40805710070547</v>
+        <v>6.396014570241181</v>
       </c>
       <c r="N5" t="n">
-        <v>68.15895851270548</v>
+        <v>67.96566899764755</v>
       </c>
       <c r="O5" t="n">
-        <v>8.255843900698794</v>
+        <v>8.244129365654542</v>
       </c>
       <c r="P5" t="n">
-        <v>331.9449367417062</v>
+        <v>331.9626947619703</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17341,28 +17341,28 @@
         <v>0.09320000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2058171571470022</v>
+        <v>0.2027366863802161</v>
       </c>
       <c r="J6" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K6" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03376019355481186</v>
+        <v>0.03297727086874813</v>
       </c>
       <c r="M6" t="n">
-        <v>6.439199883282955</v>
+        <v>6.435472023128527</v>
       </c>
       <c r="N6" t="n">
-        <v>63.96057292221354</v>
+        <v>63.8302752951956</v>
       </c>
       <c r="O6" t="n">
-        <v>7.997535428006151</v>
+        <v>7.989385163777974</v>
       </c>
       <c r="P6" t="n">
-        <v>333.4953142093427</v>
+        <v>333.5273486784029</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17419,28 +17419,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.253184340234142</v>
+        <v>0.2492728915379379</v>
       </c>
       <c r="J7" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K7" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04995585643212253</v>
+        <v>0.0487446667552196</v>
       </c>
       <c r="M7" t="n">
-        <v>6.242115508330646</v>
+        <v>6.241369416006152</v>
       </c>
       <c r="N7" t="n">
-        <v>63.88422729895083</v>
+        <v>63.79510971519253</v>
       </c>
       <c r="O7" t="n">
-        <v>7.992760930926861</v>
+        <v>7.987184091730485</v>
       </c>
       <c r="P7" t="n">
-        <v>337.3974577897204</v>
+        <v>337.4382293547741</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17497,28 +17497,28 @@
         <v>0.0674</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2937849744490437</v>
+        <v>0.2936160545683758</v>
       </c>
       <c r="J8" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K8" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07238775703850697</v>
+        <v>0.072772078680717</v>
       </c>
       <c r="M8" t="n">
-        <v>5.954735022060619</v>
+        <v>5.936895240555895</v>
       </c>
       <c r="N8" t="n">
-        <v>58.88838108786268</v>
+        <v>58.70399942547996</v>
       </c>
       <c r="O8" t="n">
-        <v>7.673876535875638</v>
+        <v>7.661853524146749</v>
       </c>
       <c r="P8" t="n">
-        <v>338.9676856187053</v>
+        <v>338.9694372592197</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17575,28 +17575,28 @@
         <v>0.1038</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3530206525910244</v>
+        <v>0.3555487825004547</v>
       </c>
       <c r="J9" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0837357175116662</v>
+        <v>0.0853283270204217</v>
       </c>
       <c r="M9" t="n">
-        <v>6.44964243771549</v>
+        <v>6.440814582464879</v>
       </c>
       <c r="N9" t="n">
-        <v>72.81874495828674</v>
+        <v>72.63720294251546</v>
       </c>
       <c r="O9" t="n">
-        <v>8.533390003878104</v>
+        <v>8.522746208970172</v>
       </c>
       <c r="P9" t="n">
-        <v>351.4346692074801</v>
+        <v>351.408569269831</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -17653,28 +17653,28 @@
         <v>0.0718</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2746502327721904</v>
+        <v>0.2734930563173993</v>
       </c>
       <c r="J10" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K10" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06206899431443358</v>
+        <v>0.06196960166386889</v>
       </c>
       <c r="M10" t="n">
-        <v>6.057835287425308</v>
+        <v>6.044382596806402</v>
       </c>
       <c r="N10" t="n">
-        <v>60.99259508453839</v>
+        <v>60.81296490262305</v>
       </c>
       <c r="O10" t="n">
-        <v>7.809775610383335</v>
+        <v>7.798266788371827</v>
       </c>
       <c r="P10" t="n">
-        <v>349.5745210103449</v>
+        <v>349.5864323027632</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">

--- a/data/nzd0077/nzd0077.xlsx
+++ b/data/nzd0077/nzd0077.xlsx
@@ -17020,13 +17020,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0391</v>
+        <v>0.0489</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0412</v>
+        <v>0.0566</v>
       </c>
       <c r="I2" t="n">
         <v>0.12177714292172</v>
@@ -17098,13 +17098,13 @@
         <v>0.1250639046742511</v>
       </c>
       <c r="F3" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0593</v>
+        <v>0.0643</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0687</v>
+        <v>0.0798</v>
       </c>
       <c r="I3" t="n">
         <v>0.1689385075047889</v>
@@ -17176,13 +17176,13 @@
         <v>0.249978659224846</v>
       </c>
       <c r="F4" t="n">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0614</v>
+        <v>0.0712</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0688</v>
+        <v>0.0863</v>
       </c>
       <c r="I4" t="n">
         <v>0.08457570457788395</v>
@@ -17254,13 +17254,13 @@
         <v>0.3748447812553238</v>
       </c>
       <c r="F5" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0618</v>
+        <v>0.0669</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0674</v>
+        <v>0.0815</v>
       </c>
       <c r="I5" t="n">
         <v>0.1645272521516604</v>
@@ -17332,13 +17332,13 @@
         <v>0.4999086859300392</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0759</v>
+        <v>0.0664</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09320000000000001</v>
+        <v>0.0898</v>
       </c>
       <c r="I6" t="n">
         <v>0.2027154104941883</v>
@@ -17410,13 +17410,13 @@
         <v>0.6248237480660682</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06569999999999999</v>
+        <v>0.0781</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07679999999999999</v>
+        <v>0.1005</v>
       </c>
       <c r="I7" t="n">
         <v>0.2493397865356317</v>
@@ -17488,13 +17488,13 @@
         <v>0.7498876527410976</v>
       </c>
       <c r="F8" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0588</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0674</v>
+        <v>0.08309999999999999</v>
       </c>
       <c r="I8" t="n">
         <v>0.2936128137200363</v>
@@ -17566,13 +17566,13 @@
         <v>0.8749512638984847</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0805</v>
+        <v>0.0698</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1038</v>
+        <v>0.08989999999999999</v>
       </c>
       <c r="I9" t="n">
         <v>0.3555439578190832</v>
@@ -17644,13 +17644,13 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.065</v>
+        <v>0.1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0602</v>
+        <v>0.08740000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0718</v>
+        <v>0.1188</v>
       </c>
       <c r="I10" t="n">
         <v>0.2734923975094792</v>

--- a/data/nzd0077/nzd0077.xlsx
+++ b/data/nzd0077/nzd0077.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K342"/>
+  <dimension ref="A1:K343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
         <v>346.52</v>
       </c>
       <c r="G2" t="n">
-        <v>346.64</v>
+        <v>346.66</v>
       </c>
       <c r="H2" t="n">
         <v>348.1</v>
@@ -554,7 +554,7 @@
         <v>343.95</v>
       </c>
       <c r="G3" t="n">
-        <v>344.18</v>
+        <v>344.5</v>
       </c>
       <c r="H3" t="n">
         <v>348.25</v>
@@ -593,7 +593,7 @@
         <v>341.84</v>
       </c>
       <c r="G4" t="n">
-        <v>345.73</v>
+        <v>346.03</v>
       </c>
       <c r="H4" t="n">
         <v>346.96</v>
@@ -632,7 +632,7 @@
         <v>338.26</v>
       </c>
       <c r="G5" t="n">
-        <v>344.14</v>
+        <v>344.27</v>
       </c>
       <c r="H5" t="n">
         <v>344.15</v>
@@ -671,7 +671,7 @@
         <v>335.93</v>
       </c>
       <c r="G6" t="n">
-        <v>342.46</v>
+        <v>342.48</v>
       </c>
       <c r="H6" t="n">
         <v>343.1</v>
@@ -710,7 +710,7 @@
         <v>330.76</v>
       </c>
       <c r="G7" t="n">
-        <v>337.46</v>
+        <v>337.24</v>
       </c>
       <c r="H7" t="n">
         <v>337.87</v>
@@ -749,7 +749,7 @@
         <v>332.38</v>
       </c>
       <c r="G8" t="n">
-        <v>336.51</v>
+        <v>336.36</v>
       </c>
       <c r="H8" t="n">
         <v>338.94</v>
@@ -788,7 +788,7 @@
         <v>338.98</v>
       </c>
       <c r="G9" t="n">
-        <v>338.44</v>
+        <v>338.36</v>
       </c>
       <c r="H9" t="n">
         <v>339.97</v>
@@ -827,7 +827,7 @@
         <v>335.83</v>
       </c>
       <c r="G10" t="n">
-        <v>337.95</v>
+        <v>337.92</v>
       </c>
       <c r="H10" t="n">
         <v>339.11</v>
@@ -866,7 +866,7 @@
         <v>334.94</v>
       </c>
       <c r="G11" t="n">
-        <v>338.15</v>
+        <v>338.27</v>
       </c>
       <c r="H11" t="n">
         <v>339.86</v>
@@ -905,7 +905,7 @@
         <v>333.19</v>
       </c>
       <c r="G12" t="n">
-        <v>336.83</v>
+        <v>336.88</v>
       </c>
       <c r="H12" t="n">
         <v>337.94</v>
@@ -944,7 +944,7 @@
         <v>334.31</v>
       </c>
       <c r="G13" t="n">
-        <v>332.75</v>
+        <v>332.91</v>
       </c>
       <c r="H13" t="n">
         <v>336.08</v>
@@ -983,7 +983,7 @@
         <v>331.79</v>
       </c>
       <c r="G14" t="n">
-        <v>330.27</v>
+        <v>330.41</v>
       </c>
       <c r="H14" t="n">
         <v>333.94</v>
@@ -1022,7 +1022,7 @@
         <v>333.8</v>
       </c>
       <c r="G15" t="n">
-        <v>332.77</v>
+        <v>332.76</v>
       </c>
       <c r="H15" t="n">
         <v>338.92</v>
@@ -1061,7 +1061,7 @@
         <v>333.43</v>
       </c>
       <c r="G16" t="n">
-        <v>331.59</v>
+        <v>331.62</v>
       </c>
       <c r="H16" t="n">
         <v>338.63</v>
@@ -1100,7 +1100,7 @@
         <v>331.21</v>
       </c>
       <c r="G17" t="n">
-        <v>330.87</v>
+        <v>330.92</v>
       </c>
       <c r="H17" t="n">
         <v>337.69</v>
@@ -1139,7 +1139,7 @@
         <v>332.1</v>
       </c>
       <c r="G18" t="n">
-        <v>333.41</v>
+        <v>333.49</v>
       </c>
       <c r="H18" t="n">
         <v>341.12</v>
@@ -1178,7 +1178,7 @@
         <v>329.52</v>
       </c>
       <c r="G19" t="n">
-        <v>334.71</v>
+        <v>334.74</v>
       </c>
       <c r="H19" t="n">
         <v>340.71</v>
@@ -1217,7 +1217,7 @@
         <v>331.4</v>
       </c>
       <c r="G20" t="n">
-        <v>337.12</v>
+        <v>337.13</v>
       </c>
       <c r="H20" t="n">
         <v>342.54</v>
@@ -1256,7 +1256,7 @@
         <v>329.05</v>
       </c>
       <c r="G21" t="n">
-        <v>336.23</v>
+        <v>336.32</v>
       </c>
       <c r="H21" t="n">
         <v>340.65</v>
@@ -1295,7 +1295,7 @@
         <v>333.71</v>
       </c>
       <c r="G22" t="n">
-        <v>343.46</v>
+        <v>343.51</v>
       </c>
       <c r="H22" t="n">
         <v>346.89</v>
@@ -1334,7 +1334,7 @@
         <v>336.3</v>
       </c>
       <c r="G23" t="n">
-        <v>346.34</v>
+        <v>346.35</v>
       </c>
       <c r="H23" t="n">
         <v>347.92</v>
@@ -1412,7 +1412,7 @@
         <v>337.29</v>
       </c>
       <c r="G25" t="n">
-        <v>345.07</v>
+        <v>344.98</v>
       </c>
       <c r="H25" t="n">
         <v>348.39</v>
@@ -1451,7 +1451,7 @@
         <v>336.21</v>
       </c>
       <c r="G26" t="n">
-        <v>341.02</v>
+        <v>340.67</v>
       </c>
       <c r="H26" t="n">
         <v>343.74</v>
@@ -1490,7 +1490,7 @@
         <v>342.7</v>
       </c>
       <c r="G27" t="n">
-        <v>343.11</v>
+        <v>342.96</v>
       </c>
       <c r="H27" t="n">
         <v>345.84</v>
@@ -1529,7 +1529,7 @@
         <v>332.44</v>
       </c>
       <c r="G28" t="n">
-        <v>332.86</v>
+        <v>332.77</v>
       </c>
       <c r="H28" t="n">
         <v>340.55</v>
@@ -1568,7 +1568,7 @@
         <v>335.11</v>
       </c>
       <c r="G29" t="n">
-        <v>334.33</v>
+        <v>334.22</v>
       </c>
       <c r="H29" t="n">
         <v>340.78</v>
@@ -1607,7 +1607,7 @@
         <v>331.82</v>
       </c>
       <c r="G30" t="n">
-        <v>331.76</v>
+        <v>331.88</v>
       </c>
       <c r="H30" t="n">
         <v>339.34</v>
@@ -1646,7 +1646,7 @@
         <v>334.94</v>
       </c>
       <c r="G31" t="n">
-        <v>334.33</v>
+        <v>334.54</v>
       </c>
       <c r="H31" t="n">
         <v>340.98</v>
@@ -1685,7 +1685,7 @@
         <v>335.92</v>
       </c>
       <c r="G32" t="n">
-        <v>335.92</v>
+        <v>336.15</v>
       </c>
       <c r="H32" t="n">
         <v>341.77</v>
@@ -1724,7 +1724,7 @@
         <v>334.19</v>
       </c>
       <c r="G33" t="n">
-        <v>334.13</v>
+        <v>334.43</v>
       </c>
       <c r="H33" t="n">
         <v>340.06</v>
@@ -1763,7 +1763,7 @@
         <v>335.13</v>
       </c>
       <c r="G34" t="n">
-        <v>335.76</v>
+        <v>335.95</v>
       </c>
       <c r="H34" t="n">
         <v>341.2</v>
@@ -1802,7 +1802,7 @@
         <v>333.9</v>
       </c>
       <c r="G35" t="n">
-        <v>337.39</v>
+        <v>337.46</v>
       </c>
       <c r="H35" t="n">
         <v>340.03</v>
@@ -1841,7 +1841,7 @@
         <v>335.37</v>
       </c>
       <c r="G36" t="n">
-        <v>336.53</v>
+        <v>336.35</v>
       </c>
       <c r="H36" t="n">
         <v>335.62</v>
@@ -1880,7 +1880,7 @@
         <v>336.17</v>
       </c>
       <c r="G37" t="n">
-        <v>336.53</v>
+        <v>336.35</v>
       </c>
       <c r="H37" t="n">
         <v>335.62</v>
@@ -1919,7 +1919,7 @@
         <v>336.17</v>
       </c>
       <c r="G38" t="n">
-        <v>336.53</v>
+        <v>336.35</v>
       </c>
       <c r="H38" t="n">
         <v>336.69</v>
@@ -1958,7 +1958,7 @@
         <v>337.35</v>
       </c>
       <c r="G39" t="n">
-        <v>338.78</v>
+        <v>338.56</v>
       </c>
       <c r="H39" t="n">
         <v>340.27</v>
@@ -1997,7 +1997,7 @@
         <v>337.27</v>
       </c>
       <c r="G40" t="n">
-        <v>337.45</v>
+        <v>337.29</v>
       </c>
       <c r="H40" t="n">
         <v>339.17</v>
@@ -2036,7 +2036,7 @@
         <v>338.89</v>
       </c>
       <c r="G41" t="n">
-        <v>340.96</v>
+        <v>340.97</v>
       </c>
       <c r="H41" t="n">
         <v>341.15</v>
@@ -2075,7 +2075,7 @@
         <v>338.4</v>
       </c>
       <c r="G42" t="n">
-        <v>339.28</v>
+        <v>339.31</v>
       </c>
       <c r="H42" t="n">
         <v>339.82</v>
@@ -2153,7 +2153,7 @@
         <v>337.51</v>
       </c>
       <c r="G44" t="n">
-        <v>339.62</v>
+        <v>339.73</v>
       </c>
       <c r="H44" t="n">
         <v>340.18</v>
@@ -2192,7 +2192,7 @@
         <v>337.69</v>
       </c>
       <c r="G45" t="n">
-        <v>342.98</v>
+        <v>343.18</v>
       </c>
       <c r="H45" t="n">
         <v>340.64</v>
@@ -2231,7 +2231,7 @@
         <v>336.93</v>
       </c>
       <c r="G46" t="n">
-        <v>341.66</v>
+        <v>341.87</v>
       </c>
       <c r="H46" t="n">
         <v>339.03</v>
@@ -2270,7 +2270,7 @@
         <v>338.49</v>
       </c>
       <c r="G47" t="n">
-        <v>342.36</v>
+        <v>342.55</v>
       </c>
       <c r="H47" t="n">
         <v>339.64</v>
@@ -2309,7 +2309,7 @@
         <v>338.92</v>
       </c>
       <c r="G48" t="n">
-        <v>342.29</v>
+        <v>342.52</v>
       </c>
       <c r="H48" t="n">
         <v>340.09</v>
@@ -2348,7 +2348,7 @@
         <v>336.76</v>
       </c>
       <c r="G49" t="n">
-        <v>340.14</v>
+        <v>340.28</v>
       </c>
       <c r="H49" t="n">
         <v>338.1</v>
@@ -2387,7 +2387,7 @@
         <v>335.62</v>
       </c>
       <c r="G50" t="n">
-        <v>340.19</v>
+        <v>340.37</v>
       </c>
       <c r="H50" t="n">
         <v>338.1</v>
@@ -2426,7 +2426,7 @@
         <v>334.77</v>
       </c>
       <c r="G51" t="n">
-        <v>338.54</v>
+        <v>338.75</v>
       </c>
       <c r="H51" t="n">
         <v>337.42</v>
@@ -2465,7 +2465,7 @@
         <v>333.75</v>
       </c>
       <c r="G52" t="n">
-        <v>337.64</v>
+        <v>337.81</v>
       </c>
       <c r="H52" t="n">
         <v>336.5</v>
@@ -2504,7 +2504,7 @@
         <v>334.34</v>
       </c>
       <c r="G53" t="n">
-        <v>338.37</v>
+        <v>338.6</v>
       </c>
       <c r="H53" t="n">
         <v>336.63</v>
@@ -2543,7 +2543,7 @@
         <v>334.53</v>
       </c>
       <c r="G54" t="n">
-        <v>338.37</v>
+        <v>338.6</v>
       </c>
       <c r="H54" t="n">
         <v>336.95</v>
@@ -2582,7 +2582,7 @@
         <v>336.14</v>
       </c>
       <c r="G55" t="n">
-        <v>339.3</v>
+        <v>339.55</v>
       </c>
       <c r="H55" t="n">
         <v>338.14</v>
@@ -2621,7 +2621,7 @@
         <v>335.8</v>
       </c>
       <c r="G56" t="n">
-        <v>338.76</v>
+        <v>338.89</v>
       </c>
       <c r="H56" t="n">
         <v>337.56</v>
@@ -2660,7 +2660,7 @@
         <v>335.8</v>
       </c>
       <c r="G57" t="n">
-        <v>338.76</v>
+        <v>338.89</v>
       </c>
       <c r="H57" t="n">
         <v>337.82</v>
@@ -2699,7 +2699,7 @@
         <v>335.4</v>
       </c>
       <c r="G58" t="n">
-        <v>338.43</v>
+        <v>338.58</v>
       </c>
       <c r="H58" t="n">
         <v>338.26</v>
@@ -2738,7 +2738,7 @@
         <v>335.2</v>
       </c>
       <c r="G59" t="n">
-        <v>337.14</v>
+        <v>337.3</v>
       </c>
       <c r="H59" t="n">
         <v>339.2</v>
@@ -2777,7 +2777,7 @@
         <v>335.52</v>
       </c>
       <c r="G60" t="n">
-        <v>339.08</v>
+        <v>339.21</v>
       </c>
       <c r="H60" t="n">
         <v>341.02</v>
@@ -2816,7 +2816,7 @@
         <v>331.48</v>
       </c>
       <c r="G61" t="n">
-        <v>336.21</v>
+        <v>336.56</v>
       </c>
       <c r="H61" t="n">
         <v>340.75</v>
@@ -2855,7 +2855,7 @@
         <v>328.09</v>
       </c>
       <c r="G62" t="n">
-        <v>332.55</v>
+        <v>332.88</v>
       </c>
       <c r="H62" t="n">
         <v>336.33</v>
@@ -2894,7 +2894,7 @@
         <v>325.84</v>
       </c>
       <c r="G63" t="n">
-        <v>329.57</v>
+        <v>329.88</v>
       </c>
       <c r="H63" t="n">
         <v>335.38</v>
@@ -2933,7 +2933,7 @@
         <v>329.24</v>
       </c>
       <c r="G64" t="n">
-        <v>333.25</v>
+        <v>333.58</v>
       </c>
       <c r="H64" t="n">
         <v>338.51</v>
@@ -2972,7 +2972,7 @@
         <v>333.28</v>
       </c>
       <c r="G65" t="n">
-        <v>336.78</v>
+        <v>337.08</v>
       </c>
       <c r="H65" t="n">
         <v>341.48</v>
@@ -3011,7 +3011,7 @@
         <v>333.28</v>
       </c>
       <c r="G66" t="n">
-        <v>334.73</v>
+        <v>335.01</v>
       </c>
       <c r="H66" t="n">
         <v>340.65</v>
@@ -3050,7 +3050,7 @@
         <v>334.8</v>
       </c>
       <c r="G67" t="n">
-        <v>335.55</v>
+        <v>335.76</v>
       </c>
       <c r="H67" t="n">
         <v>341.08</v>
@@ -3089,7 +3089,7 @@
         <v>333.97</v>
       </c>
       <c r="G68" t="n">
-        <v>335.84</v>
+        <v>336.03</v>
       </c>
       <c r="H68" t="n">
         <v>340.46</v>
@@ -3128,7 +3128,7 @@
         <v>332.98</v>
       </c>
       <c r="G69" t="n">
-        <v>336.64</v>
+        <v>336.84</v>
       </c>
       <c r="H69" t="n">
         <v>338.73</v>
@@ -3167,7 +3167,7 @@
         <v>336.64</v>
       </c>
       <c r="G70" t="n">
-        <v>339.64</v>
+        <v>339.8</v>
       </c>
       <c r="H70" t="n">
         <v>340.58</v>
@@ -3206,7 +3206,7 @@
         <v>335.77</v>
       </c>
       <c r="G71" t="n">
-        <v>338.47</v>
+        <v>338.55</v>
       </c>
       <c r="H71" t="n">
         <v>332.55</v>
@@ -3245,7 +3245,7 @@
         <v>334.54</v>
       </c>
       <c r="G72" t="n">
-        <v>337.36</v>
+        <v>337.47</v>
       </c>
       <c r="H72" t="n">
         <v>332.79</v>
@@ -3284,7 +3284,7 @@
         <v>336.86</v>
       </c>
       <c r="G73" t="n">
-        <v>343.04</v>
+        <v>343.29</v>
       </c>
       <c r="H73" t="n">
         <v>335.16</v>
@@ -3323,7 +3323,7 @@
         <v>343.68</v>
       </c>
       <c r="G74" t="n">
-        <v>343.36</v>
+        <v>343.55</v>
       </c>
       <c r="H74" t="n">
         <v>336.87</v>
@@ -3362,7 +3362,7 @@
         <v>344.8</v>
       </c>
       <c r="G75" t="n">
-        <v>344.77</v>
+        <v>344.91</v>
       </c>
       <c r="H75" t="n">
         <v>339.14</v>
@@ -3440,7 +3440,7 @@
         <v>339.85</v>
       </c>
       <c r="G77" t="n">
-        <v>341.42</v>
+        <v>341.36</v>
       </c>
       <c r="H77" t="n">
         <v>341.85</v>
@@ -3479,7 +3479,7 @@
         <v>335.21</v>
       </c>
       <c r="G78" t="n">
-        <v>336.8</v>
+        <v>336.57</v>
       </c>
       <c r="H78" t="n">
         <v>336.28</v>
@@ -3518,7 +3518,7 @@
         <v>330.61</v>
       </c>
       <c r="G79" t="n">
-        <v>334.6</v>
+        <v>334.23</v>
       </c>
       <c r="H79" t="n">
         <v>332.95</v>
@@ -3557,7 +3557,7 @@
         <v>333.92</v>
       </c>
       <c r="G80" t="n">
-        <v>337.65</v>
+        <v>337.29</v>
       </c>
       <c r="H80" t="n">
         <v>334.51</v>
@@ -3596,7 +3596,7 @@
         <v>329.79</v>
       </c>
       <c r="G81" t="n">
-        <v>333.66</v>
+        <v>333.54</v>
       </c>
       <c r="H81" t="n">
         <v>333.66</v>
@@ -3635,7 +3635,7 @@
         <v>327.25</v>
       </c>
       <c r="G82" t="n">
-        <v>331.54</v>
+        <v>331.55</v>
       </c>
       <c r="H82" t="n">
         <v>331.34</v>
@@ -3674,7 +3674,7 @@
         <v>331.11</v>
       </c>
       <c r="G83" t="n">
-        <v>331.54</v>
+        <v>331.55</v>
       </c>
       <c r="H83" t="n">
         <v>336.34</v>
@@ -3713,7 +3713,7 @@
         <v>335.36</v>
       </c>
       <c r="G84" t="n">
-        <v>335.45</v>
+        <v>335.67</v>
       </c>
       <c r="H84" t="n">
         <v>339.54</v>
@@ -3752,7 +3752,7 @@
         <v>335.68</v>
       </c>
       <c r="G85" t="n">
-        <v>335.55</v>
+        <v>335.96</v>
       </c>
       <c r="H85" t="n">
         <v>341</v>
@@ -3791,7 +3791,7 @@
         <v>339.33</v>
       </c>
       <c r="G86" t="n">
-        <v>340.08</v>
+        <v>340.49</v>
       </c>
       <c r="H86" t="n">
         <v>343.75</v>
@@ -3830,7 +3830,7 @@
         <v>344.73</v>
       </c>
       <c r="G87" t="n">
-        <v>348.13</v>
+        <v>348.59</v>
       </c>
       <c r="H87" t="n">
         <v>349.54</v>
@@ -3869,7 +3869,7 @@
         <v>340.88</v>
       </c>
       <c r="G88" t="n">
-        <v>344.16</v>
+        <v>344.56</v>
       </c>
       <c r="H88" t="n">
         <v>347.01</v>
@@ -3908,7 +3908,7 @@
         <v>339.37</v>
       </c>
       <c r="G89" t="n">
-        <v>342.88</v>
+        <v>343.24</v>
       </c>
       <c r="H89" t="n">
         <v>346.54</v>
@@ -3947,7 +3947,7 @@
         <v>336.56</v>
       </c>
       <c r="G90" t="n">
-        <v>341.44</v>
+        <v>341.78</v>
       </c>
       <c r="H90" t="n">
         <v>345.76</v>
@@ -3986,7 +3986,7 @@
         <v>333.15</v>
       </c>
       <c r="G91" t="n">
-        <v>341.44</v>
+        <v>341.78</v>
       </c>
       <c r="H91" t="n">
         <v>345.76</v>
@@ -4025,7 +4025,7 @@
         <v>332.16</v>
       </c>
       <c r="G92" t="n">
-        <v>340.44</v>
+        <v>340.61</v>
       </c>
       <c r="H92" t="n">
         <v>345.76</v>
@@ -4064,7 +4064,7 @@
         <v>328.5</v>
       </c>
       <c r="G93" t="n">
-        <v>337.31</v>
+        <v>337.32</v>
       </c>
       <c r="H93" t="n">
         <v>340.2</v>
@@ -4103,7 +4103,7 @@
         <v>328.67</v>
       </c>
       <c r="G94" t="n">
-        <v>337.71</v>
+        <v>337.64</v>
       </c>
       <c r="H94" t="n">
         <v>341.07</v>
@@ -4142,7 +4142,7 @@
         <v>326.53</v>
       </c>
       <c r="G95" t="n">
-        <v>338.77</v>
+        <v>338.62</v>
       </c>
       <c r="H95" t="n">
         <v>341.39</v>
@@ -4181,7 +4181,7 @@
         <v>325.81</v>
       </c>
       <c r="G96" t="n">
-        <v>335.98</v>
+        <v>335.93</v>
       </c>
       <c r="H96" t="n">
         <v>338.77</v>
@@ -4220,7 +4220,7 @@
         <v>324.52</v>
       </c>
       <c r="G97" t="n">
-        <v>334.97</v>
+        <v>334.8</v>
       </c>
       <c r="H97" t="n">
         <v>338.43</v>
@@ -4259,7 +4259,7 @@
         <v>326.23</v>
       </c>
       <c r="G98" t="n">
-        <v>335.65</v>
+        <v>335.48</v>
       </c>
       <c r="H98" t="n">
         <v>338.84</v>
@@ -4298,7 +4298,7 @@
         <v>329.17</v>
       </c>
       <c r="G99" t="n">
-        <v>336.45</v>
+        <v>336.32</v>
       </c>
       <c r="H99" t="n">
         <v>339.3</v>
@@ -4337,7 +4337,7 @@
         <v>330.87</v>
       </c>
       <c r="G100" t="n">
-        <v>337.28</v>
+        <v>337.37</v>
       </c>
       <c r="H100" t="n">
         <v>340.46</v>
@@ -4376,7 +4376,7 @@
         <v>334.3</v>
       </c>
       <c r="G101" t="n">
-        <v>338.61</v>
+        <v>338.73</v>
       </c>
       <c r="H101" t="n">
         <v>341.21</v>
@@ -4415,7 +4415,7 @@
         <v>332.73</v>
       </c>
       <c r="G102" t="n">
-        <v>336.93</v>
+        <v>337.05</v>
       </c>
       <c r="H102" t="n">
         <v>341.21</v>
@@ -4454,7 +4454,7 @@
         <v>331.22</v>
       </c>
       <c r="G103" t="n">
-        <v>336.41</v>
+        <v>336.44</v>
       </c>
       <c r="H103" t="n">
         <v>342.12</v>
@@ -4532,7 +4532,7 @@
         <v>330.3</v>
       </c>
       <c r="G105" t="n">
-        <v>333.3</v>
+        <v>333.14</v>
       </c>
       <c r="H105" t="n">
         <v>338.23</v>
@@ -4571,7 +4571,7 @@
         <v>333.36</v>
       </c>
       <c r="G106" t="n">
-        <v>337.49</v>
+        <v>337.33</v>
       </c>
       <c r="H106" t="n">
         <v>342.39</v>
@@ -4610,7 +4610,7 @@
         <v>332.03</v>
       </c>
       <c r="G107" t="n">
-        <v>335.38</v>
+        <v>335.36</v>
       </c>
       <c r="H107" t="n">
         <v>340.1</v>
@@ -4649,7 +4649,7 @@
         <v>336.14</v>
       </c>
       <c r="G108" t="n">
-        <v>340.36</v>
+        <v>340.7</v>
       </c>
       <c r="H108" t="n">
         <v>342.63</v>
@@ -4688,7 +4688,7 @@
         <v>334.83</v>
       </c>
       <c r="G109" t="n">
-        <v>340.82</v>
+        <v>341.03</v>
       </c>
       <c r="H109" t="n">
         <v>343.53</v>
@@ -4727,7 +4727,7 @@
         <v>336.58</v>
       </c>
       <c r="G110" t="n">
-        <v>342.37</v>
+        <v>342.67</v>
       </c>
       <c r="H110" t="n">
         <v>346.5</v>
@@ -4766,7 +4766,7 @@
         <v>335.8</v>
       </c>
       <c r="G111" t="n">
-        <v>342.38</v>
+        <v>342.67</v>
       </c>
       <c r="H111" t="n">
         <v>346.31</v>
@@ -4805,7 +4805,7 @@
         <v>338.85</v>
       </c>
       <c r="G112" t="n">
-        <v>344.9</v>
+        <v>345.15</v>
       </c>
       <c r="H112" t="n">
         <v>348.77</v>
@@ -4844,7 +4844,7 @@
         <v>338</v>
       </c>
       <c r="G113" t="n">
-        <v>344.09</v>
+        <v>344.25</v>
       </c>
       <c r="H113" t="n">
         <v>346.04</v>
@@ -4883,7 +4883,7 @@
         <v>338.22</v>
       </c>
       <c r="G114" t="n">
-        <v>344.74</v>
+        <v>344.71</v>
       </c>
       <c r="H114" t="n">
         <v>346.13</v>
@@ -4922,7 +4922,7 @@
         <v>337.1</v>
       </c>
       <c r="G115" t="n">
-        <v>341.81</v>
+        <v>341.76</v>
       </c>
       <c r="H115" t="n">
         <v>342.99</v>
@@ -4961,7 +4961,7 @@
         <v>337.46</v>
       </c>
       <c r="G116" t="n">
-        <v>341.93</v>
+        <v>341.83</v>
       </c>
       <c r="H116" t="n">
         <v>343.22</v>
@@ -5000,7 +5000,7 @@
         <v>335.88</v>
       </c>
       <c r="G117" t="n">
-        <v>340.5</v>
+        <v>340.41</v>
       </c>
       <c r="H117" t="n">
         <v>341.72</v>
@@ -5039,7 +5039,7 @@
         <v>327.08</v>
       </c>
       <c r="G118" t="n">
-        <v>332.62</v>
+        <v>332.37</v>
       </c>
       <c r="H118" t="n">
         <v>332.65</v>
@@ -5078,7 +5078,7 @@
         <v>320.79</v>
       </c>
       <c r="G119" t="n">
-        <v>326.05</v>
+        <v>326.03</v>
       </c>
       <c r="H119" t="n">
         <v>329.07</v>
@@ -5117,7 +5117,7 @@
         <v>322.63</v>
       </c>
       <c r="G120" t="n">
-        <v>327.09</v>
+        <v>327.21</v>
       </c>
       <c r="H120" t="n">
         <v>330.29</v>
@@ -5156,7 +5156,7 @@
         <v>326.15</v>
       </c>
       <c r="G121" t="n">
-        <v>330.47</v>
+        <v>330.58</v>
       </c>
       <c r="H121" t="n">
         <v>333.23</v>
@@ -5195,7 +5195,7 @@
         <v>328.02</v>
       </c>
       <c r="G122" t="n">
-        <v>332.39</v>
+        <v>332.42</v>
       </c>
       <c r="H122" t="n">
         <v>335.51</v>
@@ -5234,7 +5234,7 @@
         <v>340.13</v>
       </c>
       <c r="G123" t="n">
-        <v>345.6</v>
+        <v>345.77</v>
       </c>
       <c r="H123" t="n">
         <v>348</v>
@@ -5273,7 +5273,7 @@
         <v>339.31</v>
       </c>
       <c r="G124" t="n">
-        <v>347.22</v>
+        <v>347.41</v>
       </c>
       <c r="H124" t="n">
         <v>347.87</v>
@@ -5312,7 +5312,7 @@
         <v>335.34</v>
       </c>
       <c r="G125" t="n">
-        <v>343.02</v>
+        <v>343.05</v>
       </c>
       <c r="H125" t="n">
         <v>343.96</v>
@@ -5351,7 +5351,7 @@
         <v>338.14</v>
       </c>
       <c r="G126" t="n">
-        <v>343.38</v>
+        <v>343.47</v>
       </c>
       <c r="H126" t="n">
         <v>344.38</v>
@@ -5390,7 +5390,7 @@
         <v>336.2</v>
       </c>
       <c r="G127" t="n">
-        <v>342.22</v>
+        <v>342.37</v>
       </c>
       <c r="H127" t="n">
         <v>343.86</v>
@@ -5429,7 +5429,7 @@
         <v>334.51</v>
       </c>
       <c r="G128" t="n">
-        <v>339.72</v>
+        <v>339.63</v>
       </c>
       <c r="H128" t="n">
         <v>342.14</v>
@@ -5468,7 +5468,7 @@
         <v>337.92</v>
       </c>
       <c r="G129" t="n">
-        <v>342.61</v>
+        <v>342.64</v>
       </c>
       <c r="H129" t="n">
         <v>344.48</v>
@@ -5507,7 +5507,7 @@
         <v>338.27</v>
       </c>
       <c r="G130" t="n">
-        <v>342.73</v>
+        <v>342.68</v>
       </c>
       <c r="H130" t="n">
         <v>344.78</v>
@@ -5546,7 +5546,7 @@
         <v>337.14</v>
       </c>
       <c r="G131" t="n">
-        <v>341.28</v>
+        <v>341.25</v>
       </c>
       <c r="H131" t="n">
         <v>343.86</v>
@@ -5585,7 +5585,7 @@
         <v>337.37</v>
       </c>
       <c r="G132" t="n">
-        <v>340.64</v>
+        <v>340.69</v>
       </c>
       <c r="H132" t="n">
         <v>343.77</v>
@@ -5624,7 +5624,7 @@
         <v>338.8</v>
       </c>
       <c r="G133" t="n">
-        <v>343.29</v>
+        <v>343.46</v>
       </c>
       <c r="H133" t="n">
         <v>345.46</v>
@@ -5663,7 +5663,7 @@
         <v>339.04</v>
       </c>
       <c r="G134" t="n">
-        <v>344.07</v>
+        <v>344.24</v>
       </c>
       <c r="H134" t="n">
         <v>345.9</v>
@@ -5702,7 +5702,7 @@
         <v>337.82</v>
       </c>
       <c r="G135" t="n">
-        <v>343.79</v>
+        <v>343.84</v>
       </c>
       <c r="H135" t="n">
         <v>344.7</v>
@@ -5741,7 +5741,7 @@
         <v>335.57</v>
       </c>
       <c r="G136" t="n">
-        <v>342.2</v>
+        <v>342.19</v>
       </c>
       <c r="H136" t="n">
         <v>344</v>
@@ -5780,7 +5780,7 @@
         <v>336.09</v>
       </c>
       <c r="G137" t="n">
-        <v>341.96</v>
+        <v>341.92</v>
       </c>
       <c r="H137" t="n">
         <v>343.32</v>
@@ -5819,7 +5819,7 @@
         <v>335.86</v>
       </c>
       <c r="G138" t="n">
-        <v>342.4</v>
+        <v>342.48</v>
       </c>
       <c r="H138" t="n">
         <v>343.7</v>
@@ -5858,7 +5858,7 @@
         <v>335.24</v>
       </c>
       <c r="G139" t="n">
-        <v>342.49</v>
+        <v>342.47</v>
       </c>
       <c r="H139" t="n">
         <v>342.77</v>
@@ -5897,7 +5897,7 @@
         <v>334.84</v>
       </c>
       <c r="G140" t="n">
-        <v>339.77</v>
+        <v>339.61</v>
       </c>
       <c r="H140" t="n">
         <v>340.86</v>
@@ -5936,7 +5936,7 @@
         <v>334.25</v>
       </c>
       <c r="G141" t="n">
-        <v>338.23</v>
+        <v>338.13</v>
       </c>
       <c r="H141" t="n">
         <v>339.86</v>
@@ -5975,7 +5975,7 @@
         <v>333.64</v>
       </c>
       <c r="G142" t="n">
-        <v>336.85</v>
+        <v>336.73</v>
       </c>
       <c r="H142" t="n">
         <v>339.02</v>
@@ -6014,7 +6014,7 @@
         <v>333.77</v>
       </c>
       <c r="G143" t="n">
-        <v>337.26</v>
+        <v>337.18</v>
       </c>
       <c r="H143" t="n">
         <v>339.03</v>
@@ -6053,7 +6053,7 @@
         <v>335.01</v>
       </c>
       <c r="G144" t="n">
-        <v>338.56</v>
+        <v>338.55</v>
       </c>
       <c r="H144" t="n">
         <v>340.33</v>
@@ -6092,7 +6092,7 @@
         <v>335.71</v>
       </c>
       <c r="G145" t="n">
-        <v>338.74</v>
+        <v>338.68</v>
       </c>
       <c r="H145" t="n">
         <v>340.24</v>
@@ -6131,7 +6131,7 @@
         <v>334.62</v>
       </c>
       <c r="G146" t="n">
-        <v>337.08</v>
+        <v>337.1</v>
       </c>
       <c r="H146" t="n">
         <v>338.2</v>
@@ -6170,7 +6170,7 @@
         <v>335.05</v>
       </c>
       <c r="G147" t="n">
-        <v>337.59</v>
+        <v>337.7</v>
       </c>
       <c r="H147" t="n">
         <v>338.91</v>
@@ -6209,7 +6209,7 @@
         <v>336.59</v>
       </c>
       <c r="G148" t="n">
-        <v>338.72</v>
+        <v>338.85</v>
       </c>
       <c r="H148" t="n">
         <v>340.19</v>
@@ -6248,7 +6248,7 @@
         <v>336.16</v>
       </c>
       <c r="G149" t="n">
-        <v>339.34</v>
+        <v>339.45</v>
       </c>
       <c r="H149" t="n">
         <v>340.47</v>
@@ -6287,7 +6287,7 @@
         <v>337.82</v>
       </c>
       <c r="G150" t="n">
-        <v>340.63</v>
+        <v>340.72</v>
       </c>
       <c r="H150" t="n">
         <v>341.43</v>
@@ -6326,7 +6326,7 @@
         <v>337.53</v>
       </c>
       <c r="G151" t="n">
-        <v>340.97</v>
+        <v>341.07</v>
       </c>
       <c r="H151" t="n">
         <v>341.3</v>
@@ -6365,7 +6365,7 @@
         <v>337.86</v>
       </c>
       <c r="G152" t="n">
-        <v>341</v>
+        <v>341.09</v>
       </c>
       <c r="H152" t="n">
         <v>341.79</v>
@@ -6404,7 +6404,7 @@
         <v>338.43</v>
       </c>
       <c r="G153" t="n">
-        <v>341.6</v>
+        <v>341.67</v>
       </c>
       <c r="H153" t="n">
         <v>342.21</v>
@@ -6443,7 +6443,7 @@
         <v>338.2</v>
       </c>
       <c r="G154" t="n">
-        <v>341.1</v>
+        <v>341.19</v>
       </c>
       <c r="H154" t="n">
         <v>342.13</v>
@@ -6482,7 +6482,7 @@
         <v>339.68</v>
       </c>
       <c r="G155" t="n">
-        <v>342.5</v>
+        <v>342.52</v>
       </c>
       <c r="H155" t="n">
         <v>344.73</v>
@@ -6521,7 +6521,7 @@
         <v>339.28</v>
       </c>
       <c r="G156" t="n">
-        <v>341.75</v>
+        <v>341.83</v>
       </c>
       <c r="H156" t="n">
         <v>344.84</v>
@@ -6560,7 +6560,7 @@
         <v>336.06</v>
       </c>
       <c r="G157" t="n">
-        <v>339.96</v>
+        <v>340</v>
       </c>
       <c r="H157" t="n">
         <v>343.41</v>
@@ -6599,7 +6599,7 @@
         <v>334.5</v>
       </c>
       <c r="G158" t="n">
-        <v>336.09</v>
+        <v>336.05</v>
       </c>
       <c r="H158" t="n">
         <v>341.76</v>
@@ -6638,7 +6638,7 @@
         <v>334.51</v>
       </c>
       <c r="G159" t="n">
-        <v>336.44</v>
+        <v>336.46</v>
       </c>
       <c r="H159" t="n">
         <v>341.9</v>
@@ -6677,7 +6677,7 @@
         <v>334.36</v>
       </c>
       <c r="G160" t="n">
-        <v>336.47</v>
+        <v>336.51</v>
       </c>
       <c r="H160" t="n">
         <v>342.1</v>
@@ -6716,7 +6716,7 @@
         <v>334.59</v>
       </c>
       <c r="G161" t="n">
-        <v>337.31</v>
+        <v>337.41</v>
       </c>
       <c r="H161" t="n">
         <v>342.6</v>
@@ -6755,7 +6755,7 @@
         <v>334.43</v>
       </c>
       <c r="G162" t="n">
-        <v>336.8</v>
+        <v>336.87</v>
       </c>
       <c r="H162" t="n">
         <v>341.76</v>
@@ -6794,7 +6794,7 @@
         <v>334.6</v>
       </c>
       <c r="G163" t="n">
-        <v>337.24</v>
+        <v>337.32</v>
       </c>
       <c r="H163" t="n">
         <v>341.79</v>
@@ -6833,7 +6833,7 @@
         <v>334.57</v>
       </c>
       <c r="G164" t="n">
-        <v>337.28</v>
+        <v>337.37</v>
       </c>
       <c r="H164" t="n">
         <v>341.58</v>
@@ -6872,7 +6872,7 @@
         <v>334.87</v>
       </c>
       <c r="G165" t="n">
-        <v>337.57</v>
+        <v>337.73</v>
       </c>
       <c r="H165" t="n">
         <v>340.25</v>
@@ -6911,7 +6911,7 @@
         <v>335.69</v>
       </c>
       <c r="G166" t="n">
-        <v>339.23</v>
+        <v>339.27</v>
       </c>
       <c r="H166" t="n">
         <v>340.52</v>
@@ -6950,7 +6950,7 @@
         <v>336.33</v>
       </c>
       <c r="G167" t="n">
-        <v>340.01</v>
+        <v>340</v>
       </c>
       <c r="H167" t="n">
         <v>341.44</v>
@@ -6989,7 +6989,7 @@
         <v>337.3</v>
       </c>
       <c r="G168" t="n">
-        <v>340.48</v>
+        <v>340.47</v>
       </c>
       <c r="H168" t="n">
         <v>341.68</v>
@@ -7028,7 +7028,7 @@
         <v>337.7</v>
       </c>
       <c r="G169" t="n">
-        <v>340.62</v>
+        <v>340.57</v>
       </c>
       <c r="H169" t="n">
         <v>342.47</v>
@@ -7067,7 +7067,7 @@
         <v>337.78</v>
       </c>
       <c r="G170" t="n">
-        <v>340.86</v>
+        <v>340.81</v>
       </c>
       <c r="H170" t="n">
         <v>342.47</v>
@@ -7106,7 +7106,7 @@
         <v>338.44</v>
       </c>
       <c r="G171" t="n">
-        <v>341.61</v>
+        <v>341.51</v>
       </c>
       <c r="H171" t="n">
         <v>342.34</v>
@@ -7145,7 +7145,7 @@
         <v>340.57</v>
       </c>
       <c r="G172" t="n">
-        <v>343.94</v>
+        <v>343.7</v>
       </c>
       <c r="H172" t="n">
         <v>346.04</v>
@@ -7184,7 +7184,7 @@
         <v>339.06</v>
       </c>
       <c r="G173" t="n">
-        <v>341.26</v>
+        <v>341.22</v>
       </c>
       <c r="H173" t="n">
         <v>343.24</v>
@@ -7223,7 +7223,7 @@
         <v>339.82</v>
       </c>
       <c r="G174" t="n">
-        <v>342.62</v>
+        <v>342.68</v>
       </c>
       <c r="H174" t="n">
         <v>343.14</v>
@@ -7262,7 +7262,7 @@
         <v>338.49</v>
       </c>
       <c r="G175" t="n">
-        <v>342.69</v>
+        <v>342.77</v>
       </c>
       <c r="H175" t="n">
         <v>343.94</v>
@@ -7301,7 +7301,7 @@
         <v>339.13</v>
       </c>
       <c r="G176" t="n">
-        <v>342.66</v>
+        <v>342.8</v>
       </c>
       <c r="H176" t="n">
         <v>344.65</v>
@@ -7340,7 +7340,7 @@
         <v>336.57</v>
       </c>
       <c r="G177" t="n">
-        <v>340.65</v>
+        <v>340.69</v>
       </c>
       <c r="H177" t="n">
         <v>342.58</v>
@@ -7379,7 +7379,7 @@
         <v>337.69</v>
       </c>
       <c r="G178" t="n">
-        <v>342.16</v>
+        <v>342.22</v>
       </c>
       <c r="H178" t="n">
         <v>343.96</v>
@@ -7418,7 +7418,7 @@
         <v>336.04</v>
       </c>
       <c r="G179" t="n">
-        <v>341.33</v>
+        <v>341.37</v>
       </c>
       <c r="H179" t="n">
         <v>343.41</v>
@@ -7496,7 +7496,7 @@
         <v>336.39</v>
       </c>
       <c r="G181" t="n">
-        <v>344.07</v>
+        <v>343.96</v>
       </c>
       <c r="H181" t="n">
         <v>346.26</v>
@@ -7535,7 +7535,7 @@
         <v>337.47</v>
       </c>
       <c r="G182" t="n">
-        <v>343.7</v>
+        <v>343.55</v>
       </c>
       <c r="H182" t="n">
         <v>346.53</v>
@@ -7574,7 +7574,7 @@
         <v>337.71</v>
       </c>
       <c r="G183" t="n">
-        <v>343.39</v>
+        <v>343.23</v>
       </c>
       <c r="H183" t="n">
         <v>345.56</v>
@@ -7613,7 +7613,7 @@
         <v>336.39</v>
       </c>
       <c r="G184" t="n">
-        <v>342.1</v>
+        <v>341.9</v>
       </c>
       <c r="H184" t="n">
         <v>344.35</v>
@@ -7652,7 +7652,7 @@
         <v>341.37</v>
       </c>
       <c r="G185" t="n">
-        <v>345.39</v>
+        <v>345.15</v>
       </c>
       <c r="H185" t="n">
         <v>346.75</v>
@@ -7691,7 +7691,7 @@
         <v>339</v>
       </c>
       <c r="G186" t="n">
-        <v>342.29</v>
+        <v>342.15</v>
       </c>
       <c r="H186" t="n">
         <v>342.56</v>
@@ -7730,7 +7730,7 @@
         <v>338.03</v>
       </c>
       <c r="G187" t="n">
-        <v>340.42</v>
+        <v>340.45</v>
       </c>
       <c r="H187" t="n">
         <v>341.68</v>
@@ -7769,7 +7769,7 @@
         <v>337.24</v>
       </c>
       <c r="G188" t="n">
-        <v>341.16</v>
+        <v>341.39</v>
       </c>
       <c r="H188" t="n">
         <v>340.4</v>
@@ -7808,7 +7808,7 @@
         <v>338.11</v>
       </c>
       <c r="G189" t="n">
-        <v>341.85</v>
+        <v>342.15</v>
       </c>
       <c r="H189" t="n">
         <v>340.4</v>
@@ -7847,7 +7847,7 @@
         <v>339.27</v>
       </c>
       <c r="G190" t="n">
-        <v>342.73</v>
+        <v>343.23</v>
       </c>
       <c r="H190" t="n">
         <v>341.27</v>
@@ -7886,7 +7886,7 @@
         <v>335.64</v>
       </c>
       <c r="G191" t="n">
-        <v>339.32</v>
+        <v>339.76</v>
       </c>
       <c r="H191" t="n">
         <v>340.1</v>
@@ -7925,7 +7925,7 @@
         <v>338.07</v>
       </c>
       <c r="G192" t="n">
-        <v>340.82</v>
+        <v>341.19</v>
       </c>
       <c r="H192" t="n">
         <v>341.02</v>
@@ -7964,7 +7964,7 @@
         <v>337.56</v>
       </c>
       <c r="G193" t="n">
-        <v>339.53</v>
+        <v>339.87</v>
       </c>
       <c r="H193" t="n">
         <v>340.93</v>
@@ -8003,7 +8003,7 @@
         <v>340.23</v>
       </c>
       <c r="G194" t="n">
-        <v>341.34</v>
+        <v>341.55</v>
       </c>
       <c r="H194" t="n">
         <v>342.9</v>
@@ -8042,7 +8042,7 @@
         <v>340.37</v>
       </c>
       <c r="G195" t="n">
-        <v>342.76</v>
+        <v>342.97</v>
       </c>
       <c r="H195" t="n">
         <v>345.1</v>
@@ -8081,7 +8081,7 @@
         <v>340.78</v>
       </c>
       <c r="G196" t="n">
-        <v>343.97</v>
+        <v>344.17</v>
       </c>
       <c r="H196" t="n">
         <v>346.68</v>
@@ -8120,7 +8120,7 @@
         <v>340.28</v>
       </c>
       <c r="G197" t="n">
-        <v>343.53</v>
+        <v>343.56</v>
       </c>
       <c r="H197" t="n">
         <v>346.32</v>
@@ -8159,7 +8159,7 @@
         <v>340.66</v>
       </c>
       <c r="G198" t="n">
-        <v>343.29</v>
+        <v>343.28</v>
       </c>
       <c r="H198" t="n">
         <v>346.08</v>
@@ -8198,7 +8198,7 @@
         <v>340.79</v>
       </c>
       <c r="G199" t="n">
-        <v>343.97</v>
+        <v>343.98</v>
       </c>
       <c r="H199" t="n">
         <v>345.8</v>
@@ -8237,7 +8237,7 @@
         <v>341.18</v>
       </c>
       <c r="G200" t="n">
-        <v>345.23</v>
+        <v>345.18</v>
       </c>
       <c r="H200" t="n">
         <v>344.22</v>
@@ -8276,7 +8276,7 @@
         <v>340.79</v>
       </c>
       <c r="G201" t="n">
-        <v>343.81</v>
+        <v>343.57</v>
       </c>
       <c r="H201" t="n">
         <v>342.94</v>
@@ -8315,7 +8315,7 @@
         <v>338.43</v>
       </c>
       <c r="G202" t="n">
-        <v>341.89</v>
+        <v>341.82</v>
       </c>
       <c r="H202" t="n">
         <v>341.75</v>
@@ -8354,7 +8354,7 @@
         <v>335.75</v>
       </c>
       <c r="G203" t="n">
-        <v>339.28</v>
+        <v>339.3</v>
       </c>
       <c r="H203" t="n">
         <v>340.64</v>
@@ -8393,7 +8393,7 @@
         <v>335.56</v>
       </c>
       <c r="G204" t="n">
-        <v>340.31</v>
+        <v>340.38</v>
       </c>
       <c r="H204" t="n">
         <v>340.86</v>
@@ -8432,7 +8432,7 @@
         <v>336.44</v>
       </c>
       <c r="G205" t="n">
-        <v>341.07</v>
+        <v>341.06</v>
       </c>
       <c r="H205" t="n">
         <v>342.51</v>
@@ -8471,7 +8471,7 @@
         <v>338.39</v>
       </c>
       <c r="G206" t="n">
-        <v>342.9</v>
+        <v>342.98</v>
       </c>
       <c r="H206" t="n">
         <v>344.21</v>
@@ -8510,7 +8510,7 @@
         <v>337.42</v>
       </c>
       <c r="G207" t="n">
-        <v>342.5</v>
+        <v>342.51</v>
       </c>
       <c r="H207" t="n">
         <v>343.91</v>
@@ -8549,7 +8549,7 @@
         <v>337.12</v>
       </c>
       <c r="G208" t="n">
-        <v>342.18</v>
+        <v>342.19</v>
       </c>
       <c r="H208" t="n">
         <v>343.62</v>
@@ -8588,7 +8588,7 @@
         <v>337.54</v>
       </c>
       <c r="G209" t="n">
-        <v>341.57</v>
+        <v>341.58</v>
       </c>
       <c r="H209" t="n">
         <v>343.05</v>
@@ -8627,7 +8627,7 @@
         <v>336.99</v>
       </c>
       <c r="G210" t="n">
-        <v>341.5</v>
+        <v>341.61</v>
       </c>
       <c r="H210" t="n">
         <v>344.58</v>
@@ -8666,7 +8666,7 @@
         <v>338.41</v>
       </c>
       <c r="G211" t="n">
-        <v>342.35</v>
+        <v>342.32</v>
       </c>
       <c r="H211" t="n">
         <v>344.86</v>
@@ -8705,7 +8705,7 @@
         <v>338.41</v>
       </c>
       <c r="G212" t="n">
-        <v>342.35</v>
+        <v>342.32</v>
       </c>
       <c r="H212" t="n">
         <v>345.75</v>
@@ -8744,7 +8744,7 @@
         <v>337</v>
       </c>
       <c r="G213" t="n">
-        <v>340.4</v>
+        <v>340.43</v>
       </c>
       <c r="H213" t="n">
         <v>344.39</v>
@@ -8783,7 +8783,7 @@
         <v>336.93</v>
       </c>
       <c r="G214" t="n">
-        <v>340.14</v>
+        <v>340.12</v>
       </c>
       <c r="H214" t="n">
         <v>344</v>
@@ -8861,7 +8861,7 @@
         <v>337.83</v>
       </c>
       <c r="G216" t="n">
-        <v>341.17</v>
+        <v>341.16</v>
       </c>
       <c r="H216" t="n">
         <v>344.6</v>
@@ -8900,7 +8900,7 @@
         <v>337.21</v>
       </c>
       <c r="G217" t="n">
-        <v>339.03</v>
+        <v>339.04</v>
       </c>
       <c r="H217" t="n">
         <v>343.43</v>
@@ -8939,7 +8939,7 @@
         <v>337.87</v>
       </c>
       <c r="G218" t="n">
-        <v>339.59</v>
+        <v>339.58</v>
       </c>
       <c r="H218" t="n">
         <v>340.11</v>
@@ -8978,7 +8978,7 @@
         <v>340.97</v>
       </c>
       <c r="G219" t="n">
-        <v>343.11</v>
+        <v>342.98</v>
       </c>
       <c r="H219" t="n">
         <v>342.66</v>
@@ -9017,7 +9017,7 @@
         <v>340.63</v>
       </c>
       <c r="G220" t="n">
-        <v>343.44</v>
+        <v>343.39</v>
       </c>
       <c r="H220" t="n">
         <v>341.24</v>
@@ -9056,7 +9056,7 @@
         <v>340.63</v>
       </c>
       <c r="G221" t="n">
-        <v>343.44</v>
+        <v>343.39</v>
       </c>
       <c r="H221" t="n">
         <v>341.24</v>
@@ -9095,7 +9095,7 @@
         <v>340.13</v>
       </c>
       <c r="G222" t="n">
-        <v>343.28</v>
+        <v>343.15</v>
       </c>
       <c r="H222" t="n">
         <v>341.09</v>
@@ -9134,7 +9134,7 @@
         <v>343.59</v>
       </c>
       <c r="G223" t="n">
-        <v>346.23</v>
+        <v>346.21</v>
       </c>
       <c r="H223" t="n">
         <v>344.3</v>
@@ -9173,7 +9173,7 @@
         <v>343.78</v>
       </c>
       <c r="G224" t="n">
-        <v>347.28</v>
+        <v>347.34</v>
       </c>
       <c r="H224" t="n">
         <v>345.67</v>
@@ -9212,7 +9212,7 @@
         <v>343.56</v>
       </c>
       <c r="G225" t="n">
-        <v>347.23</v>
+        <v>347.32</v>
       </c>
       <c r="H225" t="n">
         <v>346.49</v>
@@ -9251,7 +9251,7 @@
         <v>345.41</v>
       </c>
       <c r="G226" t="n">
-        <v>349.49</v>
+        <v>349.58</v>
       </c>
       <c r="H226" t="n">
         <v>348.32</v>
@@ -9290,7 +9290,7 @@
         <v>344.71</v>
       </c>
       <c r="G227" t="n">
-        <v>348.83</v>
+        <v>348.86</v>
       </c>
       <c r="H227" t="n">
         <v>347.55</v>
@@ -9329,7 +9329,7 @@
         <v>342.77</v>
       </c>
       <c r="G228" t="n">
-        <v>348.47</v>
+        <v>348.51</v>
       </c>
       <c r="H228" t="n">
         <v>348.05</v>
@@ -9368,7 +9368,7 @@
         <v>340.36</v>
       </c>
       <c r="G229" t="n">
-        <v>346.81</v>
+        <v>346.75</v>
       </c>
       <c r="H229" t="n">
         <v>347.8</v>
@@ -9407,7 +9407,7 @@
         <v>340.33</v>
       </c>
       <c r="G230" t="n">
-        <v>346.65</v>
+        <v>346.7</v>
       </c>
       <c r="H230" t="n">
         <v>348.4</v>
@@ -9446,7 +9446,7 @@
         <v>340.63</v>
       </c>
       <c r="G231" t="n">
-        <v>346.43</v>
+        <v>346.35</v>
       </c>
       <c r="H231" t="n">
         <v>348.79</v>
@@ -9485,7 +9485,7 @@
         <v>338.2</v>
       </c>
       <c r="G232" t="n">
-        <v>345.46</v>
+        <v>345.3</v>
       </c>
       <c r="H232" t="n">
         <v>346.43</v>
@@ -9524,7 +9524,7 @@
         <v>338.08</v>
       </c>
       <c r="G233" t="n">
-        <v>345.8</v>
+        <v>345.71</v>
       </c>
       <c r="H233" t="n">
         <v>346.29</v>
@@ -9563,7 +9563,7 @@
         <v>335.47</v>
       </c>
       <c r="G234" t="n">
-        <v>344.4</v>
+        <v>344.33</v>
       </c>
       <c r="H234" t="n">
         <v>345.54</v>
@@ -9602,7 +9602,7 @@
         <v>336.32</v>
       </c>
       <c r="G235" t="n">
-        <v>345.01</v>
+        <v>344.95</v>
       </c>
       <c r="H235" t="n">
         <v>345.67</v>
@@ -9641,7 +9641,7 @@
         <v>336.08</v>
       </c>
       <c r="G236" t="n">
-        <v>345.3</v>
+        <v>345.35</v>
       </c>
       <c r="H236" t="n">
         <v>345.93</v>
@@ -9680,7 +9680,7 @@
         <v>336.22</v>
       </c>
       <c r="G237" t="n">
-        <v>345.37</v>
+        <v>345.47</v>
       </c>
       <c r="H237" t="n">
         <v>346.18</v>
@@ -9719,7 +9719,7 @@
         <v>338.54</v>
       </c>
       <c r="G238" t="n">
-        <v>346.15</v>
+        <v>346.29</v>
       </c>
       <c r="H238" t="n">
         <v>347.36</v>
@@ -9758,7 +9758,7 @@
         <v>339.3</v>
       </c>
       <c r="G239" t="n">
-        <v>346.53</v>
+        <v>346.66</v>
       </c>
       <c r="H239" t="n">
         <v>347.62</v>
@@ -9797,7 +9797,7 @@
         <v>337.36</v>
       </c>
       <c r="G240" t="n">
-        <v>344.84</v>
+        <v>345.08</v>
       </c>
       <c r="H240" t="n">
         <v>345.18</v>
@@ -9836,7 +9836,7 @@
         <v>337.73</v>
       </c>
       <c r="G241" t="n">
-        <v>344.66</v>
+        <v>344.83</v>
       </c>
       <c r="H241" t="n">
         <v>345.05</v>
@@ -9875,7 +9875,7 @@
         <v>337.81</v>
       </c>
       <c r="G242" t="n">
-        <v>343.58</v>
+        <v>343.83</v>
       </c>
       <c r="H242" t="n">
         <v>344.99</v>
@@ -9914,7 +9914,7 @@
         <v>337.45</v>
       </c>
       <c r="G243" t="n">
-        <v>342.8</v>
+        <v>342.96</v>
       </c>
       <c r="H243" t="n">
         <v>344.6</v>
@@ -9953,7 +9953,7 @@
         <v>337.82</v>
       </c>
       <c r="G244" t="n">
-        <v>343.28</v>
+        <v>343.45</v>
       </c>
       <c r="H244" t="n">
         <v>344.78</v>
@@ -9992,7 +9992,7 @@
         <v>339.58</v>
       </c>
       <c r="G245" t="n">
-        <v>343.64</v>
+        <v>343.8</v>
       </c>
       <c r="H245" t="n">
         <v>344.68</v>
@@ -10031,7 +10031,7 @@
         <v>338.55</v>
       </c>
       <c r="G246" t="n">
-        <v>342.26</v>
+        <v>342.43</v>
       </c>
       <c r="H246" t="n">
         <v>344.47</v>
@@ -10070,7 +10070,7 @@
         <v>338.7</v>
       </c>
       <c r="G247" t="n">
-        <v>341.87</v>
+        <v>342.01</v>
       </c>
       <c r="H247" t="n">
         <v>344.54</v>
@@ -10109,7 +10109,7 @@
         <v>338.61</v>
       </c>
       <c r="G248" t="n">
-        <v>341.61</v>
+        <v>341.66</v>
       </c>
       <c r="H248" t="n">
         <v>345.56</v>
@@ -10148,7 +10148,7 @@
         <v>337.48</v>
       </c>
       <c r="G249" t="n">
-        <v>339.79</v>
+        <v>339.87</v>
       </c>
       <c r="H249" t="n">
         <v>344.22</v>
@@ -10187,7 +10187,7 @@
         <v>336.55</v>
       </c>
       <c r="G250" t="n">
-        <v>339.08</v>
+        <v>339.18</v>
       </c>
       <c r="H250" t="n">
         <v>342.95</v>
@@ -10226,7 +10226,7 @@
         <v>336.5</v>
       </c>
       <c r="G251" t="n">
-        <v>340.93</v>
+        <v>341.08</v>
       </c>
       <c r="H251" t="n">
         <v>345.75</v>
@@ -10265,7 +10265,7 @@
         <v>338.06</v>
       </c>
       <c r="G252" t="n">
-        <v>342.97</v>
+        <v>343.09</v>
       </c>
       <c r="H252" t="n">
         <v>346.34</v>
@@ -10304,7 +10304,7 @@
         <v>337.71</v>
       </c>
       <c r="G253" t="n">
-        <v>340.35</v>
+        <v>340.69</v>
       </c>
       <c r="H253" t="n">
         <v>341.94</v>
@@ -10343,7 +10343,7 @@
         <v>340.2</v>
       </c>
       <c r="G254" t="n">
-        <v>344.42</v>
+        <v>344.75</v>
       </c>
       <c r="H254" t="n">
         <v>344.04</v>
@@ -10382,7 +10382,7 @@
         <v>340.22</v>
       </c>
       <c r="G255" t="n">
-        <v>344.01</v>
+        <v>344.21</v>
       </c>
       <c r="H255" t="n">
         <v>344.76</v>
@@ -10421,7 +10421,7 @@
         <v>339.22</v>
       </c>
       <c r="G256" t="n">
-        <v>343.54</v>
+        <v>343.71</v>
       </c>
       <c r="H256" t="n">
         <v>344.4</v>
@@ -10460,7 +10460,7 @@
         <v>337.78</v>
       </c>
       <c r="G257" t="n">
-        <v>342.55</v>
+        <v>342.68</v>
       </c>
       <c r="H257" t="n">
         <v>344.33</v>
@@ -10499,7 +10499,7 @@
         <v>335.61</v>
       </c>
       <c r="G258" t="n">
-        <v>340.12</v>
+        <v>340.25</v>
       </c>
       <c r="H258" t="n">
         <v>341.88</v>
@@ -10538,7 +10538,7 @@
         <v>334.93</v>
       </c>
       <c r="G259" t="n">
-        <v>340</v>
+        <v>340.06</v>
       </c>
       <c r="H259" t="n">
         <v>342.02</v>
@@ -10577,7 +10577,7 @@
         <v>334.48</v>
       </c>
       <c r="G260" t="n">
-        <v>339.62</v>
+        <v>339.71</v>
       </c>
       <c r="H260" t="n">
         <v>341.17</v>
@@ -10616,7 +10616,7 @@
         <v>333.92</v>
       </c>
       <c r="G261" t="n">
-        <v>338.74</v>
+        <v>338.86</v>
       </c>
       <c r="H261" t="n">
         <v>340.97</v>
@@ -10655,7 +10655,7 @@
         <v>333.71</v>
       </c>
       <c r="G262" t="n">
-        <v>338.56</v>
+        <v>338.64</v>
       </c>
       <c r="H262" t="n">
         <v>340.58</v>
@@ -10694,7 +10694,7 @@
         <v>334.19</v>
       </c>
       <c r="G263" t="n">
-        <v>338.27</v>
+        <v>338.31</v>
       </c>
       <c r="H263" t="n">
         <v>340.25</v>
@@ -10733,7 +10733,7 @@
         <v>335.73</v>
       </c>
       <c r="G264" t="n">
-        <v>339.43</v>
+        <v>339.49</v>
       </c>
       <c r="H264" t="n">
         <v>341.29</v>
@@ -10772,7 +10772,7 @@
         <v>335.41</v>
       </c>
       <c r="G265" t="n">
-        <v>337.87</v>
+        <v>337.95</v>
       </c>
       <c r="H265" t="n">
         <v>340.52</v>
@@ -10811,7 +10811,7 @@
         <v>336.15</v>
       </c>
       <c r="G266" t="n">
-        <v>339.09</v>
+        <v>339.08</v>
       </c>
       <c r="H266" t="n">
         <v>342.06</v>
@@ -10850,7 +10850,7 @@
         <v>336.48</v>
       </c>
       <c r="G267" t="n">
-        <v>339.48</v>
+        <v>339.42</v>
       </c>
       <c r="H267" t="n">
         <v>342.12</v>
@@ -10889,7 +10889,7 @@
         <v>335.88</v>
       </c>
       <c r="G268" t="n">
-        <v>339.07</v>
+        <v>339.09</v>
       </c>
       <c r="H268" t="n">
         <v>341.68</v>
@@ -10928,7 +10928,7 @@
         <v>336.15</v>
       </c>
       <c r="G269" t="n">
-        <v>339.31</v>
+        <v>339.33</v>
       </c>
       <c r="H269" t="n">
         <v>342.33</v>
@@ -10967,7 +10967,7 @@
         <v>336.69</v>
       </c>
       <c r="G270" t="n">
-        <v>339.6</v>
+        <v>339.62</v>
       </c>
       <c r="H270" t="n">
         <v>342.74</v>
@@ -11006,7 +11006,7 @@
         <v>337.4</v>
       </c>
       <c r="G271" t="n">
-        <v>340.5</v>
+        <v>340.51</v>
       </c>
       <c r="H271" t="n">
         <v>344.45</v>
@@ -11084,7 +11084,7 @@
         <v>339.44</v>
       </c>
       <c r="G273" t="n">
-        <v>341.65</v>
+        <v>341.59</v>
       </c>
       <c r="H273" t="n">
         <v>345.53</v>
@@ -11123,7 +11123,7 @@
         <v>339.89</v>
       </c>
       <c r="G274" t="n">
-        <v>341.92</v>
+        <v>341.95</v>
       </c>
       <c r="H274" t="n">
         <v>346.36</v>
@@ -11162,7 +11162,7 @@
         <v>339.11</v>
       </c>
       <c r="G275" t="n">
-        <v>341.01</v>
+        <v>341.02</v>
       </c>
       <c r="H275" t="n">
         <v>346.35</v>
@@ -11201,7 +11201,7 @@
         <v>339.24</v>
       </c>
       <c r="G276" t="n">
-        <v>342.88</v>
+        <v>342.89</v>
       </c>
       <c r="H276" t="n">
         <v>347.55</v>
@@ -11240,7 +11240,7 @@
         <v>339.3</v>
       </c>
       <c r="G277" t="n">
-        <v>342.51</v>
+        <v>342.54</v>
       </c>
       <c r="H277" t="n">
         <v>346.92</v>
@@ -11279,7 +11279,7 @@
         <v>339.55</v>
       </c>
       <c r="G278" t="n">
-        <v>340.83</v>
+        <v>340.9</v>
       </c>
       <c r="H278" t="n">
         <v>346.63</v>
@@ -11318,7 +11318,7 @@
         <v>341.19</v>
       </c>
       <c r="G279" t="n">
-        <v>341.83</v>
+        <v>341.93</v>
       </c>
       <c r="H279" t="n">
         <v>347.88</v>
@@ -11357,7 +11357,7 @@
         <v>339.44</v>
       </c>
       <c r="G280" t="n">
-        <v>341.08</v>
+        <v>341.16</v>
       </c>
       <c r="H280" t="n">
         <v>346.8</v>
@@ -11396,7 +11396,7 @@
         <v>341.13</v>
       </c>
       <c r="G281" t="n">
-        <v>343.67</v>
+        <v>343.95</v>
       </c>
       <c r="H281" t="n">
         <v>349.2</v>
@@ -11435,7 +11435,7 @@
         <v>342</v>
       </c>
       <c r="G282" t="n">
-        <v>346.63</v>
+        <v>346.88</v>
       </c>
       <c r="H282" t="n">
         <v>352.82</v>
@@ -11474,7 +11474,7 @@
         <v>338.55</v>
       </c>
       <c r="G283" t="n">
-        <v>344.96</v>
+        <v>345.22</v>
       </c>
       <c r="H283" t="n">
         <v>351.22</v>
@@ -11513,7 +11513,7 @@
         <v>326.95</v>
       </c>
       <c r="G284" t="n">
-        <v>342.49</v>
+        <v>342.65</v>
       </c>
       <c r="H284" t="n">
         <v>348.67</v>
@@ -11552,7 +11552,7 @@
         <v>322</v>
       </c>
       <c r="G285" t="n">
-        <v>332.09</v>
+        <v>332.16</v>
       </c>
       <c r="H285" t="n">
         <v>338.12</v>
@@ -11591,7 +11591,7 @@
         <v>322</v>
       </c>
       <c r="G286" t="n">
-        <v>336.89</v>
+        <v>337.09</v>
       </c>
       <c r="H286" t="n">
         <v>340.27</v>
@@ -11630,7 +11630,7 @@
         <v>326.16</v>
       </c>
       <c r="G287" t="n">
-        <v>339.02</v>
+        <v>339.13</v>
       </c>
       <c r="H287" t="n">
         <v>341.64</v>
@@ -11669,7 +11669,7 @@
         <v>326.16</v>
       </c>
       <c r="G288" t="n">
-        <v>339.02</v>
+        <v>339.13</v>
       </c>
       <c r="H288" t="n">
         <v>341.64</v>
@@ -11708,7 +11708,7 @@
         <v>327.04</v>
       </c>
       <c r="G289" t="n">
-        <v>338.68</v>
+        <v>338.77</v>
       </c>
       <c r="H289" t="n">
         <v>341.96</v>
@@ -11747,7 +11747,7 @@
         <v>330.2</v>
       </c>
       <c r="G290" t="n">
-        <v>340.07</v>
+        <v>340.18</v>
       </c>
       <c r="H290" t="n">
         <v>342.89</v>
@@ -11786,7 +11786,7 @@
         <v>331.92</v>
       </c>
       <c r="G291" t="n">
-        <v>340.22</v>
+        <v>340.36</v>
       </c>
       <c r="H291" t="n">
         <v>343.66</v>
@@ -11825,7 +11825,7 @@
         <v>331.91</v>
       </c>
       <c r="G292" t="n">
-        <v>339.93</v>
+        <v>340.06</v>
       </c>
       <c r="H292" t="n">
         <v>342.43</v>
@@ -11864,7 +11864,7 @@
         <v>333.47</v>
       </c>
       <c r="G293" t="n">
-        <v>340.79</v>
+        <v>340.85</v>
       </c>
       <c r="H293" t="n">
         <v>343.51</v>
@@ -11903,7 +11903,7 @@
         <v>336.19</v>
       </c>
       <c r="G294" t="n">
-        <v>340.79</v>
+        <v>340.85</v>
       </c>
       <c r="H294" t="n">
         <v>344.81</v>
@@ -11942,7 +11942,7 @@
         <v>335.94</v>
       </c>
       <c r="G295" t="n">
-        <v>341.81</v>
+        <v>341.9</v>
       </c>
       <c r="H295" t="n">
         <v>345.11</v>
@@ -11981,7 +11981,7 @@
         <v>336.02</v>
       </c>
       <c r="G296" t="n">
-        <v>341.29</v>
+        <v>341.39</v>
       </c>
       <c r="H296" t="n">
         <v>344.35</v>
@@ -12020,7 +12020,7 @@
         <v>336.35</v>
       </c>
       <c r="G297" t="n">
-        <v>341.46</v>
+        <v>341.54</v>
       </c>
       <c r="H297" t="n">
         <v>343.87</v>
@@ -12059,7 +12059,7 @@
         <v>335.45</v>
       </c>
       <c r="G298" t="n">
-        <v>340.79</v>
+        <v>340.86</v>
       </c>
       <c r="H298" t="n">
         <v>343.26</v>
@@ -12098,7 +12098,7 @@
         <v>338.9</v>
       </c>
       <c r="G299" t="n">
-        <v>343.24</v>
+        <v>343.32</v>
       </c>
       <c r="H299" t="n">
         <v>344.95</v>
@@ -12137,7 +12137,7 @@
         <v>339.17</v>
       </c>
       <c r="G300" t="n">
-        <v>343.28</v>
+        <v>343.32</v>
       </c>
       <c r="H300" t="n">
         <v>345.34</v>
@@ -12176,7 +12176,7 @@
         <v>339.17</v>
       </c>
       <c r="G301" t="n">
-        <v>343.28</v>
+        <v>343.32</v>
       </c>
       <c r="H301" t="n">
         <v>345.34</v>
@@ -12215,7 +12215,7 @@
         <v>339.94</v>
       </c>
       <c r="G302" t="n">
-        <v>343.92</v>
+        <v>343.91</v>
       </c>
       <c r="H302" t="n">
         <v>345.53</v>
@@ -12254,7 +12254,7 @@
         <v>340.31</v>
       </c>
       <c r="G303" t="n">
-        <v>343.94</v>
+        <v>343.9</v>
       </c>
       <c r="H303" t="n">
         <v>345.62</v>
@@ -12293,7 +12293,7 @@
         <v>340.29</v>
       </c>
       <c r="G304" t="n">
-        <v>343.48</v>
+        <v>343.47</v>
       </c>
       <c r="H304" t="n">
         <v>345.42</v>
@@ -12332,7 +12332,7 @@
         <v>342.52</v>
       </c>
       <c r="G305" t="n">
-        <v>344.02</v>
+        <v>344.01</v>
       </c>
       <c r="H305" t="n">
         <v>345.55</v>
@@ -12371,7 +12371,7 @@
         <v>342.07</v>
       </c>
       <c r="G306" t="n">
-        <v>343.42</v>
+        <v>343.4</v>
       </c>
       <c r="H306" t="n">
         <v>345.29</v>
@@ -12410,7 +12410,7 @@
         <v>342.21</v>
       </c>
       <c r="G307" t="n">
-        <v>343.81</v>
+        <v>343.75</v>
       </c>
       <c r="H307" t="n">
         <v>345.08</v>
@@ -12449,7 +12449,7 @@
         <v>342.14</v>
       </c>
       <c r="G308" t="n">
-        <v>343.81</v>
+        <v>343.75</v>
       </c>
       <c r="H308" t="n">
         <v>345.08</v>
@@ -12488,7 +12488,7 @@
         <v>342</v>
       </c>
       <c r="G309" t="n">
-        <v>344.32</v>
+        <v>344.28</v>
       </c>
       <c r="H309" t="n">
         <v>345.09</v>
@@ -12527,7 +12527,7 @@
         <v>341.38</v>
       </c>
       <c r="G310" t="n">
-        <v>343.92</v>
+        <v>343.93</v>
       </c>
       <c r="H310" t="n">
         <v>345.61</v>
@@ -12566,7 +12566,7 @@
         <v>341.51</v>
       </c>
       <c r="G311" t="n">
-        <v>343.25</v>
+        <v>343.4</v>
       </c>
       <c r="H311" t="n">
         <v>344.43</v>
@@ -12605,7 +12605,7 @@
         <v>341.25</v>
       </c>
       <c r="G312" t="n">
-        <v>343.6</v>
+        <v>343.76</v>
       </c>
       <c r="H312" t="n">
         <v>344.85</v>
@@ -12644,7 +12644,7 @@
         <v>341.59</v>
       </c>
       <c r="G313" t="n">
-        <v>344.08</v>
+        <v>344.26</v>
       </c>
       <c r="H313" t="n">
         <v>345.14</v>
@@ -12683,7 +12683,7 @@
         <v>340.28</v>
       </c>
       <c r="G314" t="n">
-        <v>342.19</v>
+        <v>342.46</v>
       </c>
       <c r="H314" t="n">
         <v>344.86</v>
@@ -12722,7 +12722,7 @@
         <v>336.96</v>
       </c>
       <c r="G315" t="n">
-        <v>342.26</v>
+        <v>342.45</v>
       </c>
       <c r="H315" t="n">
         <v>348.73</v>
@@ -12761,7 +12761,7 @@
         <v>336.72</v>
       </c>
       <c r="G316" t="n">
-        <v>341.09</v>
+        <v>341.34</v>
       </c>
       <c r="H316" t="n">
         <v>347.16</v>
@@ -12800,7 +12800,7 @@
         <v>337.75</v>
       </c>
       <c r="G317" t="n">
-        <v>342.3</v>
+        <v>342.45</v>
       </c>
       <c r="H317" t="n">
         <v>348.17</v>
@@ -12839,7 +12839,7 @@
         <v>337.94</v>
       </c>
       <c r="G318" t="n">
-        <v>342.81</v>
+        <v>343</v>
       </c>
       <c r="H318" t="n">
         <v>348.07</v>
@@ -12878,7 +12878,7 @@
         <v>338.46</v>
       </c>
       <c r="G319" t="n">
-        <v>343.27</v>
+        <v>343.47</v>
       </c>
       <c r="H319" t="n">
         <v>347.98</v>
@@ -12917,7 +12917,7 @@
         <v>337.13</v>
       </c>
       <c r="G320" t="n">
-        <v>342.69</v>
+        <v>342.89</v>
       </c>
       <c r="H320" t="n">
         <v>348.03</v>
@@ -12956,7 +12956,7 @@
         <v>337.77</v>
       </c>
       <c r="G321" t="n">
-        <v>342.99</v>
+        <v>343.25</v>
       </c>
       <c r="H321" t="n">
         <v>348.45</v>
@@ -12995,7 +12995,7 @@
         <v>337.66</v>
       </c>
       <c r="G322" t="n">
-        <v>343.51</v>
+        <v>343.99</v>
       </c>
       <c r="H322" t="n">
         <v>348.21</v>
@@ -13034,7 +13034,7 @@
         <v>336.08</v>
       </c>
       <c r="G323" t="n">
-        <v>343.03</v>
+        <v>343.4</v>
       </c>
       <c r="H323" t="n">
         <v>347.7</v>
@@ -13073,7 +13073,7 @@
         <v>337.7</v>
       </c>
       <c r="G324" t="n">
-        <v>344.86</v>
+        <v>345.23</v>
       </c>
       <c r="H324" t="n">
         <v>348.61</v>
@@ -13112,7 +13112,7 @@
         <v>336.83</v>
       </c>
       <c r="G325" t="n">
-        <v>344.82</v>
+        <v>345.18</v>
       </c>
       <c r="H325" t="n">
         <v>348.05</v>
@@ -13151,7 +13151,7 @@
         <v>338.75</v>
       </c>
       <c r="G326" t="n">
-        <v>346.5</v>
+        <v>346.76</v>
       </c>
       <c r="H326" t="n">
         <v>348.46</v>
@@ -13190,7 +13190,7 @@
         <v>338.05</v>
       </c>
       <c r="G327" t="n">
-        <v>346.78</v>
+        <v>346.96</v>
       </c>
       <c r="H327" t="n">
         <v>348.73</v>
@@ -13229,7 +13229,7 @@
         <v>338.72</v>
       </c>
       <c r="G328" t="n">
-        <v>347.02</v>
+        <v>347.11</v>
       </c>
       <c r="H328" t="n">
         <v>349.25</v>
@@ -13268,7 +13268,7 @@
         <v>337.68</v>
       </c>
       <c r="G329" t="n">
-        <v>345.57</v>
+        <v>345.65</v>
       </c>
       <c r="H329" t="n">
         <v>348.01</v>
@@ -13307,7 +13307,7 @@
         <v>338.32</v>
       </c>
       <c r="G330" t="n">
-        <v>345.6</v>
+        <v>345.64</v>
       </c>
       <c r="H330" t="n">
         <v>348.44</v>
@@ -13346,7 +13346,7 @@
         <v>337.69</v>
       </c>
       <c r="G331" t="n">
-        <v>344.34</v>
+        <v>344.39</v>
       </c>
       <c r="H331" t="n">
         <v>347.69</v>
@@ -13385,7 +13385,7 @@
         <v>338.74</v>
       </c>
       <c r="G332" t="n">
-        <v>344.5</v>
+        <v>344.51</v>
       </c>
       <c r="H332" t="n">
         <v>348.39</v>
@@ -13424,7 +13424,7 @@
         <v>338.22</v>
       </c>
       <c r="G333" t="n">
-        <v>343.64</v>
+        <v>343.7</v>
       </c>
       <c r="H333" t="n">
         <v>347.83</v>
@@ -13463,7 +13463,7 @@
         <v>338.31</v>
       </c>
       <c r="G334" t="n">
-        <v>343.52</v>
+        <v>343.47</v>
       </c>
       <c r="H334" t="n">
         <v>347.87</v>
@@ -13502,7 +13502,7 @@
         <v>338.42</v>
       </c>
       <c r="G335" t="n">
-        <v>343.99</v>
+        <v>343.98</v>
       </c>
       <c r="H335" t="n">
         <v>348.13</v>
@@ -13541,7 +13541,7 @@
         <v>338.41</v>
       </c>
       <c r="G336" t="n">
-        <v>343.81</v>
+        <v>343.8</v>
       </c>
       <c r="H336" t="n">
         <v>347.76</v>
@@ -13580,7 +13580,7 @@
         <v>338.15</v>
       </c>
       <c r="G337" t="n">
-        <v>343.62</v>
+        <v>343.57</v>
       </c>
       <c r="H337" t="n">
         <v>347.59</v>
@@ -13619,7 +13619,7 @@
         <v>337.16</v>
       </c>
       <c r="G338" t="n">
-        <v>343.1</v>
+        <v>343.07</v>
       </c>
       <c r="H338" t="n">
         <v>347.13</v>
@@ -13658,7 +13658,7 @@
         <v>336.81</v>
       </c>
       <c r="G339" t="n">
-        <v>343.14</v>
+        <v>343.09</v>
       </c>
       <c r="H339" t="n">
         <v>346.57</v>
@@ -13697,7 +13697,7 @@
         <v>337.42</v>
       </c>
       <c r="G340" t="n">
-        <v>343.59</v>
+        <v>343.51</v>
       </c>
       <c r="H340" t="n">
         <v>346.83</v>
@@ -13736,7 +13736,7 @@
         <v>336.72</v>
       </c>
       <c r="G341" t="n">
-        <v>342.98</v>
+        <v>342.89</v>
       </c>
       <c r="H341" t="n">
         <v>346.48</v>
@@ -13775,7 +13775,7 @@
         <v>336.81</v>
       </c>
       <c r="G342" t="n">
-        <v>343.6</v>
+        <v>343.53</v>
       </c>
       <c r="H342" t="n">
         <v>346.98</v>
@@ -13789,6 +13789,45 @@
       <c r="K342" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>320.07</v>
+      </c>
+      <c r="C343" t="n">
+        <v>331.34</v>
+      </c>
+      <c r="D343" t="n">
+        <v>328.12</v>
+      </c>
+      <c r="E343" t="n">
+        <v>334.18</v>
+      </c>
+      <c r="F343" t="n">
+        <v>337.58</v>
+      </c>
+      <c r="G343" t="n">
+        <v>344.47</v>
+      </c>
+      <c r="H343" t="n">
+        <v>348.12</v>
+      </c>
+      <c r="I343" t="n">
+        <v>362.31</v>
+      </c>
+      <c r="J343" t="n">
+        <v>359.27</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -13803,7 +13842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B352"/>
+  <dimension ref="A1:B353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17331,6 +17370,16 @@
       </c>
       <c r="B352" t="n">
         <v>0.15</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -17504,28 +17553,28 @@
         <v>0.0566</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1638823371577839</v>
+        <v>0.162735471680726</v>
       </c>
       <c r="J2" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K2" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06660684253643945</v>
+        <v>0.06610064540669558</v>
       </c>
       <c r="M2" t="n">
-        <v>3.496589450340638</v>
+        <v>3.492250471665018</v>
       </c>
       <c r="N2" t="n">
-        <v>20.40353590308824</v>
+        <v>20.35498564339913</v>
       </c>
       <c r="O2" t="n">
-        <v>4.517027330345505</v>
+        <v>4.511649991233709</v>
       </c>
       <c r="P2" t="n">
-        <v>317.7358792548421</v>
+        <v>317.7477250738392</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17579,31 +17628,31 @@
         <v>0.0643</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07969999999999999</v>
+        <v>0.0795</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1811702975445901</v>
+        <v>0.1813615654426267</v>
       </c>
       <c r="J3" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K3" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1031446883811507</v>
+        <v>0.1039346398839799</v>
       </c>
       <c r="M3" t="n">
-        <v>3.049843425284175</v>
+        <v>3.04183570341451</v>
       </c>
       <c r="N3" t="n">
-        <v>15.47194397904526</v>
+        <v>15.42701336509584</v>
       </c>
       <c r="O3" t="n">
-        <v>3.933439204950962</v>
+        <v>3.927723687467823</v>
       </c>
       <c r="P3" t="n">
-        <v>326.2677071116602</v>
+        <v>326.2657315313106</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17654,34 +17703,34 @@
         <v>0.08</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0711</v>
+        <v>0.0712</v>
       </c>
       <c r="H4" t="n">
         <v>0.0862</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1059597069954973</v>
+        <v>0.1041282815531723</v>
       </c>
       <c r="J4" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K4" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04271269639887298</v>
+        <v>0.04148162477918449</v>
       </c>
       <c r="M4" t="n">
-        <v>2.840426076941943</v>
+        <v>2.840281212073982</v>
       </c>
       <c r="N4" t="n">
-        <v>13.64150165932343</v>
+        <v>13.62994356328388</v>
       </c>
       <c r="O4" t="n">
-        <v>3.693440355457691</v>
+        <v>3.691875345035891</v>
       </c>
       <c r="P4" t="n">
-        <v>328.4642249686336</v>
+        <v>328.4831415152822</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17735,31 +17784,31 @@
         <v>0.0669</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0815</v>
+        <v>0.0814</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1389513009358628</v>
+        <v>0.1381535754638274</v>
       </c>
       <c r="J5" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K5" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08481918358051455</v>
+        <v>0.08438765588922814</v>
       </c>
       <c r="M5" t="n">
-        <v>2.34827203640125</v>
+        <v>2.345493098734912</v>
       </c>
       <c r="N5" t="n">
-        <v>11.29362666851486</v>
+        <v>11.26597919944629</v>
       </c>
       <c r="O5" t="n">
-        <v>3.360599153203914</v>
+        <v>3.356483159416458</v>
       </c>
       <c r="P5" t="n">
-        <v>331.8975072343367</v>
+        <v>331.905746833261</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17810,34 +17859,34 @@
         <v>0.075</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0664</v>
+        <v>0.0663</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0897</v>
+        <v>0.0896</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1468169777360278</v>
+        <v>0.1465419560747871</v>
       </c>
       <c r="J6" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K6" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07347276120592894</v>
+        <v>0.07365178724992072</v>
       </c>
       <c r="M6" t="n">
-        <v>2.639545905429139</v>
+        <v>2.633462655281917</v>
       </c>
       <c r="N6" t="n">
-        <v>14.73600506691875</v>
+        <v>14.69355617222506</v>
       </c>
       <c r="O6" t="n">
-        <v>3.838750456453082</v>
+        <v>3.833217469988503</v>
       </c>
       <c r="P6" t="n">
-        <v>334.1962475816384</v>
+        <v>334.1990882433241</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17885,37 +17934,37 @@
         <v>0.6248237480660682</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07820000000000001</v>
+        <v>0.0779</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1004</v>
+        <v>0.1002</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2508450747587282</v>
+        <v>0.2518358817198058</v>
       </c>
       <c r="J7" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K7" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2299532603440991</v>
+        <v>0.2309537070940813</v>
       </c>
       <c r="M7" t="n">
-        <v>2.523219710783573</v>
+        <v>2.529360220357629</v>
       </c>
       <c r="N7" t="n">
-        <v>11.42310171751308</v>
+        <v>11.48880171076055</v>
       </c>
       <c r="O7" t="n">
-        <v>3.379807940921063</v>
+        <v>3.389513491750778</v>
       </c>
       <c r="P7" t="n">
-        <v>336.8367691321469</v>
+        <v>336.8932218979105</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17966,34 +18015,34 @@
         <v>0.075</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06759999999999999</v>
+        <v>0.0674</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08309999999999999</v>
+        <v>0.0829</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2880860986057598</v>
+        <v>0.2893095664998969</v>
       </c>
       <c r="J8" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K8" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3035322962212691</v>
+        <v>0.3064295931717763</v>
       </c>
       <c r="M8" t="n">
-        <v>2.336744798871143</v>
+        <v>2.335106697142368</v>
       </c>
       <c r="N8" t="n">
-        <v>10.32371607586474</v>
+        <v>10.30617256547531</v>
       </c>
       <c r="O8" t="n">
-        <v>3.21305401072947</v>
+        <v>3.210322813281448</v>
       </c>
       <c r="P8" t="n">
-        <v>338.4770976524042</v>
+        <v>338.4644606173616</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -18044,34 +18093,34 @@
         <v>0.08</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0698</v>
+        <v>0.0697</v>
       </c>
       <c r="H9" t="n">
         <v>0.0898</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3375728776834956</v>
+        <v>0.3388000231710326</v>
       </c>
       <c r="J9" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K9" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3374283538512812</v>
+        <v>0.3402570475853035</v>
       </c>
       <c r="M9" t="n">
-        <v>2.610793822994235</v>
+        <v>2.60899595951757</v>
       </c>
       <c r="N9" t="n">
-        <v>12.13058479959533</v>
+        <v>12.10783416690947</v>
       </c>
       <c r="O9" t="n">
-        <v>3.48289890746133</v>
+        <v>3.479631326291547</v>
       </c>
       <c r="P9" t="n">
-        <v>351.3642238256622</v>
+        <v>351.3515488052528</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -18122,34 +18171,34 @@
         <v>0.1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0873</v>
+        <v>0.0871</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1186</v>
+        <v>0.1184</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2687750943361839</v>
+        <v>0.2707073327263503</v>
       </c>
       <c r="J10" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K10" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2743690053015462</v>
+        <v>0.2779065829637141</v>
       </c>
       <c r="M10" t="n">
-        <v>2.518157682055305</v>
+        <v>2.52073802670824</v>
       </c>
       <c r="N10" t="n">
-        <v>10.35748217844808</v>
+        <v>10.35873116131368</v>
       </c>
       <c r="O10" t="n">
-        <v>3.218304239572151</v>
+        <v>3.218498277351361</v>
       </c>
       <c r="P10" t="n">
-        <v>348.9231298146889</v>
+        <v>348.9031719846843</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -18187,7 +18236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K342"/>
+  <dimension ref="A1:K343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18285,7 +18334,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-35.45088368585918,174.4268932172716</t>
+          <t>-35.450883671992116,174.42689343696324</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -18342,7 +18391,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-35.4508853915039,174.42686619520035</t>
+          <t>-35.45088516963176,174.4268697102666</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -18399,7 +18448,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-35.450884316809756,174.42688322130232</t>
+          <t>-35.45088410880417,174.42688651667683</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -18456,7 +18505,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-35.45088541923791,174.42686575581706</t>
+          <t>-35.450885329102384,174.42686718381273</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -18513,7 +18562,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-35.450886584064925,174.4268473017188</t>
+          <t>-35.45088657019795,174.42684752141045</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -18570,7 +18619,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-35.45089005079537,174.42679237880364</t>
+          <t>-35.45089020333094,174.42678996219524</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -18627,7 +18676,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-35.450890709471345,174.42678194344913</t>
+          <t>-35.45089081347274,174.42678029576155</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -18684,7 +18733,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-35.450889371318176,174.42680314369545</t>
+          <t>-35.45088942678573,174.42680226492877</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -18741,7 +18790,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-35.450889711056895,174.4267977612496</t>
+          <t>-35.45088973185722,174.42679743171206</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -18798,7 +18847,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-35.45088957238806,174.42679995816624</t>
+          <t>-35.45088948918672,174.42680127631627</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -18855,7 +18904,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-35.45089048760164,174.42678545851592</t>
+          <t>-35.45089045293449,174.4267860077451</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -18912,7 +18961,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-35.45089331643269,174.42674064141244</t>
+          <t>-35.45089320549844,174.42674239894598</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -18969,7 +19018,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-35.45089503591013,174.42671339964184</t>
+          <t>-35.450894938843014,174.42671493748375</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -19026,7 +19075,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-35.45089330256591,174.42674086110412</t>
+          <t>-35.4508933094993,174.42674075125825</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -19083,7 +19132,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-35.45089412070516,174.4267278992941</t>
+          <t>-35.45089409990503,174.42672822883162</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -19140,7 +19189,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-35.4508946199081,174.42671999039288</t>
+          <t>-35.45089458524123,174.42672053962215</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -19197,7 +19246,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-35.450892858828794,174.42674789123825</t>
+          <t>-35.45089280336163,174.42674877000502</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -19254,7 +19303,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-35.450891957486505,174.4267621711979</t>
+          <t>-35.45089193668629,174.4267625007354</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -19311,7 +19360,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-35.450890286532136,174.4267886440452</t>
+          <t>-35.450890279598696,174.42678875389103</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -19368,7 +19417,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-35.45089090360725,174.42677886776565</t>
+          <t>-35.45089084120643,174.4267798563782</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -19425,7 +19474,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-35.45088589071585,174.42685828630118</t>
+          <t>-35.450885856048366,174.4268588355303</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -19482,7 +19531,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-35.45088389386496,174.42688992189713</t>
+          <t>-35.45088388693143,174.42689003174297</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -19596,7 +19645,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-35.45088477442175,174.42687597147832</t>
+          <t>-35.450884836823356,174.42687498286594</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -19653,7 +19702,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-35.450887582485855,174.4268314839198</t>
+          <t>-35.45088782515729,174.42682763931583</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -19710,7 +19759,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-35.45088613338814,174.42685444169737</t>
+          <t>-35.450886237390506,174.42685279401002</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -19767,7 +19816,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-35.450893240165406,174.42674184971673</t>
+          <t>-35.45089330256591,174.42674086110412</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -19824,7 +19873,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-35.45089222095598,174.4267579970559</t>
+          <t>-35.45089229722341,174.42675678875162</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -19881,7 +19930,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-35.45089400283772,174.42672976667353</t>
+          <t>-35.45089391963716,174.4267310848237</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -19938,7 +19987,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-35.45089222095598,174.4267579970559</t>
+          <t>-35.45089207535444,174.42676030381858</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -19995,7 +20044,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-35.45089111854334,174.42677546254464</t>
+          <t>-35.45089095907463,174.42677798899894</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -20052,7 +20101,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-35.45089235962404,174.426755800139</t>
+          <t>-35.45089215162192,174.4267590955143</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -20109,7 +20158,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-35.45089122947805,174.4267737050112</t>
+          <t>-35.450891097743074,174.42677579208214</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -20166,7 +20215,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-35.450890099329435,174.42679160988277</t>
+          <t>-35.45089005079537,174.42679237880364</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -20223,7 +20272,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-35.4508906956045,174.42678216314079</t>
+          <t>-35.45089082040615,174.4267801859157</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -20280,7 +20329,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-35.4508906956045,174.42678216314079</t>
+          <t>-35.45089082040615,174.4267801859157</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -20337,7 +20386,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-35.4508906956045,174.42678216314079</t>
+          <t>-35.45089082040615,174.4267801859157</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -20394,7 +20443,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-35.45088913558096,174.4268068784538</t>
+          <t>-35.45088928811681,174.42680446184545</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -20451,7 +20500,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-35.450890057728806,174.4267922689578</t>
+          <t>-35.45089016866377,174.4267905114244</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -20508,7 +20557,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-35.45088762408667,174.42683082484484</t>
+          <t>-35.4508876171532,174.42683093469068</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -20565,7 +20614,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-35.45088878890837,174.4268123707454</t>
+          <t>-35.450888768108,174.4268127002829</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -20679,7 +20728,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-35.45088855317088,174.42681610550366</t>
+          <t>-35.45088847690284,174.42681731380782</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -20736,7 +20785,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-35.45088622352353,174.42685301370167</t>
+          <t>-35.450886084853686,174.42685521061813</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -20793,7 +20842,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-35.45088713874347,174.42683851405275</t>
+          <t>-35.450886993140415,174.4268408208151</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -20850,7 +20899,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-35.45088665339978,174.42684620326057</t>
+          <t>-35.450886521663556,174.42684829033124</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -20907,7 +20956,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-35.45088670193417,174.42684543433978</t>
+          <t>-35.45088654246401,174.42684796079376</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -20964,7 +21013,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-35.45088819263095,174.42682181748685</t>
+          <t>-35.45088809556246,174.42682335532848</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -21021,7 +21070,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-35.45088815796364,174.426822366716</t>
+          <t>-35.45088803316129,174.42682434394092</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -21078,7 +21127,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>-35.4508893019837,174.4268042421538</t>
+          <t>-35.4508891563813,174.4268065489163</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -21135,7 +21184,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>-35.45088992599351,174.4267943560287</t>
+          <t>-35.45088980812505,174.42679622340788</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -21192,7 +21241,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>-35.45088941985229,174.4268023747746</t>
+          <t>-35.450889260383015,174.4268049012288</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -21249,7 +21298,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>-35.45088941985229,174.4268023747746</t>
+          <t>-35.450889260383015,174.4268049012288</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -21306,7 +21355,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>-35.45088877504147,174.42681259043707</t>
+          <t>-35.45088860170508,174.42681533658285</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -21363,7 +21412,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>-35.45088914944785,174.4268066587621</t>
+          <t>-35.45088905931301,174.42680808675794</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -21420,7 +21469,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>-35.45088914944785,174.4268066587621</t>
+          <t>-35.45088905931301,174.42680808675794</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -21477,7 +21526,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>-35.45088937825161,174.4268030338496</t>
+          <t>-35.45088927424992,174.4268046815371</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -21534,7 +21583,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>-35.45089027266527,174.42678886373685</t>
+          <t>-35.450890161730335,174.42679062127027</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -21591,7 +21640,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>-35.45088892757744,174.42681017382876</t>
+          <t>-35.450888837442555,174.4268116018246</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -21648,7 +21697,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>-35.45089091747409,174.42677864807396</t>
+          <t>-35.450890674804214,174.4267824926783</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -21705,7 +21754,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>-35.45089345510044,174.4267384444955</t>
+          <t>-35.45089322629862,174.42674206940845</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -21762,7 +21811,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>-35.4508955212454,174.42670571043212</t>
+          <t>-35.45089530631126,174.42670911565358</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -21819,7 +21868,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>-35.4508929697631,174.4267461337047</t>
+          <t>-35.45089274096105,174.4267497586176</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -21876,7 +21925,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>-35.450890522268786,174.42678490928674</t>
+          <t>-35.45089031426587,174.42678820466185</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -21933,7 +21982,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>-35.450891943619695,174.4267623908896</t>
+          <t>-35.4508917494842,174.42676546657316</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -21990,7 +22039,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>-35.45089137507984,174.42677139824858</t>
+          <t>-35.45089122947805,174.4267737050112</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -22047,7 +22096,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>-35.45089117401071,174.42677458377793</t>
+          <t>-35.4508910422757,174.42677667084888</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -22104,7 +22153,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>-35.45089061933679,174.42678337144503</t>
+          <t>-35.45089048066822,174.42678556836177</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -22161,7 +22210,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>-35.45088853930397,174.42681632519532</t>
+          <t>-35.450888428368636,174.42681808272863</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -22218,7 +22267,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>-35.45088935051783,174.42680347323295</t>
+          <t>-35.45088929505025,174.4268043519996</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -22275,7 +22324,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>-35.45089012012974,174.42679128034527</t>
+          <t>-35.45089004386193,174.42679248864945</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -22332,7 +22381,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>-35.450886181922584,174.42685367277662</t>
+          <t>-35.450886008585265,174.42685641892217</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -22389,7 +22438,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>-35.450885960050805,174.42685718784296</t>
+          <t>-35.45088582831438,174.42685927491357</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -22446,7 +22495,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>-35.45088498242706,174.42687267610373</t>
+          <t>-35.45088488535793,174.4268742139452</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -22560,7 +22609,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>-35.45088730514692,174.42683587775292</t>
+          <t>-35.450887346747756,174.42683521867795</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -22617,7 +22666,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>-35.45089050840193,174.42678512897842</t>
+          <t>-35.45089066787078,174.42678260252413</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -22674,7 +22723,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>-35.450892033754,174.42676096289364</t>
+          <t>-35.45089229029001,174.42675689859746</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -22731,7 +22780,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>-35.450889919060074,174.4267944658745</t>
+          <t>-35.45089016866377,174.4267905114244</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -22788,7 +22837,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>-35.45089268549386,174.42675063738437</t>
+          <t>-35.45089276869464,174.4267493192342</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -22845,7 +22894,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>-35.45089415537203,174.42672735006485</t>
+          <t>-35.450894148438664,174.4267274599107</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -22902,7 +22951,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>-35.45089415537203,174.42672735006485</t>
+          <t>-35.450894148438664,174.4267274599107</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -22959,7 +23008,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>-35.45089144441401,174.42677029979018</t>
+          <t>-35.45089129187882,174.42677271639863</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -23016,7 +23065,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>-35.45089137507984,174.42677139824858</t>
+          <t>-35.45089109080966,174.42677590192798</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -23073,7 +23122,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>-35.450888234231726,174.42682115841188</t>
+          <t>-35.4508879499597,174.42682566209092</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -23130,7 +23179,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>-35.45088265276248,174.42690958429787</t>
+          <t>-35.450882333819436,174.4269146372052</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -23187,7 +23236,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>-35.45088540537091,174.4268659755087</t>
+          <t>-35.45088512803072,174.42687036934151</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -23244,7 +23293,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>-35.45088629285844,174.42685191524345</t>
+          <t>-35.450886043252744,174.42685586969307</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -23301,7 +23350,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>-35.45088729127996,174.42683609744455</t>
+          <t>-35.450887055541735,174.4268398322027</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -23358,7 +23407,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>-35.45088729127996,174.42683609744455</t>
+          <t>-35.450887055541735,174.4268398322027</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -23415,7 +23464,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>-35.45088798462702,174.42682511286176</t>
+          <t>-35.450887866758094,174.42682698024086</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -23472,7 +23521,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>-35.4508901547969,174.42679073111609</t>
+          <t>-35.450890147863475,174.42679084096193</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -23529,7 +23578,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>-35.450889877459446,174.42679512494954</t>
+          <t>-35.45088992599351,174.4267943560287</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -23586,7 +23635,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>-35.4508891425144,174.42680676860795</t>
+          <t>-35.450889246516134,174.42680512092045</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -23643,7 +23692,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>-35.45089107694282,174.42677612161967</t>
+          <t>-35.45089111160992,174.42677557239045</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -23700,7 +23749,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>-35.450891777217855,174.4267650271898</t>
+          <t>-35.45089189508583,174.4267631598105</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -23757,7 +23806,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>-35.45089130574566,174.42677249670697</t>
+          <t>-35.450891423613754,174.42677062932768</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -23814,7 +23863,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>-35.45089075107191,174.4267812843741</t>
+          <t>-35.45089084120643,174.4267798563782</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -23871,7 +23920,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>-35.450890175597216,174.4267904015786</t>
+          <t>-35.4508901131963,174.4267913901911</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -23928,7 +23977,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>-35.450889253449574,174.4268050110746</t>
+          <t>-35.45088917024821,174.4268063292246</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -23985,7 +24034,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>-35.45089041826735,174.4267865569743</t>
+          <t>-35.45089033506616,174.42678787512435</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -24042,7 +24091,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>-35.4508907788056,174.42678084499073</t>
+          <t>-35.45089075800532,174.42678117452823</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -24156,7 +24205,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>-35.450892935096135,174.42674668293395</t>
+          <t>-35.45089304603044,174.4267449254004</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -24213,7 +24262,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>-35.45089002999507,174.42679270834114</t>
+          <t>-35.450890140930035,174.42679095080777</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -24270,7 +24319,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>-35.4508914929479,174.42676953086928</t>
+          <t>-35.45089150681475,174.4267693111776</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -24327,7 +24376,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>-35.45088804009474,174.4268242340951</t>
+          <t>-35.45088780435688,174.4268279688533</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -24384,7 +24433,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>-35.45088772115526,174.42682928700324</t>
+          <t>-35.450887575552386,174.42683159376566</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -24441,7 +24490,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>-35.45088664646629,174.42684631310638</t>
+          <t>-35.45088643846171,174.42684960848112</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -24498,7 +24547,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>-35.45088663953281,174.4268464229522</t>
+          <t>-35.45088643846171,174.42684960848112</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -24555,7 +24604,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>-35.45088489229143,174.4268741040994</t>
+          <t>-35.45088471895364,174.42687685024487</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -24612,7 +24661,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>-35.45088545390542,174.42686520658796</t>
+          <t>-35.450885342969386,174.4268669641211</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -24669,7 +24718,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>-35.45088500322758,174.42687234656628</t>
+          <t>-35.45088502402811,174.42687201702884</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -24726,7 +24775,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>-35.4508870347413,174.42684016174016</t>
+          <t>-35.450887069408694,174.42683961251103</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -24783,7 +24832,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>-35.45088695153954,174.42684147989007</t>
+          <t>-35.45088702087433,174.4268403814318</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -24840,7 +24889,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>-35.450887943026224,174.42682577193673</t>
+          <t>-35.450888005427416,174.42682478332426</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -24897,7 +24946,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>-35.45089340656674,174.4267392134164</t>
+          <t>-35.45089357990141,174.42673646727025</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -24954,7 +25003,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>-35.45089796178105,174.4266670446903</t>
+          <t>-35.45089797564769,174.42666682499856</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -25011,7 +25060,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>-35.45089724071498,174.42667846865976</t>
+          <t>-35.45089715751499,174.42667978681007</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -25068,7 +25117,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>-35.45089489724282,174.42671559655886</t>
+          <t>-35.45089482097578,174.42671680486322</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -25125,7 +25174,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>-35.45089356603463,174.42673668696193</t>
+          <t>-35.45089354523448,174.4267370164995</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -25182,7 +25231,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>-35.450884406945484,174.4268817933067</t>
+          <t>-35.45088428907568,174.42688366068558</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -25239,7 +25288,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>-35.450883283714425,174.42689958832887</t>
+          <t>-35.45088315197728,174.42690167539934</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -25296,7 +25345,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>-35.45088619578957,174.42685345308496</t>
+          <t>-35.45088617498909,174.42685378262243</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -25353,7 +25402,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>-35.45088594618382,174.4268574075346</t>
+          <t>-35.45088588378236,174.426858396147</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -25410,7 +25459,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>-35.45088675046856,174.42684466541903</t>
+          <t>-35.45088664646629,174.42684631310638</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -25467,7 +25516,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>-35.450888483836295,174.42681720396197</t>
+          <t>-35.45088854623741,174.4268162153495</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -25524,7 +25573,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>-35.450886480062636,174.42684894940618</t>
+          <t>-35.45088645926217,174.42684927894365</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -25581,7 +25630,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>-35.450886396860774,174.42685026755606</t>
+          <t>-35.45088643152822,174.42684971832696</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -25638,7 +25687,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>-35.45088740221556,174.42683433991135</t>
+          <t>-35.450887423015985,174.42683401037385</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -25695,7 +25744,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>-35.450887845957695,174.42682730977833</t>
+          <t>-35.45088781129036,174.4268278590075</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -25752,7 +25801,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>-35.450886008585265,174.42685641892217</t>
+          <t>-35.45088589071585,174.42685828630118</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -25809,7 +25858,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>-35.45088546777243,174.4268649868963</t>
+          <t>-35.450885349902876,174.42686685427526</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -25866,7 +25915,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>-35.450885661910434,174.4268619112133</t>
+          <t>-35.45088562724295,174.4268624604424</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -25923,7 +25972,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>-35.45088676433553,174.42684444572737</t>
+          <t>-35.450886771269,174.42684433588153</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -25980,7 +26029,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>-35.45088693073909,174.42684180942754</t>
+          <t>-35.45088695847303,174.42684137004426</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -26037,7 +26086,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>-35.450886625665845,174.42684664264385</t>
+          <t>-35.45088657019795,174.42684752141045</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -26094,7 +26143,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>-35.450886563264476,174.4268476312563</t>
+          <t>-35.45088657713145,174.42684741156464</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -26151,7 +26200,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>-35.450888449169,174.42681775319116</t>
+          <t>-35.450888560104325,174.42681599565785</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -26208,7 +26257,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>-35.450889516920505,174.42680083693293</t>
+          <t>-35.45088958625493,174.42679973847459</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -26265,7 +26314,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>-35.45089047373478,174.42678567820758</t>
+          <t>-35.45089055693594,174.42678436005752</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -26322,7 +26371,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>-35.45089018946408,174.4267901818869</t>
+          <t>-35.45089024493155,174.42678930312022</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -26379,7 +26428,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>-35.45088928811681,174.42680446184545</t>
+          <t>-35.45088929505025,174.4268043519996</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -26436,7 +26485,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>-35.450889163314756,174.42680643907045</t>
+          <t>-35.45088920491544,174.42680577999545</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -26493,7 +26542,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>-35.45089031426587,174.42678820466185</t>
+          <t>-35.450890300399,174.42678842435353</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -26550,7 +26599,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>-35.450889960660696,174.4267938067995</t>
+          <t>-35.45088988439288,174.4267950151037</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -26607,7 +26656,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>-35.450889177181644,174.4268062193788</t>
+          <t>-35.450889087046804,174.4268076473746</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -26664,7 +26713,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>-35.45088874730764,174.4268130298204</t>
+          <t>-35.450888671039635,174.42681423812454</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -26721,7 +26770,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>-35.450887852891164,174.42682719993252</t>
+          <t>-35.45088779048994,174.42682818854496</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -26778,7 +26827,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>-35.4508876171532,174.42683093469068</t>
+          <t>-35.45088754781849,174.42683203314894</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -26835,7 +26884,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>-35.45088759635279,174.42683126422816</t>
+          <t>-35.45088753395154,174.4268322528406</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -26892,7 +26941,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>-35.450887180344345,174.4268378549778</t>
+          <t>-35.45088713180999,174.4268386238986</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -26949,7 +26998,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>-35.45088752701808,174.42683236268644</t>
+          <t>-35.450887464616834,174.42683335129888</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -27006,7 +27055,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>-35.45088655633099,174.4268477411021</t>
+          <t>-35.45088654246401,174.42684796079376</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -27063,7 +27112,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>-35.45088707634216,174.4268395026652</t>
+          <t>-35.45088702087433,174.4268403814318</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -27120,7 +27169,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>-35.45088831743327,174.4268198402619</t>
+          <t>-35.45088828969941,174.42682027964526</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -27177,7 +27226,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>-35.45089100067518,174.42677732992388</t>
+          <t>-35.450891028408854,174.42677689054054</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -27234,7 +27283,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>-35.45089075800532,174.42678117452823</t>
+          <t>-35.450890744138476,174.42678139421992</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -27291,7 +27340,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>-35.45089073720505,174.42678150406576</t>
+          <t>-35.450890709471345,174.42678194344913</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -27348,7 +27397,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>-35.4508901547969,174.42679073111609</t>
+          <t>-35.450890085462554,174.42679182957446</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -27405,7 +27454,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>-35.45089050840193,174.42678512897842</t>
+          <t>-35.450890459867935,174.42678589789926</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -27462,7 +27511,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>-35.45089020333094,174.42678996219524</t>
+          <t>-35.450890147863475,174.42679084096193</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -27519,7 +27568,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>-35.450890175597216,174.4267904015786</t>
+          <t>-35.4508901131963,174.4267913901911</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -27576,7 +27625,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>-35.45088997452757,174.42679358710782</t>
+          <t>-35.450889863592565,174.4267953446412</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -27633,7 +27682,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>-35.450888823575646,174.42681182151622</t>
+          <t>-35.45088879584182,174.4268122608996</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -27690,7 +27739,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>-35.450888282765966,174.42682038949107</t>
+          <t>-35.45088828969941,174.42682027964526</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -27747,7 +27796,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>-35.450887956893155,174.42682555224505</t>
+          <t>-35.45088796382663,174.42682544239923</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -27804,7 +27853,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>-35.45088785982463,174.42682709008668</t>
+          <t>-35.450887894491956,174.42682654085752</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -27861,7 +27910,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>-35.45088769342138,174.42682972638656</t>
+          <t>-35.45088772808873,174.42682917715743</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -27918,7 +27967,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>-35.450887173410855,174.42683796482362</t>
+          <t>-35.45088724274563,174.42683686636536</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -27975,7 +28024,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>-35.450885557907945,174.42686355890064</t>
+          <t>-35.450885724311924,174.42686092260092</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -28032,7 +28081,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>-35.45088741608251,174.42683412021967</t>
+          <t>-35.4508874438164,174.42683368083635</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -28089,7 +28138,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>-35.45088647312915,174.426849059252</t>
+          <t>-35.45088643152822,174.42684971832696</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -28146,7 +28195,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>-35.45088642459473,174.42684982817278</t>
+          <t>-35.45088636912683,174.42685070693938</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -28203,7 +28252,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>-35.450886445395184,174.4268494986353</t>
+          <t>-35.45088634832636,174.42685103647685</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -28260,7 +28309,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>-35.450887839024226,174.42682741962415</t>
+          <t>-35.45088781129036,174.4268278590075</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -28317,7 +28366,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>-35.45088679206946,174.42684400634406</t>
+          <t>-35.45088675046856,174.42684466541903</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -28374,7 +28423,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>-35.450887367548184,174.42683488914045</t>
+          <t>-35.45088733981429,174.4268353285238</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -28488,7 +28537,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>-35.45088546777243,174.4268649868963</t>
+          <t>-35.45088554404094,174.4268637785923</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -28545,7 +28594,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>-35.450885724311924,174.42686092260092</t>
+          <t>-35.45088582831438,174.42685927491357</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -28602,7 +28651,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>-35.45088593925031,174.42685751738043</t>
+          <t>-35.45088605018623,174.42685575984726</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -28659,7 +28708,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>-35.450886833670346,174.42684334726908</t>
+          <t>-35.45088697233998,174.4268411503526</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -28716,7 +28765,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>-35.450884552549326,174.4268794865445</t>
+          <t>-35.45088471895364,174.42687685024487</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -28773,7 +28822,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>-35.45088670193417,174.42684543433978</t>
+          <t>-35.450886799002944,174.42684389649824</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -28830,7 +28879,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>-35.45088799849396,174.42682489317008</t>
+          <t>-35.45088797769357,174.42682522270758</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -28887,7 +28936,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>-35.45088748541724,174.42683302176138</t>
+          <t>-35.450887325947335,174.42683554821545</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -28944,7 +28993,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>-35.45088700700738,174.42684060112344</t>
+          <t>-35.450886799002944,174.42684389649824</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -29001,7 +29050,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>-35.450886396860774,174.42685026755606</t>
+          <t>-35.45088605018623,174.42685575984726</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -29058,7 +29107,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>-35.45088876117456,174.42681281012872</t>
+          <t>-35.45088845610246,174.4268176433453</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -29115,7 +29164,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>-35.45088772115526,174.42682928700324</t>
+          <t>-35.450887464616834,174.42683335129888</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -29172,7 +29221,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>-35.45088861557199,174.4268151168912</t>
+          <t>-35.4508883798344,174.42681885164944</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -29229,7 +29278,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>-35.45088736061471,174.4268349989863</t>
+          <t>-35.450887215011726,174.42683730574865</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -29286,7 +29335,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>-35.4508863760603,174.42685059709353</t>
+          <t>-35.45088623045703,174.42685290385583</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -29343,7 +29392,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>-35.450885537107446,174.4268638884381</t>
+          <t>-35.45088539843741,174.42686608535453</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -29400,7 +29449,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>-35.45088584218137,174.4268590552219</t>
+          <t>-35.45088582138089,174.4268593847594</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -29457,7 +29506,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>-35.450886008585265,174.42685641892217</t>
+          <t>-35.45088601551877,174.42685630907636</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -29514,7 +29563,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>-35.450885537107446,174.4268638884381</t>
+          <t>-35.45088553017395,174.42686399828392</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -29571,7 +29620,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>-35.450884663485546,174.4268777290114</t>
+          <t>-35.45088469815312,174.4268771797823</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -29628,7 +29677,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>-35.450885648043446,174.42686213090496</t>
+          <t>-35.45088581444739,174.42685949460522</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -29685,7 +29734,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>-35.450886979273456,174.4268410405068</t>
+          <t>-35.450887027807816,174.42684027158597</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -29742,7 +29791,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>-35.45088878890837,174.4268123707454</t>
+          <t>-35.45088877504147,174.42681259043707</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -29799,7 +29848,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>-35.45088807476208,174.42682368486595</t>
+          <t>-35.45088802622782,174.4268244537868</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -29856,7 +29905,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>-35.45088754781849,174.42683203314894</t>
+          <t>-35.45088755475195,174.42683192330313</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -29913,7 +29962,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>-35.45088627899146,174.42685213493507</t>
+          <t>-35.45088622352353,174.42685301370167</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -29970,7 +30019,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>-35.45088655633099,174.4268477411021</t>
+          <t>-35.45088654939749,174.42684785094792</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -30027,7 +30076,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>-35.450886778202495,174.4268442260357</t>
+          <t>-35.450886771269,174.42684433588153</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -30084,7 +30133,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>-35.45088720114477,174.4268375254403</t>
+          <t>-35.450887194211305,174.42683763528612</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -30141,7 +30190,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>-35.45088724967911,174.42683675651952</t>
+          <t>-35.450887173410855,174.42683796482362</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -30198,7 +30247,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>-35.45088666033327,174.42684609341472</t>
+          <t>-35.45088668113372,174.42684576387725</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -30255,7 +30304,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>-35.45088666033327,174.42684609341472</t>
+          <t>-35.45088668113372,174.42684576387725</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -30312,7 +30361,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>-35.450888012360885,174.42682467347842</t>
+          <t>-35.45088799156049,174.42682500301592</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -30369,7 +30418,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>-35.45088819263095,174.42682181748685</t>
+          <t>-35.450888206497886,174.4268215977952</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -30483,7 +30532,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>-35.45088747848377,174.42683313160725</t>
+          <t>-35.45088748541724,174.42683302176138</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -30540,7 +30589,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>-35.4508889622447,174.4268096245996</t>
+          <t>-35.45088895531124,174.42680973444544</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -30597,7 +30646,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>-35.45088857397125,174.42681577596616</t>
+          <t>-35.45088858090471,174.42681566612035</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -30654,7 +30703,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>-35.45088613338814,174.42685444169737</t>
+          <t>-35.45088622352353,174.42685301370167</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -30711,7 +30760,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>-35.45088590458285,174.42685806660953</t>
+          <t>-35.45088593925031,174.42685751738043</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -30768,7 +30817,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>-35.45088590458285,174.42685806660953</t>
+          <t>-35.45088593925031,174.42685751738043</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -30825,7 +30874,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>-35.45088601551877,174.42685630907636</t>
+          <t>-35.45088610565417,174.42685488108066</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -30882,7 +30931,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>-35.45088397013371,174.42688871359317</t>
+          <t>-35.45088398400077,174.42688849390154</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -30939,7 +30988,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>-35.45088324211322,174.42690024740378</t>
+          <t>-35.45088320051202,174.42690090647864</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -30996,7 +31045,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>-35.45088327678089,174.4268996981747</t>
+          <t>-35.45088321437909,174.426900686787</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -31053,7 +31102,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>-35.45088170979982,174.4269245233281</t>
+          <t>-35.45088164739782,174.4269255119404</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -31110,7 +31159,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>-35.45088216741429,174.42691727350467</t>
+          <t>-35.45088214661364,174.42691760304209</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -31167,7 +31216,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>-35.450882417021994,174.42691331905544</t>
+          <t>-35.45088238928783,174.4269137584387</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -31224,7 +31273,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>-35.450883567989194,174.42689508465045</t>
+          <t>-35.45088360959037,174.4268944255756</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -31281,7 +31330,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>-35.45088367892564,174.42689332711743</t>
+          <t>-35.45088364425801,174.42689387634653</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -31338,7 +31387,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>-35.45088383146324,174.42689091050948</t>
+          <t>-35.45088388693143,174.42689003174297</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -31395,7 +31444,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>-35.45088450401471,174.42688025546525</t>
+          <t>-35.45088461495095,174.42687849793217</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -31452,7 +31501,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>-35.45088426827513,174.42688399022305</t>
+          <t>-35.45088433067679,174.4268830016107</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -31509,7 +31558,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>-35.45088523896681,174.4268686118084</t>
+          <t>-35.45088528750134,174.42686784288765</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -31566,7 +31615,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>-35.45088481602282,174.42687531240338</t>
+          <t>-35.45088485762389,174.4268746533285</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -31623,7 +31672,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>-35.45088461495095,174.42687849793217</t>
+          <t>-35.45088458028338,174.42687904716124</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -31680,7 +31729,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>-35.45088456641635,174.42687926685286</t>
+          <t>-35.4508844970812,174.42688036531104</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -31737,7 +31786,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>-35.450884025601894,174.42688783482666</t>
+          <t>-35.45088392853257,174.42688937266806</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -31794,7 +31843,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>-35.450883762127965,174.42689200896766</t>
+          <t>-35.450883671992116,174.42689343696324</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -31851,7 +31900,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>-35.450884933892496,174.42687344502448</t>
+          <t>-35.45088476748824,174.42687608132414</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -31908,7 +31957,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>-35.450885058695654,174.42687146779974</t>
+          <t>-35.450884940826,174.42687333517864</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -31965,7 +32014,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>-35.45088580751389,174.42685960445104</t>
+          <t>-35.45088563417644,174.4268623505966</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -32022,7 +32071,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>-35.45088634832636,174.42685103647685</t>
+          <t>-35.450886237390506,174.42685279401002</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -32079,7 +32128,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>-35.45088601551877,174.42685630907636</t>
+          <t>-35.45088589764935,174.42685817645534</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -32136,7 +32185,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>-35.45088576591292,174.42686026352598</t>
+          <t>-35.45088565497694,174.42686202105915</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
@@ -32193,7 +32242,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>-35.45088672273463,174.4268451048023</t>
+          <t>-35.450886604865374,174.42684697218132</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
@@ -32250,7 +32299,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>-35.450886993140415,174.4268408208151</t>
+          <t>-35.45088689607169,174.42684235865667</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -32307,7 +32356,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>-35.450887173410855,174.42683796482362</t>
+          <t>-35.45088713874347,174.42683851405275</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
@@ -32364,7 +32413,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>-35.45088843530209,174.4268179728828</t>
+          <t>-35.4508883798344,174.42681885164944</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
@@ -32421,7 +32470,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>-35.45088892757744,174.42681017382876</t>
+          <t>-35.450888858242905,174.4268112722871</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -32478,7 +32527,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>-35.45088764488708,174.42683049530734</t>
+          <t>-35.45088754088503,174.42683214299475</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -32535,7 +32584,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>-35.45088623045703,174.42685290385583</t>
+          <t>-35.45088614725512,174.42685422200574</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -32592,7 +32641,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>-35.45088804702822,174.4268241242493</t>
+          <t>-35.45088781129036,174.4268278590075</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -32649,7 +32698,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>-35.4508852250998,174.42686883150003</t>
+          <t>-35.45088499629408,174.4268724564121</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
@@ -32706,7 +32755,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>-35.450885509373435,174.4268643278214</t>
+          <t>-35.45088537070339,174.4268665247378</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -32763,7 +32812,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>-35.450885835247895,174.42685916506775</t>
+          <t>-35.450885717378426,174.42686103244674</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
@@ -32820,7 +32869,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>-35.450886521663556,174.42684829033124</t>
+          <t>-35.45088643152822,174.42684971832696</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
@@ -32877,7 +32926,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>-35.450888206497886,174.4268215977952</t>
+          <t>-35.45088811636285,174.42682302579098</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
@@ -32934,7 +32983,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>-35.45088828969941,174.42682027964526</t>
+          <t>-35.45088824809866,174.42682093872023</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
@@ -32991,7 +33040,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>-35.45088855317088,174.42681610550366</t>
+          <t>-35.450888490769756,174.42681709411616</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
@@ -33048,7 +33097,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>-35.450889163314756,174.42680643907045</t>
+          <t>-35.45088908011335,174.42680775722044</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
@@ -33105,7 +33154,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>-35.45088928811681,174.42680446184545</t>
+          <t>-35.45088923264924,174.4268053406121</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -33162,7 +33211,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>-35.45088948918672,174.42680127631627</t>
+          <t>-35.45088946145296,174.42680171569958</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -33219,7 +33268,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>-35.450888684906545,174.42681401843288</t>
+          <t>-35.450888643305824,174.42681467750788</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
@@ -33276,7 +33325,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>-35.45088976652441,174.42679688248288</t>
+          <t>-35.450889711056895,174.4267977612496</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -33333,7 +33382,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>-35.45088892064398,174.4268102836746</t>
+          <t>-35.45088892757744,174.42681017382876</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
@@ -33390,7 +33439,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>-35.45088865023928,174.42681456766203</t>
+          <t>-35.45088869184,174.42681390858706</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
@@ -33447,7 +33496,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>-35.4508889345109,174.42681006398294</t>
+          <t>-35.45088892064398,174.4268102836746</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
@@ -33504,7 +33553,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>-35.450888768108,174.4268127002829</t>
+          <t>-35.450888754241106,174.42681291997457</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
@@ -33561,7 +33610,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>-35.45088856703779,174.426815885812</t>
+          <t>-35.45088855317088,174.42681610550366</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
@@ -33618,7 +33667,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>-35.450887943026224,174.42682577193673</t>
+          <t>-35.45088793609277,174.42682588178255</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
@@ -33732,7 +33781,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>-35.45088714567696,174.42683840420693</t>
+          <t>-35.450887187277814,174.426837745132</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
@@ -33789,7 +33838,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>-35.45088695847303,174.42684137004426</t>
+          <t>-35.45088693767258,174.42684169958173</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
@@ -33846,7 +33895,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>-35.450887589419324,174.426831374074</t>
+          <t>-35.450887582485855,174.4268314839198</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
@@ -33903,7 +33952,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>-35.45088629285844,174.42685191524345</t>
+          <t>-35.45088628592495,174.42685202508923</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -33960,7 +34009,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>-35.45088654939749,174.42684785094792</t>
+          <t>-35.450886528597046,174.4268481804854</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
@@ -34017,7 +34066,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>-35.450887714221786,174.4268293968491</t>
+          <t>-35.450887665687496,174.42683016576987</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -34074,7 +34123,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>-35.45088702087433,174.4268403814318</t>
+          <t>-35.45088695153954,174.42684147989007</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
@@ -34131,7 +34180,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>-35.45088754088503,174.42683214299475</t>
+          <t>-35.45088748541724,174.42683302176138</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
@@ -34188,7 +34237,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>-35.450885745112416,174.42686059306345</t>
+          <t>-35.45088555097445,174.42686366874645</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -34245,7 +34294,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>-35.450883692792694,174.4268931074258</t>
+          <t>-35.450883519454486,174.42689585357118</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
@@ -34302,7 +34351,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>-35.450884850690365,174.42687476317428</t>
+          <t>-35.45088467041906,174.42687761916562</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
@@ -34359,7 +34408,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>-35.450886563264476,174.4268476312563</t>
+          <t>-35.45088645232869,174.42684938878946</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
@@ -34416,7 +34465,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>-35.45089377403615,174.4267333915865</t>
+          <t>-35.45089372550247,174.42673416050746</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -34473,7 +34522,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>-35.45089044600107,174.42678611759095</t>
+          <t>-35.45089030733244,174.4267883145077</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -34530,7 +34579,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>-35.45088896917814,174.42680951475376</t>
+          <t>-35.45088889291017,174.4268107230579</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -34587,7 +34636,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>-35.45088896917814,174.42680951475376</t>
+          <t>-35.45088889291017,174.4268107230579</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
@@ -34644,7 +34693,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>-35.45088920491544,174.42680577999545</t>
+          <t>-35.4508891425144,174.42680676860795</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
@@ -34701,7 +34750,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>-35.450888241165195,174.42682104856604</t>
+          <t>-35.4508881648971,174.4268222568702</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
@@ -34758,7 +34807,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>-35.45088813716325,174.42682269625348</t>
+          <t>-35.45088804009474,174.4268242340951</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
@@ -34815,7 +34864,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>-35.45088833823364,174.4268195107244</t>
+          <t>-35.45088824809866,174.42682093872023</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
@@ -34872,7 +34921,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>-35.450887741955675,174.42682895746574</t>
+          <t>-35.45088770035485,174.42682961654072</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
@@ -34929,7 +34978,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>-35.450887741955675,174.42682895746574</t>
+          <t>-35.45088770035485,174.42682961654072</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
@@ -34986,7 +35035,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>-35.4508870347413,174.42684016174016</t>
+          <t>-35.45088697233998,174.4268411503526</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
@@ -35043,7 +35092,7 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>-35.45088739528208,174.42683444975717</t>
+          <t>-35.450887325947335,174.42683554821545</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
@@ -35100,7 +35149,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>-35.45088727741299,174.42683631713624</t>
+          <t>-35.4508872219452,174.42683719590283</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
@@ -35157,7 +35206,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>-35.450887741955675,174.42682895746574</t>
+          <t>-35.45088769342138,174.42682972638656</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
@@ -35214,7 +35263,7 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>-35.450886043252744,174.42685586969307</t>
+          <t>-35.45088598778478,174.42685674845964</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
@@ -35271,7 +35320,7 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>-35.45088601551877,174.42685630907636</t>
+          <t>-35.45088598778478,174.42685674845964</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
@@ -35328,7 +35377,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>-35.45088601551877,174.42685630907636</t>
+          <t>-35.45088598778478,174.42685674845964</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
@@ -35385,7 +35434,7 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>-35.45088557177494,174.42686333920898</t>
+          <t>-35.45088557870845,174.42686322936316</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
@@ -35442,7 +35491,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>-35.450885557907945,174.42686355890064</t>
+          <t>-35.45088558564194,174.42686311951735</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
@@ -35499,7 +35548,7 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>-35.45088587684886,174.4268585059928</t>
+          <t>-35.45088588378236,174.426858396147</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
@@ -35556,7 +35605,7 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>-35.45088550243994,174.4268644376672</t>
+          <t>-35.450885509373435,174.4268643278214</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
@@ -35613,7 +35662,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>-35.45088591844983,174.42685784691787</t>
+          <t>-35.45088593231683,174.42685762722624</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
@@ -35670,7 +35719,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>-35.450885648043446,174.42686213090496</t>
+          <t>-35.45088568964444,174.42686147183002</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
@@ -35727,7 +35776,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>-35.450885648043446,174.42686213090496</t>
+          <t>-35.45088568964444,174.42686147183002</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
@@ -35784,7 +35833,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>-35.450885294434855,174.42686773304183</t>
+          <t>-35.45088532216887,174.42686729365855</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
@@ -35841,7 +35890,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>-35.45088557177494,174.42686333920898</t>
+          <t>-35.45088556484144,174.42686344905482</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
@@ -35898,7 +35947,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>-35.45088603631925,174.4268559795389</t>
+          <t>-35.45088593231683,174.42685762722624</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
@@ -35955,7 +36004,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>-35.450885793646904,174.4268598241427</t>
+          <t>-35.45088568271094,174.42686158167584</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
@@ -36012,7 +36061,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>-35.450885460838926,174.42686509674212</t>
+          <t>-35.45088533603587,174.4268670739669</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
@@ -36069,7 +36118,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>-35.450886771269,174.42684433588153</t>
+          <t>-35.450886584064925,174.4268473017188</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
@@ -36126,7 +36175,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>-35.45088672273463,174.4268451048023</t>
+          <t>-35.45088659099842,174.42684719187298</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
@@ -36183,7 +36232,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>-35.45088753395154,174.4268322528406</t>
+          <t>-35.45088736061471,174.4268349989863</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
@@ -36240,7 +36289,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>-35.45088669500069,174.42684554418562</t>
+          <t>-35.45088659099842,174.42684719187298</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
@@ -36297,7 +36346,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>-35.450886341392874,174.42685114632266</t>
+          <t>-35.450886209656545,174.4268532333933</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
@@ -36354,7 +36403,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>-35.45088602245225,174.42685619923054</t>
+          <t>-35.45088588378236,174.426858396147</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
@@ -36411,7 +36460,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>-35.45088642459473,174.42684982817278</t>
+          <t>-35.45088628592495,174.42685202508923</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
@@ -36468,7 +36517,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>-35.45088621659004,174.4268531235475</t>
+          <t>-35.45088603631925,174.4268559795389</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
@@ -36525,7 +36574,7 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>-35.450885856048366,174.4268588355303</t>
+          <t>-35.45088552324043,174.42686410812973</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
@@ -36582,7 +36631,7 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>-35.45088618885607,174.4268535629308</t>
+          <t>-35.45088593231683,174.42685762722624</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
@@ -36639,7 +36688,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>-35.450884920025466,174.4268736647161</t>
+          <t>-35.450884663485546,174.4268777290114</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
@@ -36696,7 +36745,7 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>-35.45088494775952,174.42687322533283</t>
+          <t>-35.45088469815312,174.4268771797823</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
@@ -36753,7 +36802,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>-35.45088378292856,174.4268916794302</t>
+          <t>-35.45088360265684,174.42689453542138</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
@@ -36810,7 +36859,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>-35.450883588789786,174.42689475511304</t>
+          <t>-35.45088346398625,174.4268967323377</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
@@ -36867,7 +36916,7 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>-35.45088342238506,174.42689739141258</t>
+          <t>-35.45088335998328,174.42689838002494</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
@@ -36924,7 +36973,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>-35.45088442774604,174.42688146376923</t>
+          <t>-35.45088437227789,174.42688234253578</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
@@ -36981,7 +37030,7 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>-35.450884406945484,174.4268817933067</t>
+          <t>-35.450884379211416,174.42688223268996</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
@@ -37038,7 +37087,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>-35.45088528056785,174.42686795273346</t>
+          <t>-35.45088524590032,174.42686850196256</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
@@ -37095,7 +37144,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>-35.45088516963176,174.4268697102666</t>
+          <t>-35.45088516269824,174.42686982011242</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
@@ -37152,7 +37201,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>-35.45088576591292,174.42686026352598</t>
+          <t>-35.450885724311924,174.42686092260092</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
@@ -37209,7 +37258,7 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>-35.450885849114876,174.42685894537613</t>
+          <t>-35.45088588378236,174.426858396147</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
@@ -37266,7 +37315,7 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>-35.45088552324043,174.42686410812973</t>
+          <t>-35.45088553017395,174.42686399828392</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
@@ -37323,7 +37372,7 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>-35.450885648043446,174.42686213090496</t>
+          <t>-35.45088565497694,174.42686202105915</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
@@ -37380,7 +37429,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>-35.45088577977991,174.42686004383435</t>
+          <t>-35.45088581444739,174.42685949460522</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
@@ -37437,7 +37486,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>-35.450886140321636,174.42685433185156</t>
+          <t>-35.45088616112211,174.4268540023141</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
@@ -37494,7 +37543,7 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>-35.45088611258766,174.42685477123484</t>
+          <t>-35.45088614725512,174.42685422200574</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
@@ -37551,7 +37600,7 @@
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>-35.4508858005804,174.42685971429688</t>
+          <t>-35.450885856048366,174.4268588355303</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
@@ -37608,7 +37657,7 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>-35.45088622352353,174.42685301370167</t>
+          <t>-35.45088628592495,174.42685202508923</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
@@ -37665,7 +37714,7 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>-35.450885793646904,174.4268598241427</t>
+          <t>-35.45088584218137,174.4268590552219</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
@@ -37686,6 +37735,63 @@
       <c r="K342" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>-35.44713249856181,174.42722369296237</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>-35.44787380237764,174.4269021693162</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>-35.44865431295768,174.42673412107726</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>-35.44940426218012,174.4267518634902</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>-35.45014420586393,174.42678134993307</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>-35.450885190432274,174.42686938072913</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>-35.451616856495974,174.42701977042</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>-35.45232552242543,174.4272927812423</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>-35.45302128118936,174.42757605652022</t>
+        </is>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
